--- a/Налоги_таблицы.xlsx
+++ b/Налоги_таблицы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1683" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2D8E56-561A-4195-99CD-8F3D87FEBF3F}"/>
+  <xr:revisionPtr revIDLastSave="1796" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20927EE-3CD3-4262-B596-605CB85F0BE0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Транспортный" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="356">
   <si>
     <t>Тип транспортных средств </t>
   </si>
@@ -488,68 +488,60 @@
     <t xml:space="preserve">Четвертый класс </t>
   </si>
   <si>
-    <t>товар</t>
-  </si>
-  <si>
-    <t>ставка, рублей за единицу налогообложения, 2025</t>
-  </si>
-  <si>
-    <t>ставка, рублей за единицу налогообложения, 2026</t>
-  </si>
-  <si>
-    <t>рост_налога</t>
-  </si>
-  <si>
-    <t xml:space="preserve">этиловый сырец из пищевого 
-сырья, отпущенный организациям 
-Республики Беларусь 
-для производства спирта этилового 
-ректификованного </t>
-  </si>
-  <si>
-    <t xml:space="preserve">этиловый ректификованный 
-из пищевого сырья, отпущенный 
-организациям Республики Беларусь 
-для производства алкогольной 
-продукции, уксуса 
-и слабоалкогольных напитков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">пиво с нормативным 
-(стандартизированным) содержанием 
-объемной доли этилового спирта 
-до 0,5 процента включительно </t>
-  </si>
-  <si>
-    <t>спиртосодержащая продукция с объемной долей этилового спирта до 7 процентов, а также с объемной долей этилового спирта 7 процентов и более, отпущенная организациям Республики Беларусь для производства безалкогольных напитков</t>
+    <t>Подакцизный_товар</t>
+  </si>
+  <si>
+    <t>Единица налогообложения</t>
+  </si>
+  <si>
+    <t>Рост_налога</t>
+  </si>
+  <si>
+    <t>Спирт-сырец (для ректификации)</t>
+  </si>
+  <si>
+    <t>за литр</t>
+  </si>
+  <si>
+    <t>Ректификованный спирт (для производства)</t>
+  </si>
+  <si>
+    <t>Пиво ≤0,5%</t>
+  </si>
+  <si>
+    <t>Спиртосодержащая продукция ≤7%, а также ≥7%  для безалкогольных напитков</t>
   </si>
   <si>
     <t>Жидкости для электронных систем курения</t>
   </si>
   <si>
+    <t>за миллилитр</t>
+  </si>
+  <si>
     <t xml:space="preserve">Нетабачные никотиносодержащие 
-изделия (за исключением нетабачных 
-никотиносодержащих смесей 
+изделия (кроме смесей 
 для кальяна) </t>
   </si>
   <si>
-    <t xml:space="preserve">спирт этиловый ректификованный 
-технический </t>
-  </si>
-  <si>
-    <t>сигареты с фильтром до 265 рублей (I группа)</t>
-  </si>
-  <si>
-    <t>сигареты без фильтра, папиросы</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> вина фруктово-ягодные 
-натуральные с объемной долей 
-этилового спирта менее 13 процентов, 
-сидры фруктово-ягодные </t>
-  </si>
-  <si>
-    <t>пиво с нормативным (стандартизированным) содержанием объемной доли этилового спирта свыше 0,5 процента до 7 процентов</t>
+    <t>за килограмм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техспирт этиловый ректификованный </t>
+  </si>
+  <si>
+    <t>Сигареты с фильтром до 265 рублей (I группа)</t>
+  </si>
+  <si>
+    <t>за 1000 штук</t>
+  </si>
+  <si>
+    <t>Сигареты без фильтра, папиросы</t>
+  </si>
+  <si>
+    <t>Фруктово-ягодные вина и сидры (&lt;13%)</t>
+  </si>
+  <si>
+    <t>Пиво (0,5% – 7%)</t>
   </si>
   <si>
     <t>Нетабачные никотиносодержащие смеси для кальяна</t>
@@ -558,79 +550,65 @@
     <t>Вина натуральные, в том числе игристые, шампанские, газированные и шипучие</t>
   </si>
   <si>
-    <t xml:space="preserve">спирт этиловый из пищевого сырья, 
-спирт синтетический, спирт этиловый 
-денатурированный 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Вина плодовые крепленые марочные, 
-улучшенного качества и специальной 
-технологии</t>
-  </si>
-  <si>
-    <t>сигары</t>
-  </si>
-  <si>
-    <t>Алкогольная продукция с объемной 
-долей этилового спирта 7 процентов 
-и более (за исключением спиртов, вин 
-плодовых крепленых марочных, 
-улучшенного качества и специальной 
-технологии, вин фруктово-ягодных 
-натуральных, вин натуральных,  
-в том числе игристых, шампанских, 
-газированных и шипучих, сидра, пива, 
-пивного коктейля, напитков, 
-изготавливаемых на основе пива 
-(пивных напитков), спиртосодержащей 
-продукции)</t>
-  </si>
-  <si>
-    <t>слабоалкогольные натуральные напитки</t>
-  </si>
-  <si>
-    <t>трубочный, курительный, нюхательный табак</t>
-  </si>
-  <si>
-    <t>табак для кальяна</t>
-  </si>
-  <si>
-    <t>сигариллы</t>
-  </si>
-  <si>
-    <t>сигареты с фильтром от 265 рублей (II группа)</t>
-  </si>
-  <si>
-    <t>иные слабоалкогольные напитки</t>
-  </si>
-  <si>
-    <t>спиртосодержащая продукция с объемной долей этилового спирта 7 процентов и более, за исключением отпущенной организациям Республики Беларусь для производства безалкогольных напитков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вина фруктово-ягодные 
-натуральные с объемной долей 
-этилового спирта 13 и более 
-процентов </t>
-  </si>
-  <si>
-    <t>пиво с нормативным (стандартизированным) содержанием объемной доли этилового спирта 7 процентов и более</t>
-  </si>
-  <si>
-    <t>сидры (за исключением сидров фруктово-ягодных)</t>
-  </si>
-  <si>
-    <t>Дизельное топливо не соответствующее классу 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Автомобильный бензин не соответствующий классу 5 </t>
-  </si>
-  <si>
-    <t>Автомобильный бензин класса 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">табачные изделия, предназначенные 
-для потребления путем нагревания </t>
+    <t xml:space="preserve">Спирт из пищевого сырья/синтетический/
+денатурированный </t>
+  </si>
+  <si>
+    <t>Вина плодовые крепленые марочные</t>
+  </si>
+  <si>
+    <t>Сигары</t>
+  </si>
+  <si>
+    <t>за штуку</t>
+  </si>
+  <si>
+    <t>Прочая алкогольная продукция ≥7%</t>
+  </si>
+  <si>
+    <t>Слабоалкогольные натуральные напитки</t>
+  </si>
+  <si>
+    <t>Трубочный, курительный, нюхательный табак</t>
+  </si>
+  <si>
+    <t>Табак для кальяна</t>
+  </si>
+  <si>
+    <t>Сигариллы</t>
+  </si>
+  <si>
+    <t>Сигареты с фильтром от 265 рублей (II группа)</t>
+  </si>
+  <si>
+    <t>Иные слабоалкогольные напитки</t>
+  </si>
+  <si>
+    <t>Спиртосодержащая продукция ≥7% (не для безалкогольных напитков)</t>
+  </si>
+  <si>
+    <t>Фруктово-ягодные вина (≥13%)</t>
+  </si>
+  <si>
+    <t>Пиво (≥7%)</t>
+  </si>
+  <si>
+    <t>Сидры (кроме фруктово-ягодных)</t>
+  </si>
+  <si>
+    <t>Дизельное топливо ниже класса 5</t>
+  </si>
+  <si>
+    <t>за тонну</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бензин не ниже класса 5 </t>
+  </si>
+  <si>
+    <t>Бензин класса 5</t>
+  </si>
+  <si>
+    <t>Табак для нагревания</t>
   </si>
   <si>
     <t>Дизельное топливо класса 5</t>
@@ -642,27 +620,25 @@
     <t>Безалкогольные энергетические напитки</t>
   </si>
   <si>
-    <t>пивной коктейль, напитки, изготавливаемые на основе пива (пивные напитки)</t>
-  </si>
-  <si>
-    <t>Газ углеводородный сжиженный, 
-используемый в качестве 
-автомобильного топлива марки ПБА, ПА</t>
-  </si>
-  <si>
-    <t>Газ углеводородный сжиженный, используемый в качестве автомобильного топлива марки ПТ, БТ и других марок</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Газ природный топливный 
-компримированный, используемый 
-в качестве автомобильного топлива </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Масла моторные, включая масла 
-(жидкости), предназначенные 
-для промывки (очистки от отложений) 
-масляных систем двигателей 
-внутреннего сгорания </t>
+    <t>Пивные коктейли и напитки</t>
+  </si>
+  <si>
+    <t>Сжиженный газ марки ПБА, ПА</t>
+  </si>
+  <si>
+    <t>за 1000 литров</t>
+  </si>
+  <si>
+    <t>Сжиженный газ марки ПТ, БТ и других</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Природный газ для автомобильного топлива </t>
+  </si>
+  <si>
+    <t>за 1000 куб.метров</t>
+  </si>
+  <si>
+    <t>Моторнык масла</t>
   </si>
   <si>
     <t>Категория сельхозугодий</t>
@@ -1184,18 +1160,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -1307,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -1334,9 +1304,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1393,6 +1360,10 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1718,18 +1689,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="24"/>
-    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="2" max="2" width="9.140625" style="23"/>
+    <col min="3" max="3" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1737,10 +1708,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1748,10 +1719,10 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1759,10 +1730,10 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1770,10 +1741,10 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1781,10 +1752,10 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1792,10 +1763,10 @@
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1803,10 +1774,10 @@
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1814,10 +1785,10 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1825,10 +1796,10 @@
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1836,10 +1807,10 @@
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1847,10 +1818,10 @@
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1858,10 +1829,10 @@
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>337</v>
       </c>
     </row>
@@ -1869,10 +1840,10 @@
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>477</v>
       </c>
     </row>
@@ -1880,10 +1851,10 @@
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>617</v>
       </c>
     </row>
@@ -1891,10 +1862,10 @@
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>85</v>
       </c>
     </row>
@@ -1902,10 +1873,10 @@
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>562</v>
       </c>
     </row>
@@ -1926,39 +1897,39 @@
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="32">
+        <v>233</v>
+      </c>
+      <c r="C2" s="31">
         <v>35.89</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>38.29</v>
       </c>
       <c r="E2">
@@ -1968,15 +1939,15 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="28">
+        <v>234</v>
+      </c>
+      <c r="C3" s="27">
         <v>32.340000000000003</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>34.51</v>
       </c>
       <c r="E3">
@@ -1986,15 +1957,15 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="32">
+        <v>235</v>
+      </c>
+      <c r="C4" s="31">
         <v>32.159999999999997</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>34.31</v>
       </c>
       <c r="E4">
@@ -2004,15 +1975,15 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="32">
+        <v>236</v>
+      </c>
+      <c r="C5" s="31">
         <v>22.31</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>23.8</v>
       </c>
       <c r="E5">
@@ -2022,15 +1993,15 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="32">
+        <v>237</v>
+      </c>
+      <c r="C6" s="31">
         <v>24.29</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>25.92</v>
       </c>
       <c r="E6">
@@ -2040,15 +2011,15 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="32">
+        <v>238</v>
+      </c>
+      <c r="C7" s="31">
         <v>30.2</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>32.22</v>
       </c>
       <c r="E7">
@@ -2058,15 +2029,15 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="32">
+        <v>239</v>
+      </c>
+      <c r="C8" s="31">
         <v>23.3</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>24.86</v>
       </c>
       <c r="E8">
@@ -2076,15 +2047,15 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="32">
+        <v>240</v>
+      </c>
+      <c r="C9" s="31">
         <v>25.64</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>27.36</v>
       </c>
       <c r="E9">
@@ -2094,15 +2065,15 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="28">
+        <v>241</v>
+      </c>
+      <c r="C10" s="27">
         <v>32.159999999999997</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>34.31</v>
       </c>
       <c r="E10">
@@ -2112,15 +2083,15 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="32">
+        <v>242</v>
+      </c>
+      <c r="C11" s="31">
         <v>25.05</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>26.73</v>
       </c>
       <c r="E11">
@@ -2130,15 +2101,15 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="32">
+        <v>243</v>
+      </c>
+      <c r="C12" s="31">
         <v>16.829999999999998</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>17.96</v>
       </c>
       <c r="E12">
@@ -2148,15 +2119,15 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="32">
+        <v>244</v>
+      </c>
+      <c r="C13" s="31">
         <v>35.08</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>37.43</v>
       </c>
       <c r="E13">
@@ -2166,15 +2137,15 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="32">
+        <v>245</v>
+      </c>
+      <c r="C14" s="31">
         <v>18.18</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>19.399999999999999</v>
       </c>
       <c r="E14">
@@ -2184,15 +2155,15 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="32">
+        <v>246</v>
+      </c>
+      <c r="C15" s="31">
         <v>22.72</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>24.24</v>
       </c>
       <c r="E15">
@@ -2202,15 +2173,15 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="32">
+        <v>247</v>
+      </c>
+      <c r="C16" s="31">
         <v>28.81</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>30.74</v>
       </c>
       <c r="E16">
@@ -2220,15 +2191,15 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="28">
+        <v>248</v>
+      </c>
+      <c r="C17" s="27">
         <v>24.29</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>25.92</v>
       </c>
       <c r="E17">
@@ -2238,15 +2209,15 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="32">
+        <v>250</v>
+      </c>
+      <c r="C18" s="31">
         <v>17.41</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>18.579999999999998</v>
       </c>
       <c r="E18">
@@ -2256,15 +2227,15 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="32">
+        <v>251</v>
+      </c>
+      <c r="C19" s="31">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>9.5500000000000007</v>
       </c>
       <c r="E19">
@@ -2274,15 +2245,15 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="32">
+        <v>252</v>
+      </c>
+      <c r="C20" s="31">
         <v>10.32</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <v>11.01</v>
       </c>
       <c r="E20">
@@ -2292,15 +2263,15 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="32">
+        <v>253</v>
+      </c>
+      <c r="C21" s="31">
         <v>12.29</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>13.11</v>
       </c>
       <c r="E21">
@@ -2310,15 +2281,15 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="32">
+        <v>254</v>
+      </c>
+      <c r="C22" s="31">
         <v>18.18</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>19.399999999999999</v>
       </c>
       <c r="E22">
@@ -2328,15 +2299,15 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="32">
+        <v>255</v>
+      </c>
+      <c r="C23" s="31">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="28">
         <v>4.87</v>
       </c>
       <c r="E23">
@@ -2346,15 +2317,15 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="32">
+        <v>256</v>
+      </c>
+      <c r="C24" s="31">
         <v>17.989999999999998</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <v>19.2</v>
       </c>
       <c r="E24">
@@ -2364,15 +2335,15 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="32">
+        <v>257</v>
+      </c>
+      <c r="C25" s="31">
         <v>25.27</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <v>26.96</v>
       </c>
       <c r="E25">
@@ -2382,15 +2353,15 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="32">
+        <v>258</v>
+      </c>
+      <c r="C26" s="31">
         <v>9.94</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <v>10.61</v>
       </c>
       <c r="E26">
@@ -2400,15 +2371,15 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="32">
+        <v>259</v>
+      </c>
+      <c r="C27" s="31">
         <v>12.5</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <v>13.34</v>
       </c>
       <c r="E27">
@@ -2418,15 +2389,15 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="32">
+        <v>260</v>
+      </c>
+      <c r="C28" s="31">
         <v>14.08</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>15.02</v>
       </c>
       <c r="E28">
@@ -2436,15 +2407,15 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="32">
+        <v>261</v>
+      </c>
+      <c r="C29" s="31">
         <v>26.26</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <v>28.02</v>
       </c>
       <c r="E29">
@@ -2454,15 +2425,15 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="32">
+        <v>262</v>
+      </c>
+      <c r="C30" s="31">
         <v>5.64</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <v>6.02</v>
       </c>
       <c r="E30">
@@ -2472,15 +2443,15 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="32">
+        <v>263</v>
+      </c>
+      <c r="C31" s="31">
         <v>14.25</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <v>15.2</v>
       </c>
       <c r="E31">
@@ -2490,15 +2461,15 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="32">
+        <v>264</v>
+      </c>
+      <c r="C32" s="31">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="28">
         <v>4.87</v>
       </c>
       <c r="E32">
@@ -2508,15 +2479,15 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C33" s="32">
+        <v>265</v>
+      </c>
+      <c r="C33" s="31">
         <v>14.25</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <v>15.2</v>
       </c>
       <c r="E33">
@@ -2526,15 +2497,15 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C34" s="32">
+        <v>266</v>
+      </c>
+      <c r="C34" s="31">
         <v>23.88</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <v>25.48</v>
       </c>
       <c r="E34">
@@ -2544,15 +2515,15 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="32">
+        <v>249</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="31">
         <v>7.16</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="28">
         <v>7.64</v>
       </c>
       <c r="E35">
@@ -2562,15 +2533,15 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C36" s="32">
+        <v>249</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="31">
         <v>15.06</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="28">
         <v>16.07</v>
       </c>
       <c r="E36">
@@ -2580,15 +2551,15 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="28">
+        <v>269</v>
+      </c>
+      <c r="C37" s="27">
         <v>18.18</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <v>19.399999999999999</v>
       </c>
       <c r="E37">
@@ -2598,15 +2569,15 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="28">
+        <v>270</v>
+      </c>
+      <c r="C38" s="27">
         <v>10.55</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <v>11.26</v>
       </c>
       <c r="E38">
@@ -2616,15 +2587,15 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" s="32">
+        <v>272</v>
+      </c>
+      <c r="C39" s="31">
         <v>19.91</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <v>21.24</v>
       </c>
       <c r="E39">
@@ -2634,15 +2605,15 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C40" s="32">
+        <v>273</v>
+      </c>
+      <c r="C40" s="31">
         <v>28.41</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <v>30.31</v>
       </c>
       <c r="E40">
@@ -2652,15 +2623,15 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="32">
+        <v>274</v>
+      </c>
+      <c r="C41" s="31">
         <v>28.41</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="28">
         <v>30.31</v>
       </c>
       <c r="E41">
@@ -2670,15 +2641,15 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C42" s="32">
+        <v>275</v>
+      </c>
+      <c r="C42" s="31">
         <v>21.74</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <v>23.2</v>
       </c>
       <c r="E42">
@@ -2688,15 +2659,15 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C43" s="32">
+        <v>276</v>
+      </c>
+      <c r="C43" s="31">
         <v>30.78</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="28">
         <v>32.840000000000003</v>
       </c>
       <c r="E43">
@@ -2706,15 +2677,15 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C44" s="32">
+        <v>277</v>
+      </c>
+      <c r="C44" s="31">
         <v>14.86</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="28">
         <v>15.86</v>
       </c>
       <c r="E44">
@@ -2724,15 +2695,15 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" s="32">
+        <v>278</v>
+      </c>
+      <c r="C45" s="31">
         <v>21.55</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="28">
         <v>22.99</v>
       </c>
       <c r="E45">
@@ -2742,15 +2713,15 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C46" s="32">
+        <v>279</v>
+      </c>
+      <c r="C46" s="31">
         <v>31.93</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="28">
         <v>34.07</v>
       </c>
       <c r="E46">
@@ -2760,15 +2731,15 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C47" s="32">
+        <v>280</v>
+      </c>
+      <c r="C47" s="31">
         <v>18.39</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="28">
         <v>19.62</v>
       </c>
       <c r="E47">
@@ -2778,15 +2749,15 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C48" s="32">
+        <v>281</v>
+      </c>
+      <c r="C48" s="31">
         <v>35.450000000000003</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="28">
         <v>37.83</v>
       </c>
       <c r="E48">
@@ -2796,15 +2767,15 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C49" s="32">
+        <v>282</v>
+      </c>
+      <c r="C49" s="31">
         <v>17.41</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="28">
         <v>18.579999999999998</v>
       </c>
       <c r="E49">
@@ -2814,15 +2785,15 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C50" s="32">
+        <v>283</v>
+      </c>
+      <c r="C50" s="31">
         <v>15.24</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="28">
         <v>16.260000000000002</v>
       </c>
       <c r="E50">
@@ -2832,15 +2803,15 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="32">
+        <v>284</v>
+      </c>
+      <c r="C51" s="31">
         <v>18.97</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="28">
         <v>20.239999999999998</v>
       </c>
       <c r="E51">
@@ -2850,15 +2821,15 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C52" s="32">
+        <v>285</v>
+      </c>
+      <c r="C52" s="31">
         <v>18.97</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="28">
         <v>20.239999999999998</v>
       </c>
       <c r="E52">
@@ -2868,15 +2839,15 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C53" s="32">
+        <v>286</v>
+      </c>
+      <c r="C53" s="31">
         <v>24.66</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="28">
         <v>26.31</v>
       </c>
       <c r="E53">
@@ -2886,15 +2857,15 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="32">
+        <v>287</v>
+      </c>
+      <c r="C54" s="31">
         <v>14.25</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="28">
         <v>15.2</v>
       </c>
       <c r="E54">
@@ -2904,15 +2875,15 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55" s="32">
+        <v>288</v>
+      </c>
+      <c r="C55" s="31">
         <v>22.9</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="28">
         <v>24.43</v>
       </c>
       <c r="E55">
@@ -2922,15 +2893,15 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="32">
+        <v>289</v>
+      </c>
+      <c r="C56" s="31">
         <v>31.38</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="28">
         <v>33.479999999999997</v>
       </c>
       <c r="E56">
@@ -2940,15 +2911,15 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="32">
+        <v>290</v>
+      </c>
+      <c r="C57" s="31">
         <v>18.18</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="28">
         <v>19.399999999999999</v>
       </c>
       <c r="E57">
@@ -2958,15 +2929,15 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="32">
+        <v>271</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="31">
         <v>31.38</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="28">
         <v>33.479999999999997</v>
       </c>
       <c r="E58">
@@ -2976,15 +2947,15 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>264</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C59" s="32">
+        <v>271</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="31">
         <v>26.07</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="28">
         <v>27.82</v>
       </c>
       <c r="E59">
@@ -2994,15 +2965,15 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C60" s="32">
+        <v>294</v>
+      </c>
+      <c r="C60" s="31">
         <v>39.99</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="28">
         <v>42.67</v>
       </c>
       <c r="E60">
@@ -3012,15 +2983,15 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C61" s="32">
+        <v>295</v>
+      </c>
+      <c r="C61" s="31">
         <v>41.19</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="28">
         <v>43.95</v>
       </c>
       <c r="E61">
@@ -3030,15 +3001,15 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" s="32">
+        <v>296</v>
+      </c>
+      <c r="C62" s="31">
         <v>31.54</v>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="28">
         <v>33.65</v>
       </c>
       <c r="E62">
@@ -3048,15 +3019,15 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C63" s="32">
+        <v>297</v>
+      </c>
+      <c r="C63" s="31">
         <v>38.43</v>
       </c>
-      <c r="D63" s="29">
+      <c r="D63" s="28">
         <v>41</v>
       </c>
       <c r="E63">
@@ -3066,15 +3037,15 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C64" s="32">
+        <v>298</v>
+      </c>
+      <c r="C64" s="31">
         <v>25.05</v>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="28">
         <v>26.73</v>
       </c>
       <c r="E64">
@@ -3084,15 +3055,15 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" s="32">
+        <v>299</v>
+      </c>
+      <c r="C65" s="31">
         <v>39.99</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D65" s="28">
         <v>42.67</v>
       </c>
       <c r="E65">
@@ -3102,15 +3073,15 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C66" s="32">
+        <v>300</v>
+      </c>
+      <c r="C66" s="31">
         <v>23.53</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="28">
         <v>25.11</v>
       </c>
       <c r="E66">
@@ -3120,15 +3091,15 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C67" s="32">
+        <v>301</v>
+      </c>
+      <c r="C67" s="31">
         <v>41.4</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="28">
         <v>44.17</v>
       </c>
       <c r="E67">
@@ -3138,15 +3109,15 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C68" s="32">
+        <v>302</v>
+      </c>
+      <c r="C68" s="31">
         <v>29.79</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="28">
         <v>31.79</v>
       </c>
       <c r="E68">
@@ -3156,15 +3127,15 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" s="32">
+        <v>303</v>
+      </c>
+      <c r="C69" s="31">
         <v>35.68</v>
       </c>
-      <c r="D69" s="29">
+      <c r="D69" s="28">
         <v>38.07</v>
       </c>
       <c r="E69">
@@ -3174,15 +3145,15 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C70" s="32">
+        <v>304</v>
+      </c>
+      <c r="C70" s="31">
         <v>30.56</v>
       </c>
-      <c r="D70" s="29">
+      <c r="D70" s="28">
         <v>32.61</v>
       </c>
       <c r="E70">
@@ -3192,15 +3163,15 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="32">
+        <v>305</v>
+      </c>
+      <c r="C71" s="31">
         <v>22.31</v>
       </c>
-      <c r="D71" s="29">
+      <c r="D71" s="28">
         <v>23.8</v>
       </c>
       <c r="E71">
@@ -3210,15 +3181,15 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C72" s="32">
+        <v>306</v>
+      </c>
+      <c r="C72" s="31">
         <v>28.81</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="28">
         <v>30.74</v>
       </c>
       <c r="E72">
@@ -3228,15 +3199,15 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C73" s="32">
+        <v>307</v>
+      </c>
+      <c r="C73" s="31">
         <v>30.56</v>
       </c>
-      <c r="D73" s="29">
+      <c r="D73" s="28">
         <v>32.61</v>
       </c>
       <c r="E73">
@@ -3246,15 +3217,15 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C74" s="32">
+        <v>308</v>
+      </c>
+      <c r="C74" s="31">
         <v>34.11</v>
       </c>
-      <c r="D74" s="29">
+      <c r="D74" s="28">
         <v>36.4</v>
       </c>
       <c r="E74">
@@ -3264,15 +3235,15 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>286</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C75" s="32">
+        <v>293</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="31">
         <v>23.3</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="28">
         <v>24.86</v>
       </c>
       <c r="E75">
@@ -3282,15 +3253,15 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>286</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C76" s="32">
+        <v>293</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" s="31">
         <v>36.270000000000003</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="28">
         <v>38.700000000000003</v>
       </c>
       <c r="E76">
@@ -3300,15 +3271,15 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" s="32">
+        <v>312</v>
+      </c>
+      <c r="C77" s="31">
         <v>18.97</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="28">
         <v>20.239999999999998</v>
       </c>
       <c r="E77">
@@ -3318,15 +3289,15 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C78" s="32">
+        <v>313</v>
+      </c>
+      <c r="C78" s="31">
         <v>27.82</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="28">
         <v>29.68</v>
       </c>
       <c r="E78">
@@ -3336,15 +3307,15 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C79" s="32">
+        <v>314</v>
+      </c>
+      <c r="C79" s="31">
         <v>23.53</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="28">
         <v>25.11</v>
       </c>
       <c r="E79">
@@ -3354,15 +3325,15 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C80" s="32">
+        <v>315</v>
+      </c>
+      <c r="C80" s="31">
         <v>25.64</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="28">
         <v>27.36</v>
       </c>
       <c r="E80">
@@ -3372,15 +3343,15 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C81" s="32">
+        <v>316</v>
+      </c>
+      <c r="C81" s="31">
         <v>33.72</v>
       </c>
-      <c r="D81" s="29">
+      <c r="D81" s="28">
         <v>35.979999999999997</v>
       </c>
       <c r="E81">
@@ -3390,15 +3361,15 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C82" s="32">
+        <v>317</v>
+      </c>
+      <c r="C82" s="31">
         <v>46.68</v>
       </c>
-      <c r="D82" s="29">
+      <c r="D82" s="28">
         <v>49.81</v>
       </c>
       <c r="E82">
@@ -3408,15 +3379,15 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C83" s="32">
+        <v>318</v>
+      </c>
+      <c r="C83" s="31">
         <v>40.799999999999997</v>
       </c>
-      <c r="D83" s="29">
+      <c r="D83" s="28">
         <v>43.53</v>
       </c>
       <c r="E83">
@@ -3426,15 +3397,15 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C84" s="32">
+        <v>319</v>
+      </c>
+      <c r="C84" s="31">
         <v>17.21</v>
       </c>
-      <c r="D84" s="29">
+      <c r="D84" s="28">
         <v>18.36</v>
       </c>
       <c r="E84">
@@ -3444,15 +3415,15 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C85" s="32">
+        <v>320</v>
+      </c>
+      <c r="C85" s="31">
         <v>17.010000000000002</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85" s="28">
         <v>18.149999999999999</v>
       </c>
       <c r="E85">
@@ -3462,15 +3433,15 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C86" s="32">
+        <v>321</v>
+      </c>
+      <c r="C86" s="31">
         <v>25.64</v>
       </c>
-      <c r="D86" s="29">
+      <c r="D86" s="28">
         <v>27.36</v>
       </c>
       <c r="E86">
@@ -3480,15 +3451,15 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C87" s="32">
+        <v>322</v>
+      </c>
+      <c r="C87" s="31">
         <v>35.08</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D87" s="28">
         <v>37.43</v>
       </c>
       <c r="E87">
@@ -3498,15 +3469,15 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C88" s="32">
+        <v>323</v>
+      </c>
+      <c r="C88" s="31">
         <v>31.93</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D88" s="28">
         <v>34.07</v>
       </c>
       <c r="E88">
@@ -3516,15 +3487,15 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C89" s="32">
+        <v>324</v>
+      </c>
+      <c r="C89" s="31">
         <v>12.5</v>
       </c>
-      <c r="D89" s="29">
+      <c r="D89" s="28">
         <v>13.34</v>
       </c>
       <c r="E89">
@@ -3534,15 +3505,15 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C90" s="32">
+        <v>325</v>
+      </c>
+      <c r="C90" s="31">
         <v>50.62</v>
       </c>
-      <c r="D90" s="29">
+      <c r="D90" s="28">
         <v>54.01</v>
       </c>
       <c r="E90">
@@ -3552,15 +3523,15 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C91" s="32">
+        <v>326</v>
+      </c>
+      <c r="C91" s="31">
         <v>25.49</v>
       </c>
-      <c r="D91" s="29">
+      <c r="D91" s="28">
         <v>27.2</v>
       </c>
       <c r="E91">
@@ -3570,15 +3541,15 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C92" s="32">
+        <v>327</v>
+      </c>
+      <c r="C92" s="31">
         <v>41.55</v>
       </c>
-      <c r="D92" s="29">
+      <c r="D92" s="28">
         <v>44.33</v>
       </c>
       <c r="E92">
@@ -3588,15 +3559,15 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C93" s="32">
+        <v>328</v>
+      </c>
+      <c r="C93" s="31">
         <v>28.81</v>
       </c>
-      <c r="D93" s="29">
+      <c r="D93" s="28">
         <v>30.74</v>
       </c>
       <c r="E93">
@@ -3606,15 +3577,15 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C94" s="32">
+        <v>329</v>
+      </c>
+      <c r="C94" s="31">
         <v>30.56</v>
       </c>
-      <c r="D94" s="29">
+      <c r="D94" s="28">
         <v>32.61</v>
       </c>
       <c r="E94">
@@ -3624,15 +3595,15 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C95" s="32">
+        <v>330</v>
+      </c>
+      <c r="C95" s="31">
         <v>19.97</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="28">
         <v>21.31</v>
       </c>
       <c r="E95">
@@ -3642,15 +3613,15 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C96" s="32">
+        <v>331</v>
+      </c>
+      <c r="C96" s="31">
         <v>28.02</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="28">
         <v>29.9</v>
       </c>
       <c r="E96">
@@ -3660,15 +3631,15 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>304</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C97" s="32">
+        <v>311</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="31">
         <v>28.41</v>
       </c>
-      <c r="D97" s="29">
+      <c r="D97" s="28">
         <v>30.31</v>
       </c>
       <c r="E97">
@@ -3678,15 +3649,15 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>304</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="C98" s="32">
+        <v>311</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" s="31">
         <v>27.45</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D98" s="28">
         <v>29.29</v>
       </c>
       <c r="E98">
@@ -3696,15 +3667,15 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C99" s="32">
+        <v>335</v>
+      </c>
+      <c r="C99" s="31">
         <v>31.93</v>
       </c>
-      <c r="D99" s="29">
+      <c r="D99" s="28">
         <v>34.07</v>
       </c>
       <c r="E99">
@@ -3714,15 +3685,15 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C100" s="32">
+        <v>336</v>
+      </c>
+      <c r="C100" s="31">
         <v>35.299999999999997</v>
       </c>
-      <c r="D100" s="29">
+      <c r="D100" s="28">
         <v>37.67</v>
       </c>
       <c r="E100">
@@ -3732,15 +3703,15 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C101" s="32">
+        <v>337</v>
+      </c>
+      <c r="C101" s="31">
         <v>26.83</v>
       </c>
-      <c r="D101" s="29">
+      <c r="D101" s="28">
         <v>28.63</v>
       </c>
       <c r="E101">
@@ -3750,15 +3721,15 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C102" s="32">
+        <v>338</v>
+      </c>
+      <c r="C102" s="31">
         <v>24.07</v>
       </c>
-      <c r="D102" s="29">
+      <c r="D102" s="28">
         <v>25.68</v>
       </c>
       <c r="E102">
@@ -3768,15 +3739,15 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C103" s="32">
+        <v>339</v>
+      </c>
+      <c r="C103" s="31">
         <v>29.58</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="28">
         <v>31.56</v>
       </c>
       <c r="E103">
@@ -3786,15 +3757,15 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C104" s="32">
+        <v>340</v>
+      </c>
+      <c r="C104" s="31">
         <v>23.68</v>
       </c>
-      <c r="D104" s="29">
+      <c r="D104" s="28">
         <v>25.27</v>
       </c>
       <c r="E104">
@@ -3804,15 +3775,15 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C105" s="32">
+        <v>341</v>
+      </c>
+      <c r="C105" s="31">
         <v>37.64</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="28">
         <v>40.159999999999997</v>
       </c>
       <c r="E105">
@@ -3822,15 +3793,15 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C106" s="32">
+        <v>342</v>
+      </c>
+      <c r="C106" s="31">
         <v>21.33</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D106" s="28">
         <v>22.76</v>
       </c>
       <c r="E106">
@@ -3840,15 +3811,15 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C107" s="32">
+        <v>343</v>
+      </c>
+      <c r="C107" s="31">
         <v>24.49</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D107" s="28">
         <v>26.13</v>
       </c>
       <c r="E107">
@@ -3858,15 +3829,15 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C108" s="32">
+        <v>344</v>
+      </c>
+      <c r="C108" s="31">
         <v>14.46</v>
       </c>
-      <c r="D108" s="29">
+      <c r="D108" s="28">
         <v>15.43</v>
       </c>
       <c r="E108">
@@ -3876,15 +3847,15 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C109" s="32">
+        <v>345</v>
+      </c>
+      <c r="C109" s="31">
         <v>17.41</v>
       </c>
-      <c r="D109" s="29">
+      <c r="D109" s="28">
         <v>18.579999999999998</v>
       </c>
       <c r="E109">
@@ -3894,15 +3865,15 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C110" s="32">
+        <v>346</v>
+      </c>
+      <c r="C110" s="31">
         <v>28.02</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D110" s="28">
         <v>29.9</v>
       </c>
       <c r="E110">
@@ -3912,15 +3883,15 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C111" s="32">
+        <v>347</v>
+      </c>
+      <c r="C111" s="31">
         <v>36.270000000000003</v>
       </c>
-      <c r="D111" s="29">
+      <c r="D111" s="28">
         <v>38.700000000000003</v>
       </c>
       <c r="E111">
@@ -3930,15 +3901,15 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C112" s="32">
+        <v>348</v>
+      </c>
+      <c r="C112" s="31">
         <v>34.299999999999997</v>
       </c>
-      <c r="D112" s="29">
+      <c r="D112" s="28">
         <v>36.6</v>
       </c>
       <c r="E112">
@@ -3948,15 +3919,15 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C113" s="32">
+        <v>349</v>
+      </c>
+      <c r="C113" s="31">
         <v>23.3</v>
       </c>
-      <c r="D113" s="29">
+      <c r="D113" s="28">
         <v>24.86</v>
       </c>
       <c r="E113">
@@ -3966,15 +3937,15 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C114" s="32">
+        <v>350</v>
+      </c>
+      <c r="C114" s="31">
         <v>29.42</v>
       </c>
-      <c r="D114" s="29">
+      <c r="D114" s="28">
         <v>31.39</v>
       </c>
       <c r="E114">
@@ -3984,15 +3955,15 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>327</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="C115" s="32">
+        <v>334</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" s="31">
         <v>20.14</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D115" s="28">
         <v>21.49</v>
       </c>
       <c r="E115">
@@ -4002,15 +3973,15 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>327</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C116" s="32">
+        <v>334</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" s="31">
         <v>20.94</v>
       </c>
-      <c r="D116" s="29">
+      <c r="D116" s="28">
         <v>22.34</v>
       </c>
       <c r="E116">
@@ -4020,15 +3991,15 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C117" s="33">
+        <v>353</v>
+      </c>
+      <c r="C117" s="32">
         <v>25.49</v>
       </c>
-      <c r="D117" s="29">
+      <c r="D117" s="28">
         <v>27.2</v>
       </c>
       <c r="E117">
@@ -4038,15 +4009,15 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C118" s="33">
+        <v>354</v>
+      </c>
+      <c r="C118" s="32">
         <v>28.22</v>
       </c>
-      <c r="D118" s="29">
+      <c r="D118" s="28">
         <v>30.11</v>
       </c>
       <c r="E118">
@@ -4056,15 +4027,15 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>327</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C119" s="33">
+        <v>334</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" s="32">
         <v>35.450000000000003</v>
       </c>
-      <c r="D119" s="29">
+      <c r="D119" s="28">
         <v>37.83</v>
       </c>
       <c r="E119">
@@ -4088,18 +4059,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4107,10 +4078,10 @@
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4118,10 +4089,10 @@
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4129,10 +4100,10 @@
       <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4140,10 +4111,10 @@
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4151,10 +4122,10 @@
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4162,10 +4133,10 @@
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4173,10 +4144,10 @@
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4184,10 +4155,10 @@
       <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4195,10 +4166,10 @@
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4206,10 +4177,10 @@
       <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>1.238</v>
       </c>
     </row>
@@ -4217,10 +4188,10 @@
       <c r="A12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>0.1976</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>0.20130000000000001</v>
       </c>
     </row>
@@ -4228,10 +4199,10 @@
       <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>1.238</v>
       </c>
     </row>
@@ -4239,10 +4210,10 @@
       <c r="A14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>3.0949</v>
       </c>
     </row>
@@ -4250,10 +4221,10 @@
       <c r="A15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>0.91300000000000003</v>
       </c>
     </row>
@@ -4261,10 +4232,10 @@
       <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>134.06989999999999</v>
       </c>
     </row>
@@ -4272,10 +4243,10 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>8.5199999999999998E-2</v>
       </c>
     </row>
@@ -4283,10 +4254,10 @@
       <c r="A18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>0.15329999999999999</v>
       </c>
     </row>
@@ -4294,10 +4265,10 @@
       <c r="A19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>0.129</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>0.13769999999999999</v>
       </c>
     </row>
@@ -4305,10 +4276,10 @@
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>0.27860000000000001</v>
       </c>
     </row>
@@ -4316,10 +4287,10 @@
       <c r="A21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
@@ -4327,10 +4298,10 @@
       <c r="A22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>2E-3</v>
       </c>
     </row>
@@ -4338,10 +4309,10 @@
       <c r="A23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>5.7564000000000002</v>
       </c>
     </row>
@@ -4349,10 +4320,10 @@
       <c r="A24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
@@ -4360,10 +4331,10 @@
       <c r="A25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>0.30959999999999999</v>
       </c>
     </row>
@@ -4371,10 +4342,10 @@
       <c r="A26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>0.1976</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>0.2109</v>
       </c>
     </row>
@@ -4382,10 +4353,10 @@
       <c r="A27" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>18.867999999999999</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>20.132200000000001</v>
       </c>
     </row>
@@ -4393,10 +4364,10 @@
       <c r="A28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>2.5089999999999999</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>2.6770999999999998</v>
       </c>
     </row>
@@ -4404,10 +4375,10 @@
       <c r="A29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>54.008000000000003</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>57.626600000000003</v>
       </c>
     </row>
@@ -4415,10 +4386,10 @@
       <c r="A30" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>7723.5604000000003</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>8241.0390000000007</v>
       </c>
     </row>
@@ -4426,10 +4397,10 @@
       <c r="A31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>6285.4314999999997</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>6706.5555000000004</v>
       </c>
     </row>
@@ -4437,10 +4408,10 @@
       <c r="A32" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <v>2001.5</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>2135.6005</v>
       </c>
     </row>
@@ -4448,10 +4419,10 @@
       <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>9.2527000000000008</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>9.8727</v>
       </c>
     </row>
@@ -4471,7 +4442,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4482,7 +4453,7 @@
       <c r="B1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -4496,7 +4467,7 @@
       <c r="B2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>8.25</v>
       </c>
       <c r="D2" s="10">
@@ -4513,7 +4484,7 @@
       <c r="B3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>209.13</v>
       </c>
       <c r="D3" s="10">
@@ -4530,7 +4501,7 @@
       <c r="B4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>104.29</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -4547,7 +4518,7 @@
       <c r="B5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>1.8</v>
       </c>
       <c r="D5" s="10">
@@ -4564,7 +4535,7 @@
       <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>182.51</v>
       </c>
       <c r="D6" s="10">
@@ -4581,7 +4552,7 @@
       <c r="B7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>53.56</v>
       </c>
       <c r="D7" s="10">
@@ -4598,7 +4569,7 @@
       <c r="B8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>17.8</v>
       </c>
       <c r="D8" s="10">
@@ -4615,181 +4586,209 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD052CA1-D931-47A2-9DBC-406CC4CDEF8E}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75">
+    <row r="1" spans="1:10" ht="30.75">
       <c r="A1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>32.03</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>34.18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>39.869999999999997</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>42.55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>67.989999999999995</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>72.55</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>94.7</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>101.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>122.81</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>131.04</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="8" customFormat="1">
+    <row r="7" spans="1:10" s="8" customFormat="1">
       <c r="A7" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>149.16</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>159.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="8" customFormat="1">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1">
       <c r="A8" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>177.66</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>189.57</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="8" customFormat="1">
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1">
       <c r="A9" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>234.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="8" customFormat="1">
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1">
       <c r="A10" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>248.06</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>258.81</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>276.14999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>285.17</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>304.27999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>313.64</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>334.66</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>341.78</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>364.68</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>368.48</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>393.17</v>
       </c>
     </row>
@@ -4894,97 +4893,89 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3266E8AB-01CA-44B5-BD8D-A5D9658FE3AC}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>46724.6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>6.7</v>
       </c>
-      <c r="F2" t="b">
-        <f>ISTEXT(B2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>1398.94</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>1492.67</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <f>(C3-B3)/B3*100</f>
         <v>6.7000729123479221</v>
       </c>
-      <c r="F3" t="b">
-        <f>ISNUMBER(B2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>462.46</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>493.45</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <f t="shared" ref="D4:D5" si="0">(C4-B4)/B4*100</f>
         <v>6.7011200968732449</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>229.79</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>245.19</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <f t="shared" si="0"/>
         <v>6.7017711823839186</v>
       </c>
@@ -5008,620 +4999,738 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E671045-634E-44D5-91A1-8648E23803F8}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="36" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="76.5">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="28">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="28">
         <v>0</v>
       </c>
-      <c r="D2" t="e">
-        <f>(C2-B2)/B2*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="91.5">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75">
+      <c r="A3" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="28">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="28">
         <v>0</v>
       </c>
-      <c r="D3" t="e">
-        <f>(C3-B3)/B3*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60.75">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" t="e">
-        <f>(C4-B4)/B4*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="121.5">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45.75">
+      <c r="A5" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="28">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="D5" t="e">
-        <f>(C5-B5)/B5*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.75">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75">
+      <c r="A6" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="28">
         <v>0.85</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="28">
         <v>1.02</v>
       </c>
-      <c r="D6">
-        <f>(C6-B6)/B6*100</f>
+      <c r="E6" s="28">
+        <f>(D6-C6)/C6*100</f>
         <v>20.000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60.75">
-      <c r="A7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:5" ht="45.75">
+      <c r="A7" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="28">
         <v>102.51</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="28">
         <v>123.01</v>
       </c>
-      <c r="D7">
-        <f>(C7-B7)/B7*100</f>
+      <c r="E7" s="28">
+        <f>(D7-C7)/C7*100</f>
         <v>19.998048970832112</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30.75">
-      <c r="A8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:5">
+      <c r="A8" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="28">
         <v>0.6</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="28">
         <v>0.7</v>
       </c>
-      <c r="D8">
-        <f>(C8-B8)/B8*100</f>
+      <c r="E8" s="28">
+        <f>(D8-C8)/C8*100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30.75">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="30.75">
+      <c r="A9" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="28">
+        <v>119.59</v>
+      </c>
+      <c r="D9" s="28">
+        <v>133.94</v>
+      </c>
+      <c r="E9" s="28">
+        <f>(D9-C9)/C9*100</f>
+        <v>11.999331047746461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="28">
+        <v>119.59</v>
+      </c>
+      <c r="D10" s="28">
+        <v>133.94</v>
+      </c>
+      <c r="E10" s="28">
+        <f>(D10-C10)/C10*100</f>
+        <v>11.999331047746461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.75">
+      <c r="A11" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.24</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.26</v>
+      </c>
+      <c r="E11" s="28">
+        <f>(D11-C11)/C11*100</f>
+        <v>8.333333333333341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.54</v>
+      </c>
+      <c r="E12" s="28">
+        <f>(D12-C12)/C12*100</f>
+        <v>8.0000000000000071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30.75">
+      <c r="A13" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B9">
-        <v>119.59</v>
-      </c>
-      <c r="C9">
-        <v>133.94</v>
-      </c>
-      <c r="D9">
-        <f>(C9-B9)/B9*100</f>
-        <v>11.999331047746461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10">
-        <v>119.59</v>
-      </c>
-      <c r="C10">
-        <v>133.94</v>
-      </c>
-      <c r="D10">
-        <f>(C10-B10)/B10*100</f>
-        <v>11.999331047746461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60.75">
-      <c r="A11" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11">
-        <v>0.24</v>
-      </c>
-      <c r="C11">
-        <v>0.26</v>
-      </c>
-      <c r="D11">
-        <f>(C11-B11)/B11*100</f>
-        <v>8.333333333333341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60.75">
-      <c r="A12" s="6" t="s">
+      <c r="C13" s="28">
+        <v>10.5</v>
+      </c>
+      <c r="D13" s="28">
+        <v>11.24</v>
+      </c>
+      <c r="E13" s="28">
+        <f>(D13-C13)/C13*100</f>
+        <v>7.0476190476190501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45.75">
+      <c r="A14" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1.42</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1.52</v>
+      </c>
+      <c r="E14" s="28">
+        <f>(D14-C14)/C14*100</f>
+        <v>7.0422535211267681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45.75">
+      <c r="A15" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="28">
+        <v>7.53</v>
+      </c>
+      <c r="D15" s="28">
+        <v>8.06</v>
+      </c>
+      <c r="E15" s="28">
+        <f>(D15-C15)/C15*100</f>
+        <v>7.0385126162018627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="28">
+        <v>18.09</v>
+      </c>
+      <c r="D16" s="28">
+        <v>19.36</v>
+      </c>
+      <c r="E16" s="28">
+        <f>(D16-C16)/C16*100</f>
+        <v>7.0204532891100024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="28">
+        <v>13.13</v>
+      </c>
+      <c r="D17" s="28">
+        <v>14.05</v>
+      </c>
+      <c r="E17" s="28">
+        <f>(D17-C17)/C17*100</f>
+        <v>7.0068545316070052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="28">
+        <v>24.55</v>
+      </c>
+      <c r="D18" s="28">
+        <v>26.27</v>
+      </c>
+      <c r="E18" s="28">
+        <f>(D18-C18)/C18*100</f>
+        <v>7.0061099796333961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.75">
+      <c r="A19" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="28">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="D19" s="28">
+        <v>19.86</v>
+      </c>
+      <c r="E19" s="28">
+        <f>(D19-C19)/C19*100</f>
+        <v>7.0043103448275907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.75">
+      <c r="A20" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="28">
+        <v>194.29</v>
+      </c>
+      <c r="D20" s="28">
+        <v>207.89</v>
+      </c>
+      <c r="E20" s="28">
+        <f>(D20-C20)/C20*100</f>
+        <v>6.9998455916413587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="28">
+        <v>194.29</v>
+      </c>
+      <c r="D21" s="28">
+        <v>207.89</v>
+      </c>
+      <c r="E21" s="28">
+        <f>(D21-C21)/C21*100</f>
+        <v>6.9998455916413587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B12">
+      <c r="C22" s="28">
+        <v>187.15</v>
+      </c>
+      <c r="D22" s="28">
+        <v>200.25</v>
+      </c>
+      <c r="E22" s="28">
+        <f>(D22-C22)/C22*100</f>
+        <v>6.9997328346246297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30.75">
+      <c r="A23" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="28">
+        <v>163.63999999999999</v>
+      </c>
+      <c r="D23" s="28">
+        <v>175.09</v>
+      </c>
+      <c r="E23" s="28">
+        <f>(D23-C23)/C23*100</f>
+        <v>6.9970667318504143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="28">
+        <v>32.49</v>
+      </c>
+      <c r="D24" s="28">
+        <v>34.76</v>
+      </c>
+      <c r="E24" s="28">
+        <f>(D24-C24)/C24*100</f>
+        <v>6.9867651585102983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30.75">
+      <c r="A25" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="28">
+        <v>32.49</v>
+      </c>
+      <c r="D25" s="28">
+        <v>34.76</v>
+      </c>
+      <c r="E25" s="28">
+        <f>(D25-C25)/C25*100</f>
+        <v>6.9867651585102983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="28">
+        <v>1.62</v>
+      </c>
+      <c r="D26" s="28">
+        <v>1.73</v>
+      </c>
+      <c r="E26" s="28">
+        <f>(D26-C26)/C26*100</f>
+        <v>6.7901234567901145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="28">
+        <v>1.06</v>
+      </c>
+      <c r="D27" s="28">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E27" s="28">
+        <f>(D27-C27)/C27*100</f>
+        <v>6.6037735849056451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="28">
+        <v>0.77</v>
+      </c>
+      <c r="D28" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="E28" s="28">
+        <f>(D28-C28)/C28*100</f>
+        <v>6.4935064935064846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1976.26</v>
+      </c>
+      <c r="D29" s="28">
+        <v>2035.55</v>
+      </c>
+      <c r="E29" s="28">
+        <f>(D29-C29)/C29*100</f>
+        <v>3.000111321384836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="28">
+        <v>4079.56</v>
+      </c>
+      <c r="D30" s="28">
+        <v>4201.95</v>
+      </c>
+      <c r="E30" s="28">
+        <f>(D30-C30)/C30*100</f>
+        <v>3.0000784398317433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="28">
+        <v>2532.04</v>
+      </c>
+      <c r="D31" s="28">
+        <v>2608</v>
+      </c>
+      <c r="E31" s="28">
+        <f>(D31-C31)/C31*100</f>
+        <v>2.9999526073837712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="28">
+        <v>370.01</v>
+      </c>
+      <c r="D32" s="28">
+        <v>381.11</v>
+      </c>
+      <c r="E32" s="28">
+        <f>(D32-C32)/C32*100</f>
+        <v>2.9999189211102464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="28">
+        <v>1563.12</v>
+      </c>
+      <c r="D33" s="28">
+        <v>1610.01</v>
+      </c>
+      <c r="E33" s="28">
+        <f>(D33-C33)/C33*100</f>
+        <v>2.9997696913864647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="28">
+        <v>231.11</v>
+      </c>
+      <c r="D34" s="28">
+        <v>238.04</v>
+      </c>
+      <c r="E34" s="28">
+        <f>(D34-C34)/C34*100</f>
+        <v>2.9985721085197428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30.75">
+      <c r="A35" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="28">
         <v>0.5</v>
       </c>
-      <c r="C12">
+      <c r="D35" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="28">
+        <f>(D35-C35)/C35*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="28">
         <v>0.54</v>
       </c>
-      <c r="D12">
-        <f>(C12-B12)/B12*100</f>
-        <v>8.0000000000000071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30.75">
-      <c r="A13" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13">
-        <v>10.5</v>
-      </c>
-      <c r="C13">
-        <v>11.24</v>
-      </c>
-      <c r="D13">
-        <f>(C13-B13)/B13*100</f>
-        <v>7.0476190476190501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45.75">
-      <c r="A14" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14">
-        <v>1.42</v>
-      </c>
-      <c r="C14">
-        <v>1.52</v>
-      </c>
-      <c r="D14">
-        <f>(C14-B14)/B14*100</f>
-        <v>7.0422535211267681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60.75">
-      <c r="A15" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15">
-        <v>7.53</v>
-      </c>
-      <c r="C15">
-        <v>8.06</v>
-      </c>
-      <c r="D15">
-        <f>(C15-B15)/B15*100</f>
-        <v>7.0385126162018627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45.75">
-      <c r="A16" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16">
-        <v>18.09</v>
-      </c>
-      <c r="C16">
-        <v>19.36</v>
-      </c>
-      <c r="D16">
-        <f>(C16-B16)/B16*100</f>
-        <v>7.0204532891100024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17">
-        <v>13.13</v>
-      </c>
-      <c r="C17">
-        <v>14.05</v>
-      </c>
-      <c r="D17">
-        <f>(C17-B17)/B17*100</f>
-        <v>7.0068545316070052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="198">
-      <c r="A18" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18">
-        <v>24.55</v>
-      </c>
-      <c r="C18">
-        <v>26.27</v>
-      </c>
-      <c r="D18">
-        <f>(C18-B18)/B18*100</f>
-        <v>7.0061099796333961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75">
-      <c r="A19" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="C19">
-        <v>19.86</v>
-      </c>
-      <c r="D19">
-        <f>(C19-B19)/B19*100</f>
-        <v>7.0043103448275907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75">
-      <c r="A20" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20">
-        <v>194.29</v>
-      </c>
-      <c r="C20">
-        <v>207.89</v>
-      </c>
-      <c r="D20">
-        <f>(C20-B20)/B20*100</f>
-        <v>6.9998455916413587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21">
-        <v>194.29</v>
-      </c>
-      <c r="C21">
-        <v>207.89</v>
-      </c>
-      <c r="D21">
-        <f>(C21-B21)/B21*100</f>
-        <v>6.9998455916413587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22">
-        <v>187.15</v>
-      </c>
-      <c r="C22">
-        <v>200.25</v>
-      </c>
-      <c r="D22">
-        <f>(C22-B22)/B22*100</f>
-        <v>6.9997328346246297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29.25">
-      <c r="A23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B23">
-        <v>163.63999999999999</v>
-      </c>
-      <c r="C23">
-        <v>175.09</v>
-      </c>
-      <c r="D23">
-        <f>(C23-B23)/B23*100</f>
-        <v>6.9970667318504143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24">
-        <v>32.49</v>
-      </c>
-      <c r="C24">
-        <v>34.76</v>
-      </c>
-      <c r="D24">
-        <f>(C24-B24)/B24*100</f>
-        <v>6.9867651585102983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="106.5">
-      <c r="A25" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25">
-        <v>32.49</v>
-      </c>
-      <c r="C25">
-        <v>34.76</v>
-      </c>
-      <c r="D25">
-        <f>(C25-B25)/B25*100</f>
-        <v>6.9867651585102983</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60.75">
-      <c r="A26" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26">
-        <v>1.62</v>
-      </c>
-      <c r="C26">
-        <v>1.73</v>
-      </c>
-      <c r="D26">
-        <f>(C26-B26)/B26*100</f>
-        <v>6.7901234567901145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60.75">
-      <c r="A27" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27">
-        <v>1.06</v>
-      </c>
-      <c r="C27">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D27">
-        <f>(C27-B27)/B27*100</f>
-        <v>6.6037735849056451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.75">
-      <c r="A28" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28">
-        <v>0.77</v>
-      </c>
-      <c r="C28">
-        <v>0.82</v>
-      </c>
-      <c r="D28">
-        <f>(C28-B28)/B28*100</f>
-        <v>6.4935064935064846</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30.75">
-      <c r="A29" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29">
-        <v>1976.26</v>
-      </c>
-      <c r="C29">
-        <v>2035.55</v>
-      </c>
-      <c r="D29">
-        <f>(C29-B29)/B29*100</f>
-        <v>3.000111321384836</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30.75">
-      <c r="A30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30">
-        <v>4079.56</v>
-      </c>
-      <c r="C30">
-        <v>4201.95</v>
-      </c>
-      <c r="D30">
-        <f>(C30-B30)/B30*100</f>
-        <v>3.0000784398317433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31">
-        <v>2532.04</v>
-      </c>
-      <c r="C31">
-        <v>2608</v>
-      </c>
-      <c r="D31">
-        <f>(C31-B31)/B31*100</f>
-        <v>2.9999526073837712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30.75">
-      <c r="A32" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32">
-        <v>370.01</v>
-      </c>
-      <c r="C32">
-        <v>381.11</v>
-      </c>
-      <c r="D32">
-        <f>(C32-B32)/B32*100</f>
-        <v>2.9999189211102464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33">
-        <v>1563.12</v>
-      </c>
-      <c r="C33">
-        <v>1610.01</v>
-      </c>
-      <c r="D33">
-        <f>(C33-B33)/B33*100</f>
-        <v>2.9997696913864647</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="D36" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="28">
+        <f>(D36-C36)/C36*100</f>
+        <v>-7.4074074074074137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="28">
+        <v>31.95</v>
+      </c>
+      <c r="D37" s="28">
+        <v>34.1</v>
+      </c>
+      <c r="E37" s="28">
+        <f t="shared" ref="E37:E40" si="0">(D37-C37)/C37*100</f>
+        <v>6.7292644757433555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="28">
+        <v>60.34</v>
+      </c>
+      <c r="D38" s="28">
+        <v>64.56</v>
+      </c>
+      <c r="E38" s="28">
+        <f t="shared" si="0"/>
+        <v>6.9937023533311216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30.75">
+      <c r="A39" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="28">
+        <v>60.34</v>
+      </c>
+      <c r="D39" s="28">
+        <v>64.56</v>
+      </c>
+      <c r="E39" s="28">
+        <f t="shared" si="0"/>
+        <v>6.9937023533311216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B34">
-        <v>231.11</v>
-      </c>
-      <c r="C34">
-        <v>238.04</v>
-      </c>
-      <c r="D34">
-        <f>(C34-B34)/B34*100</f>
-        <v>2.9985721085197428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30.75">
-      <c r="A35" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35">
-        <v>0.5</v>
-      </c>
-      <c r="C35">
-        <v>0.5</v>
-      </c>
-      <c r="D35">
-        <f>(C35-B35)/B35*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45.75">
-      <c r="A36" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36">
-        <v>0.54</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D36">
-        <f>(C36-B36)/B36*100</f>
-        <v>-7.4074074074074137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="60.75">
-      <c r="A37" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37">
-        <v>31.95</v>
-      </c>
-      <c r="C37">
-        <v>34.1</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ref="D37:D40" si="0">(C37-B37)/B37*100</f>
-        <v>6.7292644757433555</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="60.75">
-      <c r="A38" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38">
-        <v>60.34</v>
-      </c>
-      <c r="C38">
-        <v>64.56</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>6.9937023533311216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45.75">
-      <c r="A39" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39">
-        <v>60.34</v>
-      </c>
-      <c r="C39">
-        <v>64.56</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>6.9937023533311216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="76.5">
-      <c r="A40" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40">
+      <c r="C40" s="28">
         <v>513.42999999999995</v>
       </c>
-      <c r="C40">
+      <c r="D40" s="28">
         <v>549.37</v>
       </c>
-      <c r="D40">
+      <c r="E40" s="28">
         <f t="shared" si="0"/>
         <v>6.9999805231482499</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
-    <sortCondition descending="1" ref="D2:D40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition descending="1" ref="E2:E40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5631,2206 +5740,2206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4568DE06-82D0-4B1B-8984-5375C63928EC}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="29">
+        <v>204</v>
+      </c>
+      <c r="C2" s="28">
         <v>0.96</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>1.02</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <f>(D2-C2)/C2*100</f>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="29">
+        <v>205</v>
+      </c>
+      <c r="C3" s="28">
         <v>0.96</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>1.02</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <f t="shared" ref="E3:E66" si="0">(D3-C3)/C3*100</f>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="29">
+        <v>206</v>
+      </c>
+      <c r="C4" s="28">
         <v>0.96</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>1.02</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="29">
+        <v>207</v>
+      </c>
+      <c r="C5" s="28">
         <v>0.96</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>1.02</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="29">
+        <v>208</v>
+      </c>
+      <c r="C6" s="28">
         <v>0.96</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>1.02</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="29">
+        <v>209</v>
+      </c>
+      <c r="C7" s="28">
         <v>0.96</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>1.02</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="29">
+        <v>210</v>
+      </c>
+      <c r="C8" s="28">
         <v>0.96</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>1.02</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="29">
+        <v>211</v>
+      </c>
+      <c r="C9" s="28">
         <v>0.96</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>1.02</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="29">
+        <v>212</v>
+      </c>
+      <c r="C10" s="28">
         <v>0.96</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>1.02</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="29">
+        <v>213</v>
+      </c>
+      <c r="C11" s="28">
         <v>0.96</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>1.02</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="29">
+        <v>214</v>
+      </c>
+      <c r="C12" s="28">
         <v>0.96</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>1.02</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="29">
+        <v>215</v>
+      </c>
+      <c r="C13" s="28">
         <v>0.96</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>1.02</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="29">
+        <v>216</v>
+      </c>
+      <c r="C14" s="28">
         <v>0.96</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>1.02</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="29">
+        <v>203</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="28">
         <v>0.96</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>1.02</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="29">
+        <v>218</v>
+      </c>
+      <c r="C16" s="28">
         <v>0.96</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>1.02</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="29">
+        <v>219</v>
+      </c>
+      <c r="C17" s="28">
         <v>1.53</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>1.63</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <f t="shared" si="0"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="29">
+        <v>220</v>
+      </c>
+      <c r="C18" s="28">
         <v>1.96</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>2.09</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>6.6326530612244845</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="29">
+        <v>221</v>
+      </c>
+      <c r="C19" s="28">
         <v>2.39</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <f t="shared" si="0"/>
         <v>6.6945606694560542</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="29">
+        <v>222</v>
+      </c>
+      <c r="C20" s="28">
         <v>2.82</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <v>3.01</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <f t="shared" si="0"/>
         <v>6.7375886524822679</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="29">
+        <v>223</v>
+      </c>
+      <c r="C21" s="28">
         <v>3.26</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>3.48</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <f t="shared" si="0"/>
         <v>6.7484662576687189</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="29">
+        <v>224</v>
+      </c>
+      <c r="C22" s="28">
         <v>3.69</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>3.94</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <f t="shared" si="0"/>
         <v>6.7750677506775077</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="29">
+        <v>225</v>
+      </c>
+      <c r="C23" s="28">
         <v>4.12</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="28">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <f t="shared" si="0"/>
         <v>6.7961165048543739</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B24" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>4.55</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <v>4.8499999999999996</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <f t="shared" si="0"/>
         <v>6.5934065934065895</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:B44" si="1">"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <v>4.99</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <v>5.32</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <f t="shared" si="0"/>
         <v>6.6132264529058125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <v>5.42</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <v>5.78</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <f t="shared" si="0"/>
         <v>6.6420664206642126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>5.85</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <v>6.24</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <f t="shared" si="0"/>
         <v>6.6666666666666767</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 31 и до 32 (включительно)</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <v>6.28</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>6.7</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <f t="shared" si="0"/>
         <v>6.6878980891719735</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 32 и до 33 (включительно)</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <v>6.71</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <v>7.16</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <f t="shared" si="0"/>
         <v>6.7064083457526111</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 33 и до 34 (включительно)</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>7.15</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <v>7.63</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <f t="shared" si="0"/>
         <v>6.7132867132867062</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B31" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 34 и до 35 (включительно)</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="28">
         <v>7.58</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <v>8.09</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <f t="shared" si="0"/>
         <v>6.7282321899736122</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 35 и до 36 (включительно)</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="28">
         <v>8.01</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="28">
         <v>8.5500000000000007</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="28">
         <f t="shared" si="0"/>
         <v>6.7415730337078772</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 36 и до 37 (включительно)</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>8.44</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <v>9.01</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <f t="shared" si="0"/>
         <v>6.7535545023696715</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 37 и до 38 (включительно)</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <v>9.4600000000000009</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <f t="shared" si="0"/>
         <v>6.6516347237880691</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 38 и до 39 (включительно)</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <v>9.31</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="28">
         <v>9.93</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="28">
         <f t="shared" si="0"/>
         <v>6.6595059076261993</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 39 и до 40 (включительно)</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="28">
         <v>9.74</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="28">
         <v>10.39</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="28">
         <f t="shared" si="0"/>
         <v>6.6735112936345002</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 40 и до 41 (включительно)</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <v>10.17</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <v>10.85</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="28">
         <f t="shared" si="0"/>
         <v>6.6863323500491605</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 41 и до 42 (включительно)</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>10.6</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <v>11.31</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <f t="shared" si="0"/>
         <v>6.6981132075471779</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 42 и до 43 (включительно)</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <v>11.04</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <v>11.78</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="28">
         <f t="shared" si="0"/>
         <v>6.7028985507246395</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 43 и до 44 (включительно)</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="28">
         <v>11.47</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <v>12.24</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="28">
         <f t="shared" si="0"/>
         <v>6.7131647776809018</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B41" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 44 и до 45 (включительно)</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="28">
         <v>11.9</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="28">
         <v>12.7</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="28">
         <f t="shared" si="0"/>
         <v>6.7226890756302433</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 45 и до 46 (включительно)</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="28">
         <v>12.33</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <v>13.16</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="28">
         <f t="shared" si="0"/>
         <v>6.7315490673154912</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 46 и до 47 (включительно)</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <v>12.76</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="28">
         <v>13.61</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="28">
         <f t="shared" si="0"/>
         <v>6.6614420062695894</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 47 и до 48 (включительно)</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="28">
         <v>13.2</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="28">
         <v>14.08</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="28">
         <f t="shared" si="0"/>
         <v>6.6666666666666732</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B45" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 48 и до 49 (включительно)</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="28">
         <v>13.63</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="28">
         <v>14.54</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="28">
         <f t="shared" si="0"/>
         <v>6.6764490095377713</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="29">
+        <v>226</v>
+      </c>
+      <c r="C46" s="28">
         <v>14.06</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="28">
         <v>15</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="28">
         <f t="shared" si="0"/>
         <v>6.6856330014224712</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="29">
+      <c r="A47" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="28">
         <v>0.06</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="28">
         <v>0.06</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="29">
+      <c r="A48" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="28">
         <v>0.15</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="28">
         <f t="shared" si="0"/>
         <v>7.1428571428571281</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="13" t="s">
-        <v>220</v>
+      <c r="A49" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B49" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 7 и до 8 (включительно)</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="28">
         <v>0.2</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="28">
         <v>0.21</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="28">
         <f t="shared" si="0"/>
         <v>4.9999999999999902</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="13" t="s">
-        <v>220</v>
+      <c r="A50" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" ref="B50:B71" si="2">"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 8 и до 9 (включительно)</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="28">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="28">
         <v>0.3</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="28">
         <f t="shared" si="0"/>
         <v>7.1428571428571281</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="13" t="s">
-        <v>220</v>
+      <c r="A51" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 9 и до 10 (включительно)</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="28">
         <v>0.31</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="28">
         <v>0.33</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="28">
         <f t="shared" si="0"/>
         <v>6.4516129032258114</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="13" t="s">
-        <v>220</v>
+      <c r="A52" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 10 и до 11 (включительно)</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="28">
         <v>0.35</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="28">
         <v>0.37</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="28">
         <f t="shared" si="0"/>
         <v>5.7142857142857197</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="13" t="s">
-        <v>220</v>
+      <c r="A53" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 11 и до 12 (включительно)</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="28">
         <v>0.43</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="28">
         <v>0.46</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="28">
         <f t="shared" si="0"/>
         <v>6.9767441860465187</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="13" t="s">
-        <v>220</v>
+      <c r="A54" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 12 и до 13 (включительно)</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="28">
         <v>0.51</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="28">
         <v>0.54</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="28">
         <f t="shared" si="0"/>
         <v>5.8823529411764754</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="13" t="s">
-        <v>220</v>
+      <c r="A55" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 13 и до 14 (включительно)</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="28">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="28">
         <v>0.59</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="28">
         <f t="shared" si="0"/>
         <v>7.2727272727272583</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="13" t="s">
-        <v>220</v>
+      <c r="A56" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 14 и до 15 (включительно)</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="28">
         <v>0.6</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="28">
         <v>0.64</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="28">
         <f t="shared" si="0"/>
         <v>6.6666666666666732</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="13" t="s">
-        <v>220</v>
+      <c r="A57" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 15 и до 16 (включительно)</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="28">
         <v>0.64</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="28">
         <v>0.68</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="28">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="13" t="s">
-        <v>220</v>
+      <c r="A58" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 16 и до 17 (включительно)</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="28">
         <v>0.72</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="28">
         <v>0.77</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="28">
         <f t="shared" si="0"/>
         <v>6.94444444444445</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="13" t="s">
-        <v>220</v>
+      <c r="A59" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 17 и до 18 (включительно)</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="28">
         <v>0.77</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="28">
         <v>0.82</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="28">
         <f t="shared" si="0"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="13" t="s">
-        <v>220</v>
+      <c r="A60" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 18 и до 19 (включительно)</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="28">
         <v>0.84</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="28">
         <v>0.9</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="28">
         <f t="shared" si="0"/>
         <v>7.1428571428571495</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="13" t="s">
-        <v>220</v>
+      <c r="A61" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 19 и до 20 (включительно)</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="28">
         <v>0.92</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="28">
         <v>0.98</v>
       </c>
-      <c r="E61" s="29">
+      <c r="E61" s="28">
         <f t="shared" si="0"/>
         <v>6.5217391304347752</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="13" t="s">
-        <v>220</v>
+      <c r="A62" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 20 и до 21 (включительно)</v>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="28">
         <v>0.95</v>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="28">
         <v>1.01</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="28">
         <f t="shared" si="0"/>
         <v>6.3157894736842159</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="13" t="s">
-        <v>220</v>
+      <c r="A63" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 21 и до 22 (включительно)</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="28">
         <v>1</v>
       </c>
-      <c r="D63" s="29">
+      <c r="D63" s="28">
         <v>1.07</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="28">
         <f t="shared" si="0"/>
         <v>7.0000000000000062</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="13" t="s">
-        <v>220</v>
+      <c r="A64" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 22 и до 23 (включительно)</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="28">
         <v>1.06</v>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="28">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="28">
         <f t="shared" si="0"/>
         <v>6.6037735849056451</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="13" t="s">
-        <v>220</v>
+      <c r="A65" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 23 и до 24 (включительно)</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="28">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D65" s="28">
         <v>1.23</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="28">
         <f t="shared" si="0"/>
         <v>6.9565217391304417</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="13" t="s">
-        <v>220</v>
+      <c r="A66" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 24 и до 25 (включительно)</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="28">
         <v>1.19</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="28">
         <v>1.27</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="28">
         <f t="shared" si="0"/>
         <v>6.7226890756302584</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="13" t="s">
-        <v>220</v>
+      <c r="A67" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 25 и до 26 (включительно)</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="28">
         <v>1.25</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="28">
         <v>1.33</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="28">
         <f t="shared" ref="E67:E117" si="3">(D67-C67)/C67*100</f>
         <v>6.4000000000000057</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="13" t="s">
-        <v>220</v>
+      <c r="A68" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 26 и до 27 (включительно)</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="28">
         <v>1.31</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="28">
         <v>1.4</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="28">
         <f t="shared" si="3"/>
         <v>6.8702290076335775</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="13" t="s">
-        <v>220</v>
+      <c r="A69" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B69" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="28">
         <v>1.34</v>
       </c>
-      <c r="D69" s="29">
+      <c r="D69" s="28">
         <v>1.43</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="28">
         <f t="shared" si="3"/>
         <v>6.7164179104477499</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="13" t="s">
-        <v>220</v>
+      <c r="A70" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="28">
         <v>1.4</v>
       </c>
-      <c r="D70" s="29">
+      <c r="D70" s="28">
         <v>1.49</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E70" s="28">
         <f t="shared" si="3"/>
         <v>6.428571428571435</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="13" t="s">
-        <v>220</v>
+      <c r="A71" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C71" s="29">
+      <c r="C71" s="28">
         <v>1.48</v>
       </c>
-      <c r="D71" s="29">
+      <c r="D71" s="28">
         <v>1.58</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="28">
         <f t="shared" si="3"/>
         <v>6.7567567567567623</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="13" t="s">
-        <v>220</v>
+      <c r="A72" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B72" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C72" s="29">
+      <c r="C72" s="28">
         <v>1.54</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="28">
         <v>1.64</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30.75">
       <c r="A73" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="29">
+        <v>228</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="28">
         <v>1.53</v>
       </c>
-      <c r="D73" s="29">
+      <c r="D73" s="28">
         <v>1.63</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="28">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30.75">
       <c r="A74" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="29">
+        <v>228</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="28">
         <v>1.53</v>
       </c>
-      <c r="D74" s="29">
+      <c r="D74" s="28">
         <v>1.63</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="28">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30.75">
       <c r="A75" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B75" t="str">
         <f>"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
         <v>Свыше 7 и до 8 (включительно)</v>
       </c>
-      <c r="C75" s="29">
+      <c r="C75" s="28">
         <v>1.53</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="28">
         <v>1.63</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="28">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30.75">
       <c r="A76" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" ref="B76:B116" si="4">"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
         <v>Свыше 8 и до 9 (включительно)</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="28">
         <v>1.53</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="28">
         <v>1.63</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="28">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30.75">
       <c r="A77" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 9 и до 10 (включительно)</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="28">
         <v>1.53</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="28">
         <v>1.63</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="28">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30.75">
       <c r="A78" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 10 и до 11 (включительно)</v>
       </c>
-      <c r="C78" s="29">
+      <c r="C78" s="28">
         <v>1.53</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="28">
         <v>1.63</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E78" s="28">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30.75">
       <c r="A79" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 11 и до 12 (включительно)</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="28">
         <v>1.53</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="28">
         <v>1.63</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="28">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30.75">
       <c r="A80" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 12 и до 13 (включительно)</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80" s="28">
         <v>1.54</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="28">
         <v>1.64</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E80" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30.75">
       <c r="A81" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 13 и до 14 (включительно)</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81" s="28">
         <v>1.54</v>
       </c>
-      <c r="D81" s="29">
+      <c r="D81" s="28">
         <v>1.64</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30.75">
       <c r="A82" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 14 и до 15 (включительно)</v>
       </c>
-      <c r="C82" s="29">
+      <c r="C82" s="28">
         <v>1.54</v>
       </c>
-      <c r="D82" s="29">
+      <c r="D82" s="28">
         <v>1.64</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30.75">
       <c r="A83" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 15 и до 16 (включительно)</v>
       </c>
-      <c r="C83" s="29">
+      <c r="C83" s="28">
         <v>1.54</v>
       </c>
-      <c r="D83" s="29">
+      <c r="D83" s="28">
         <v>1.64</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E83" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30.75">
       <c r="A84" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 16 и до 17 (включительно)</v>
       </c>
-      <c r="C84" s="29">
+      <c r="C84" s="28">
         <v>1.54</v>
       </c>
-      <c r="D84" s="29">
+      <c r="D84" s="28">
         <v>1.64</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E84" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30.75">
       <c r="A85" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 17 и до 18 (включительно)</v>
       </c>
-      <c r="C85" s="29">
+      <c r="C85" s="28">
         <v>1.54</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85" s="28">
         <v>1.64</v>
       </c>
-      <c r="E85" s="29">
+      <c r="E85" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30.75">
       <c r="A86" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 18 и до 19 (включительно)</v>
       </c>
-      <c r="C86" s="29">
+      <c r="C86" s="28">
         <v>1.54</v>
       </c>
-      <c r="D86" s="29">
+      <c r="D86" s="28">
         <v>1.64</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30.75">
       <c r="A87" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 19 и до 20 (включительно)</v>
       </c>
-      <c r="C87" s="29">
+      <c r="C87" s="28">
         <v>1.54</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D87" s="28">
         <v>1.64</v>
       </c>
-      <c r="E87" s="29">
+      <c r="E87" s="28">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30.75">
       <c r="A88" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 20 и до 21 (включительно)</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C88" s="30">
         <v>1.88</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D88" s="28">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="28">
         <f t="shared" si="3"/>
         <v>6.9148936170212716</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30.75">
       <c r="A89" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 21 и до 22 (включительно)</v>
       </c>
-      <c r="C89" s="31">
+      <c r="C89" s="30">
         <v>2.52</v>
       </c>
-      <c r="D89" s="29">
+      <c r="D89" s="28">
         <v>2.69</v>
       </c>
-      <c r="E89" s="29">
+      <c r="E89" s="28">
         <f t="shared" si="3"/>
         <v>6.7460317460317425</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30.75">
       <c r="A90" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 22 и до 23 (включительно)</v>
       </c>
-      <c r="C90" s="31">
+      <c r="C90" s="30">
         <v>3.16</v>
       </c>
-      <c r="D90" s="29">
+      <c r="D90" s="28">
         <v>3.37</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="28">
         <f t="shared" si="3"/>
         <v>6.6455696202531627</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30.75">
       <c r="A91" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 23 и до 24 (включительно)</v>
       </c>
-      <c r="C91" s="31">
+      <c r="C91" s="30">
         <v>3.8</v>
       </c>
-      <c r="D91" s="31">
+      <c r="D91" s="30">
         <v>4.05</v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="28">
         <f t="shared" si="3"/>
         <v>6.5789473684210522</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30.75">
       <c r="A92" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 24 и до 25 (включительно)</v>
       </c>
-      <c r="C92" s="31">
+      <c r="C92" s="30">
         <v>4.45</v>
       </c>
-      <c r="D92" s="35">
+      <c r="D92" s="34">
         <v>4.75</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="28">
         <f t="shared" si="3"/>
         <v>6.7415730337078612</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30.75">
       <c r="A93" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 25 и до 26 (включительно)</v>
       </c>
-      <c r="C93" s="29">
+      <c r="C93" s="28">
         <v>5.09</v>
       </c>
-      <c r="D93" s="29">
+      <c r="D93" s="28">
         <v>5.43</v>
       </c>
-      <c r="E93" s="29">
+      <c r="E93" s="28">
         <f t="shared" si="3"/>
         <v>6.6797642436149287</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30.75">
       <c r="A94" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 26 и до 27 (включительно)</v>
       </c>
-      <c r="C94" s="29">
+      <c r="C94" s="28">
         <v>5.73</v>
       </c>
-      <c r="D94" s="29">
+      <c r="D94" s="28">
         <v>6.11</v>
       </c>
-      <c r="E94" s="29">
+      <c r="E94" s="28">
         <f t="shared" si="3"/>
         <v>6.631762652705059</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30.75">
       <c r="A95" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C95" s="29">
+      <c r="C95" s="28">
         <v>6.38</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="28">
         <v>6.81</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="28">
         <f t="shared" si="3"/>
         <v>6.7398119122257016</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30.75">
       <c r="A96" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C96" s="29">
+      <c r="C96" s="28">
         <v>7.02</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="28">
         <v>7.49</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E96" s="28">
         <f t="shared" si="3"/>
         <v>6.6951566951567054</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30.75">
       <c r="A97" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C97" s="29">
+      <c r="C97" s="28">
         <v>7.66</v>
       </c>
-      <c r="D97" s="29">
+      <c r="D97" s="28">
         <v>8.17</v>
       </c>
-      <c r="E97" s="29">
+      <c r="E97" s="28">
         <f t="shared" si="3"/>
         <v>6.6579634464751933</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30.75">
       <c r="A98" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C98" s="29">
+      <c r="C98" s="28">
         <v>8.31</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D98" s="28">
         <v>8.8699999999999992</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="28">
         <f t="shared" si="3"/>
         <v>6.7388688327316331</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30.75">
       <c r="A99" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 31 и до 32 (включительно)</v>
       </c>
-      <c r="C99" s="29">
+      <c r="C99" s="28">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D99" s="29">
+      <c r="D99" s="28">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E99" s="29">
+      <c r="E99" s="28">
         <f t="shared" si="3"/>
         <v>6.7039106145251566</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30.75">
       <c r="A100" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 32 и до 33 (включительно)</v>
       </c>
-      <c r="C100" s="29">
+      <c r="C100" s="28">
         <v>9.59</v>
       </c>
-      <c r="D100" s="29">
+      <c r="D100" s="28">
         <v>10.23</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="28">
         <f t="shared" si="3"/>
         <v>6.6736183524504753</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30.75">
       <c r="A101" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 33 и до 34 (включительно)</v>
       </c>
-      <c r="C101" s="29">
+      <c r="C101" s="28">
         <v>10.23</v>
       </c>
-      <c r="D101" s="29">
+      <c r="D101" s="28">
         <v>10.92</v>
       </c>
-      <c r="E101" s="29">
+      <c r="E101" s="28">
         <f t="shared" si="3"/>
         <v>6.7448680351906116</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30.75">
       <c r="A102" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 34 и до 35 (включительно)</v>
       </c>
-      <c r="C102" s="29">
+      <c r="C102" s="28">
         <v>10.88</v>
       </c>
-      <c r="D102" s="29">
+      <c r="D102" s="28">
         <v>11.61</v>
       </c>
-      <c r="E102" s="29">
+      <c r="E102" s="28">
         <f t="shared" si="3"/>
         <v>6.7095588235293988</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30.75">
       <c r="A103" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 35 и до 36 (включительно)</v>
       </c>
-      <c r="C103" s="29">
+      <c r="C103" s="28">
         <v>11.52</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="28">
         <v>12.29</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="28">
         <f t="shared" si="3"/>
         <v>6.684027777777775</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30.75">
       <c r="A104" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 36 и до 37 (включительно)</v>
       </c>
-      <c r="C104" s="29">
+      <c r="C104" s="28">
         <v>12.16</v>
       </c>
-      <c r="D104" s="29">
+      <c r="D104" s="28">
         <v>12.97</v>
       </c>
-      <c r="E104" s="29">
+      <c r="E104" s="28">
         <f t="shared" si="3"/>
         <v>6.6611842105263195</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30.75">
       <c r="A105" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 37 и до 38 (включительно)</v>
       </c>
-      <c r="C105" s="29">
+      <c r="C105" s="28">
         <v>12.81</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="28">
         <v>13.67</v>
       </c>
-      <c r="E105" s="29">
+      <c r="E105" s="28">
         <f t="shared" si="3"/>
         <v>6.7135050741608069</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30.75">
       <c r="A106" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 38 и до 39 (включительно)</v>
       </c>
-      <c r="C106" s="29">
+      <c r="C106" s="28">
         <v>13.45</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D106" s="28">
         <v>14.35</v>
       </c>
-      <c r="E106" s="29">
+      <c r="E106" s="28">
         <f t="shared" si="3"/>
         <v>6.6914498141263978</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30.75">
       <c r="A107" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 39 и до 40 (включительно)</v>
       </c>
-      <c r="C107" s="29">
+      <c r="C107" s="28">
         <v>14.09</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D107" s="28">
         <v>15.03</v>
       </c>
-      <c r="E107" s="29">
+      <c r="E107" s="28">
         <f t="shared" si="3"/>
         <v>6.6713981547196557</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30.75">
       <c r="A108" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 40 и до 41 (включительно)</v>
       </c>
-      <c r="C108" s="29">
+      <c r="C108" s="28">
         <v>14.73</v>
       </c>
-      <c r="D108" s="29">
+      <c r="D108" s="28">
         <v>15.72</v>
       </c>
-      <c r="E108" s="29">
+      <c r="E108" s="28">
         <f t="shared" si="3"/>
         <v>6.7209775967413456</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30.75">
       <c r="A109" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 41 и до 42 (включительно)</v>
       </c>
-      <c r="C109" s="29">
+      <c r="C109" s="28">
         <v>15.38</v>
       </c>
-      <c r="D109" s="29">
+      <c r="D109" s="28">
         <v>16.41</v>
       </c>
-      <c r="E109" s="29">
+      <c r="E109" s="28">
         <f t="shared" si="3"/>
         <v>6.6970091027308154</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30.75">
       <c r="A110" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 42 и до 43 (включительно)</v>
       </c>
-      <c r="C110" s="29">
+      <c r="C110" s="28">
         <v>16.02</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D110" s="28">
         <v>17.09</v>
       </c>
-      <c r="E110" s="29">
+      <c r="E110" s="28">
         <f t="shared" si="3"/>
         <v>6.6791510611735356</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30.75">
       <c r="A111" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 43 и до 44 (включительно)</v>
       </c>
-      <c r="C111" s="29">
+      <c r="C111" s="28">
         <v>16.66</v>
       </c>
-      <c r="D111" s="29">
+      <c r="D111" s="28">
         <v>17.78</v>
       </c>
-      <c r="E111" s="29">
+      <c r="E111" s="28">
         <f t="shared" si="3"/>
         <v>6.7226890756302575</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30.75">
       <c r="A112" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 44 и до 45 (включительно)</v>
       </c>
-      <c r="C112" s="29">
+      <c r="C112" s="28">
         <v>17.309999999999999</v>
       </c>
-      <c r="D112" s="29">
+      <c r="D112" s="28">
         <v>18.47</v>
       </c>
-      <c r="E112" s="29">
+      <c r="E112" s="28">
         <f t="shared" si="3"/>
         <v>6.7013287117273261</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30.75">
       <c r="A113" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 45 и до 46 (включительно)</v>
       </c>
-      <c r="C113" s="29">
+      <c r="C113" s="28">
         <v>17.95</v>
       </c>
-      <c r="D113" s="29">
+      <c r="D113" s="28">
         <v>19.149999999999999</v>
       </c>
-      <c r="E113" s="29">
+      <c r="E113" s="28">
         <f t="shared" si="3"/>
         <v>6.6852367688022243</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30.75">
       <c r="A114" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 46 и до 47 (включительно)</v>
       </c>
-      <c r="C114" s="29">
+      <c r="C114" s="28">
         <v>18.59</v>
       </c>
-      <c r="D114" s="29">
+      <c r="D114" s="28">
         <v>19.84</v>
       </c>
-      <c r="E114" s="29">
+      <c r="E114" s="28">
         <f t="shared" si="3"/>
         <v>6.7240451855836474</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="30.75">
       <c r="A115" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 47 и до 48 (включительно)</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C115" s="28">
         <v>19.239999999999998</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D115" s="28">
         <v>20.53</v>
       </c>
-      <c r="E115" s="29">
+      <c r="E115" s="28">
         <f t="shared" si="3"/>
         <v>6.7047817047817189</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30.75">
       <c r="A116" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 48 и до 49 (включительно)</v>
       </c>
-      <c r="C116" s="29">
+      <c r="C116" s="28">
         <v>19.88</v>
       </c>
-      <c r="D116" s="29">
+      <c r="D116" s="28">
         <v>21.21</v>
       </c>
-      <c r="E116" s="29">
+      <c r="E116" s="28">
         <f t="shared" si="3"/>
         <v>6.6901408450704318</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30.75">
       <c r="A117" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C117" s="29">
+        <v>228</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" s="28">
         <v>20.52</v>
       </c>
-      <c r="D117" s="29">
+      <c r="D117" s="28">
         <v>21.89</v>
       </c>
-      <c r="E117" s="29">
+      <c r="E117" s="28">
         <f t="shared" si="3"/>
         <v>6.6764132553606288</v>
       </c>

--- a/Налоги_таблицы.xlsx
+++ b/Налоги_таблицы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1796" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20927EE-3CD3-4262-B596-605CB85F0BE0}"/>
+  <xr:revisionPtr revIDLastSave="1850" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1B8A58D-9EAA-4DEC-80D0-AE6F231221EE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Транспортный" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="363">
   <si>
     <t>Тип транспортных средств </t>
   </si>
@@ -351,28 +351,34 @@
     <t>изъятие гадюки обыкновенной</t>
   </si>
   <si>
-    <t>Действия с отходами</t>
+    <t>Способ обращения с отходами</t>
   </si>
   <si>
     <t xml:space="preserve">Категории отходов </t>
   </si>
   <si>
+    <t xml:space="preserve"> Конкретный вид отхода</t>
+  </si>
+  <si>
     <t>Ставка_2025</t>
   </si>
   <si>
     <t>Ставка _2026</t>
   </si>
   <si>
+    <t>Рост_налога</t>
+  </si>
+  <si>
     <t>Захоронение или использование в качестве изолирующего слоя</t>
   </si>
   <si>
     <t>неопасные отходы производства</t>
   </si>
   <si>
-    <t>опасные отходы производства третьего класса</t>
-  </si>
-  <si>
-    <t>опасные отходы производства четвертого класса</t>
+    <t>опасные отходы производства III класса</t>
+  </si>
+  <si>
+    <t>опасные отходы производства IV класса</t>
   </si>
   <si>
     <t>110.97</t>
@@ -384,13 +390,31 @@
     <t xml:space="preserve">неопасные отходы </t>
   </si>
   <si>
-    <t>опасные отходы 1 класса</t>
-  </si>
-  <si>
-    <t>опасные отходы 2 класса</t>
-  </si>
-  <si>
-    <t>опасные отходы 3 класса</t>
+    <t>опасные отходы I класса</t>
+  </si>
+  <si>
+    <t>опасные отходы II класса</t>
+  </si>
+  <si>
+    <t>опасные отходы III класса</t>
+  </si>
+  <si>
+    <t>лигнин</t>
+  </si>
+  <si>
+    <t>осадок из отстойников</t>
+  </si>
+  <si>
+    <t>опасные отходы IV класса</t>
+  </si>
+  <si>
+    <t>галитовые отходы, фосфогипс</t>
+  </si>
+  <si>
+    <t>ил очистных сооружений</t>
+  </si>
+  <si>
+    <t>иные отходы</t>
   </si>
   <si>
     <t>Средняя цена реализации 1000 килограммов нефти в  долларах США</t>
@@ -449,7 +473,7 @@
     <t>Свыше 1446,0</t>
   </si>
   <si>
-    <t>Вид загрязнения</t>
+    <t>Куда сбрасываются сточные воды</t>
   </si>
   <si>
     <t>Рост в процентах</t>
@@ -473,28 +497,25 @@
     <t>Рост_ставок</t>
   </si>
   <si>
-    <t>Первый класс</t>
+    <t>I класс</t>
   </si>
   <si>
     <t>49855, 15</t>
   </si>
   <si>
-    <t>Второй класс</t>
-  </si>
-  <si>
-    <t>Третий класс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Четвертый класс </t>
+    <t>II класс</t>
+  </si>
+  <si>
+    <t>III класс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV класс, а также без класса опасности </t>
   </si>
   <si>
     <t>Подакцизный_товар</t>
   </si>
   <si>
     <t>Единица налогообложения</t>
-  </si>
-  <si>
-    <t>Рост_налога</t>
   </si>
   <si>
     <t>Спирт-сырец (для ректификации)</t>
@@ -1293,9 +1314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1364,6 +1382,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1689,18 +1710,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
+    <col min="2" max="2" width="9.140625" style="22"/>
+    <col min="3" max="3" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1708,10 +1729,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1719,10 +1740,10 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1730,10 +1751,10 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1741,10 +1762,10 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1752,10 +1773,10 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1763,10 +1784,10 @@
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1774,10 +1795,10 @@
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1785,10 +1806,10 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1796,10 +1817,10 @@
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1807,10 +1828,10 @@
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1818,10 +1839,10 @@
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1829,10 +1850,10 @@
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>337</v>
       </c>
     </row>
@@ -1840,10 +1861,10 @@
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>477</v>
       </c>
     </row>
@@ -1851,10 +1872,10 @@
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>617</v>
       </c>
     </row>
@@ -1862,10 +1883,10 @@
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>85</v>
       </c>
     </row>
@@ -1873,10 +1894,10 @@
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>562</v>
       </c>
     </row>
@@ -1897,39 +1918,39 @@
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>118</v>
+        <v>237</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="31">
+        <v>240</v>
+      </c>
+      <c r="C2" s="30">
         <v>35.89</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>38.29</v>
       </c>
       <c r="E2">
@@ -1939,15 +1960,15 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="27">
+        <v>241</v>
+      </c>
+      <c r="C3" s="26">
         <v>32.340000000000003</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>34.51</v>
       </c>
       <c r="E3">
@@ -1957,15 +1978,15 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="31">
+        <v>242</v>
+      </c>
+      <c r="C4" s="30">
         <v>32.159999999999997</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>34.31</v>
       </c>
       <c r="E4">
@@ -1975,15 +1996,15 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="31">
+        <v>243</v>
+      </c>
+      <c r="C5" s="30">
         <v>22.31</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>23.8</v>
       </c>
       <c r="E5">
@@ -1993,15 +2014,15 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="31">
+        <v>244</v>
+      </c>
+      <c r="C6" s="30">
         <v>24.29</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>25.92</v>
       </c>
       <c r="E6">
@@ -2011,15 +2032,15 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="31">
+        <v>245</v>
+      </c>
+      <c r="C7" s="30">
         <v>30.2</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>32.22</v>
       </c>
       <c r="E7">
@@ -2029,15 +2050,15 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="31">
+        <v>246</v>
+      </c>
+      <c r="C8" s="30">
         <v>23.3</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>24.86</v>
       </c>
       <c r="E8">
@@ -2047,15 +2068,15 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="31">
+        <v>247</v>
+      </c>
+      <c r="C9" s="30">
         <v>25.64</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>27.36</v>
       </c>
       <c r="E9">
@@ -2065,15 +2086,15 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="27">
+        <v>248</v>
+      </c>
+      <c r="C10" s="26">
         <v>32.159999999999997</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>34.31</v>
       </c>
       <c r="E10">
@@ -2083,15 +2104,15 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="31">
+        <v>249</v>
+      </c>
+      <c r="C11" s="30">
         <v>25.05</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>26.73</v>
       </c>
       <c r="E11">
@@ -2101,15 +2122,15 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="31">
+        <v>250</v>
+      </c>
+      <c r="C12" s="30">
         <v>16.829999999999998</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>17.96</v>
       </c>
       <c r="E12">
@@ -2119,15 +2140,15 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="31">
+        <v>251</v>
+      </c>
+      <c r="C13" s="30">
         <v>35.08</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>37.43</v>
       </c>
       <c r="E13">
@@ -2137,15 +2158,15 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="31">
+        <v>252</v>
+      </c>
+      <c r="C14" s="30">
         <v>18.18</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>19.399999999999999</v>
       </c>
       <c r="E14">
@@ -2155,15 +2176,15 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="31">
+        <v>253</v>
+      </c>
+      <c r="C15" s="30">
         <v>22.72</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>24.24</v>
       </c>
       <c r="E15">
@@ -2173,15 +2194,15 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="31">
+        <v>254</v>
+      </c>
+      <c r="C16" s="30">
         <v>28.81</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>30.74</v>
       </c>
       <c r="E16">
@@ -2191,15 +2212,15 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="27">
+        <v>255</v>
+      </c>
+      <c r="C17" s="26">
         <v>24.29</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>25.92</v>
       </c>
       <c r="E17">
@@ -2209,15 +2230,15 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="31">
+        <v>257</v>
+      </c>
+      <c r="C18" s="30">
         <v>17.41</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>18.579999999999998</v>
       </c>
       <c r="E18">
@@ -2227,15 +2248,15 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="31">
+        <v>258</v>
+      </c>
+      <c r="C19" s="30">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>9.5500000000000007</v>
       </c>
       <c r="E19">
@@ -2245,15 +2266,15 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="31">
+        <v>256</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="30">
         <v>10.32</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>11.01</v>
       </c>
       <c r="E20">
@@ -2263,15 +2284,15 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="31">
+        <v>256</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="30">
         <v>12.29</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>13.11</v>
       </c>
       <c r="E21">
@@ -2281,15 +2302,15 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="31">
+        <v>256</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="30">
         <v>18.18</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>19.399999999999999</v>
       </c>
       <c r="E22">
@@ -2299,15 +2320,15 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="31">
+        <v>256</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="30">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <v>4.87</v>
       </c>
       <c r="E23">
@@ -2317,15 +2338,15 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="31">
+      <c r="B24" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="30">
         <v>17.989999999999998</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>19.2</v>
       </c>
       <c r="E24">
@@ -2335,15 +2356,15 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>249</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="31">
+        <v>256</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="30">
         <v>25.27</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <v>26.96</v>
       </c>
       <c r="E25">
@@ -2353,15 +2374,15 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="31">
+        <v>256</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="30">
         <v>9.94</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <v>10.61</v>
       </c>
       <c r="E26">
@@ -2371,15 +2392,15 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="31">
+        <v>256</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="30">
         <v>12.5</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <v>13.34</v>
       </c>
       <c r="E27">
@@ -2389,15 +2410,15 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C28" s="31">
+        <v>256</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="30">
         <v>14.08</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <v>15.02</v>
       </c>
       <c r="E28">
@@ -2407,15 +2428,15 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="31">
+        <v>256</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="30">
         <v>26.26</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <v>28.02</v>
       </c>
       <c r="E29">
@@ -2425,15 +2446,15 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C30" s="31">
+        <v>256</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="30">
         <v>5.64</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="27">
         <v>6.02</v>
       </c>
       <c r="E30">
@@ -2443,15 +2464,15 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="31">
+        <v>256</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="30">
         <v>14.25</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="27">
         <v>15.2</v>
       </c>
       <c r="E31">
@@ -2461,15 +2482,15 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C32" s="31">
+        <v>256</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="30">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="27">
         <v>4.87</v>
       </c>
       <c r="E32">
@@ -2479,15 +2500,15 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>249</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="31">
+        <v>256</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="30">
         <v>14.25</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="27">
         <v>15.2</v>
       </c>
       <c r="E33">
@@ -2497,15 +2518,15 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="31">
+        <v>256</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="30">
         <v>23.88</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="27">
         <v>25.48</v>
       </c>
       <c r="E34">
@@ -2515,15 +2536,15 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="31">
+        <v>256</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="30">
         <v>7.16</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="27">
         <v>7.64</v>
       </c>
       <c r="E35">
@@ -2533,15 +2554,15 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="31">
+        <v>256</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="30">
         <v>15.06</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="27">
         <v>16.07</v>
       </c>
       <c r="E36">
@@ -2551,15 +2572,15 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="27">
+        <v>276</v>
+      </c>
+      <c r="C37" s="26">
         <v>18.18</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="27">
         <v>19.399999999999999</v>
       </c>
       <c r="E37">
@@ -2569,15 +2590,15 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>270</v>
-      </c>
-      <c r="C38" s="27">
+        <v>277</v>
+      </c>
+      <c r="C38" s="26">
         <v>10.55</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="27">
         <v>11.26</v>
       </c>
       <c r="E38">
@@ -2587,15 +2608,15 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C39" s="31">
+        <v>279</v>
+      </c>
+      <c r="C39" s="30">
         <v>19.91</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="27">
         <v>21.24</v>
       </c>
       <c r="E39">
@@ -2605,15 +2626,15 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>271</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="31">
+        <v>278</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" s="30">
         <v>28.41</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="27">
         <v>30.31</v>
       </c>
       <c r="E40">
@@ -2623,15 +2644,15 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C41" s="31">
+        <v>278</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="30">
         <v>28.41</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="27">
         <v>30.31</v>
       </c>
       <c r="E41">
@@ -2641,15 +2662,15 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>271</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" s="31">
+        <v>278</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" s="30">
         <v>21.74</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="27">
         <v>23.2</v>
       </c>
       <c r="E42">
@@ -2659,15 +2680,15 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>271</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C43" s="31">
+        <v>278</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="30">
         <v>30.78</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="27">
         <v>32.840000000000003</v>
       </c>
       <c r="E43">
@@ -2677,15 +2698,15 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>271</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C44" s="31">
+        <v>278</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="30">
         <v>14.86</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="27">
         <v>15.86</v>
       </c>
       <c r="E44">
@@ -2695,15 +2716,15 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>271</v>
-      </c>
-      <c r="B45" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C45" s="31">
+      <c r="B45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="30">
         <v>21.55</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="27">
         <v>22.99</v>
       </c>
       <c r="E45">
@@ -2713,15 +2734,15 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>271</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C46" s="31">
+        <v>278</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" s="30">
         <v>31.93</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="27">
         <v>34.07</v>
       </c>
       <c r="E46">
@@ -2731,15 +2752,15 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>271</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" s="31">
+        <v>278</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="30">
         <v>18.39</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="27">
         <v>19.62</v>
       </c>
       <c r="E47">
@@ -2749,15 +2770,15 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>271</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="31">
+        <v>278</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="30">
         <v>35.450000000000003</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="27">
         <v>37.83</v>
       </c>
       <c r="E48">
@@ -2767,15 +2788,15 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" s="31">
+        <v>278</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="30">
         <v>17.41</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="27">
         <v>18.579999999999998</v>
       </c>
       <c r="E49">
@@ -2785,15 +2806,15 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>271</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C50" s="31">
+        <v>278</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="30">
         <v>15.24</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="27">
         <v>16.260000000000002</v>
       </c>
       <c r="E50">
@@ -2803,15 +2824,15 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="31">
+        <v>278</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="30">
         <v>18.97</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="27">
         <v>20.239999999999998</v>
       </c>
       <c r="E51">
@@ -2821,15 +2842,15 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>271</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C52" s="31">
+        <v>278</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="30">
         <v>18.97</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="27">
         <v>20.239999999999998</v>
       </c>
       <c r="E52">
@@ -2839,15 +2860,15 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C53" s="31">
+        <v>278</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="30">
         <v>24.66</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D53" s="27">
         <v>26.31</v>
       </c>
       <c r="E53">
@@ -2857,15 +2878,15 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>271</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C54" s="31">
+        <v>278</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" s="30">
         <v>14.25</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="27">
         <v>15.2</v>
       </c>
       <c r="E54">
@@ -2875,15 +2896,15 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>271</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C55" s="31">
+        <v>278</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" s="30">
         <v>22.9</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D55" s="27">
         <v>24.43</v>
       </c>
       <c r="E55">
@@ -2893,15 +2914,15 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>271</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C56" s="31">
+        <v>278</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="30">
         <v>31.38</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="27">
         <v>33.479999999999997</v>
       </c>
       <c r="E56">
@@ -2911,15 +2932,15 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>271</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C57" s="31">
+        <v>278</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" s="30">
         <v>18.18</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D57" s="27">
         <v>19.399999999999999</v>
       </c>
       <c r="E57">
@@ -2929,15 +2950,15 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>271</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C58" s="31">
+        <v>278</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" s="30">
         <v>31.38</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D58" s="27">
         <v>33.479999999999997</v>
       </c>
       <c r="E58">
@@ -2947,15 +2968,15 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>271</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C59" s="31">
+        <v>278</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" s="30">
         <v>26.07</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="27">
         <v>27.82</v>
       </c>
       <c r="E59">
@@ -2965,15 +2986,15 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60" s="31">
+        <v>301</v>
+      </c>
+      <c r="C60" s="30">
         <v>39.99</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="27">
         <v>42.67</v>
       </c>
       <c r="E60">
@@ -2983,15 +3004,15 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>293</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" s="31">
+        <v>300</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C61" s="30">
         <v>41.19</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D61" s="27">
         <v>43.95</v>
       </c>
       <c r="E61">
@@ -3001,15 +3022,15 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C62" s="31">
+        <v>300</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="30">
         <v>31.54</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="27">
         <v>33.65</v>
       </c>
       <c r="E62">
@@ -3019,15 +3040,15 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>293</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C63" s="31">
+        <v>300</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="30">
         <v>38.43</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="27">
         <v>41</v>
       </c>
       <c r="E63">
@@ -3037,15 +3058,15 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>293</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="31">
+        <v>300</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="30">
         <v>25.05</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="27">
         <v>26.73</v>
       </c>
       <c r="E64">
@@ -3055,15 +3076,15 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>293</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C65" s="31">
+        <v>300</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="30">
         <v>39.99</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="27">
         <v>42.67</v>
       </c>
       <c r="E65">
@@ -3073,15 +3094,15 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>293</v>
-      </c>
-      <c r="B66" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C66" s="31">
+      <c r="B66" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" s="30">
         <v>23.53</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="27">
         <v>25.11</v>
       </c>
       <c r="E66">
@@ -3091,15 +3112,15 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>293</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C67" s="31">
+        <v>300</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="30">
         <v>41.4</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D67" s="27">
         <v>44.17</v>
       </c>
       <c r="E67">
@@ -3109,15 +3130,15 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>293</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C68" s="31">
+        <v>300</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C68" s="30">
         <v>29.79</v>
       </c>
-      <c r="D68" s="28">
+      <c r="D68" s="27">
         <v>31.79</v>
       </c>
       <c r="E68">
@@ -3127,15 +3148,15 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>293</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="31">
+        <v>300</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" s="30">
         <v>35.68</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D69" s="27">
         <v>38.07</v>
       </c>
       <c r="E69">
@@ -3145,15 +3166,15 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>293</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C70" s="31">
+        <v>300</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="30">
         <v>30.56</v>
       </c>
-      <c r="D70" s="28">
+      <c r="D70" s="27">
         <v>32.61</v>
       </c>
       <c r="E70">
@@ -3163,15 +3184,15 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>293</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C71" s="31">
+        <v>300</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" s="30">
         <v>22.31</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D71" s="27">
         <v>23.8</v>
       </c>
       <c r="E71">
@@ -3181,15 +3202,15 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>293</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C72" s="31">
+        <v>300</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C72" s="30">
         <v>28.81</v>
       </c>
-      <c r="D72" s="28">
+      <c r="D72" s="27">
         <v>30.74</v>
       </c>
       <c r="E72">
@@ -3199,15 +3220,15 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>293</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C73" s="31">
+        <v>300</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="30">
         <v>30.56</v>
       </c>
-      <c r="D73" s="28">
+      <c r="D73" s="27">
         <v>32.61</v>
       </c>
       <c r="E73">
@@ -3217,15 +3238,15 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>293</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C74" s="31">
+        <v>300</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="30">
         <v>34.11</v>
       </c>
-      <c r="D74" s="28">
+      <c r="D74" s="27">
         <v>36.4</v>
       </c>
       <c r="E74">
@@ -3235,15 +3256,15 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>293</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C75" s="31">
+        <v>300</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C75" s="30">
         <v>23.3</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D75" s="27">
         <v>24.86</v>
       </c>
       <c r="E75">
@@ -3253,15 +3274,15 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C76" s="31">
+        <v>300</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="30">
         <v>36.270000000000003</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D76" s="27">
         <v>38.700000000000003</v>
       </c>
       <c r="E76">
@@ -3271,15 +3292,15 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C77" s="31">
+        <v>319</v>
+      </c>
+      <c r="C77" s="30">
         <v>18.97</v>
       </c>
-      <c r="D77" s="28">
+      <c r="D77" s="27">
         <v>20.239999999999998</v>
       </c>
       <c r="E77">
@@ -3289,15 +3310,15 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C78" s="31">
+        <v>318</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" s="30">
         <v>27.82</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D78" s="27">
         <v>29.68</v>
       </c>
       <c r="E78">
@@ -3307,15 +3328,15 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>311</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C79" s="31">
+        <v>318</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="30">
         <v>23.53</v>
       </c>
-      <c r="D79" s="28">
+      <c r="D79" s="27">
         <v>25.11</v>
       </c>
       <c r="E79">
@@ -3325,15 +3346,15 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>311</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C80" s="31">
+        <v>318</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" s="30">
         <v>25.64</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D80" s="27">
         <v>27.36</v>
       </c>
       <c r="E80">
@@ -3343,15 +3364,15 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>311</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C81" s="31">
+        <v>318</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="30">
         <v>33.72</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D81" s="27">
         <v>35.979999999999997</v>
       </c>
       <c r="E81">
@@ -3361,15 +3382,15 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>311</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C82" s="31">
+        <v>318</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" s="30">
         <v>46.68</v>
       </c>
-      <c r="D82" s="28">
+      <c r="D82" s="27">
         <v>49.81</v>
       </c>
       <c r="E82">
@@ -3379,15 +3400,15 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>311</v>
-      </c>
-      <c r="B83" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C83" s="31">
+      <c r="B83" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" s="30">
         <v>40.799999999999997</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D83" s="27">
         <v>43.53</v>
       </c>
       <c r="E83">
@@ -3397,15 +3418,15 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>311</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C84" s="31">
+        <v>318</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" s="30">
         <v>17.21</v>
       </c>
-      <c r="D84" s="28">
+      <c r="D84" s="27">
         <v>18.36</v>
       </c>
       <c r="E84">
@@ -3415,15 +3436,15 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>311</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C85" s="31">
+        <v>318</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" s="30">
         <v>17.010000000000002</v>
       </c>
-      <c r="D85" s="28">
+      <c r="D85" s="27">
         <v>18.149999999999999</v>
       </c>
       <c r="E85">
@@ -3433,15 +3454,15 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>311</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C86" s="31">
+        <v>318</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" s="30">
         <v>25.64</v>
       </c>
-      <c r="D86" s="28">
+      <c r="D86" s="27">
         <v>27.36</v>
       </c>
       <c r="E86">
@@ -3451,15 +3472,15 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>311</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C87" s="31">
+        <v>318</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" s="30">
         <v>35.08</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D87" s="27">
         <v>37.43</v>
       </c>
       <c r="E87">
@@ -3469,15 +3490,15 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>311</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C88" s="31">
+        <v>318</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" s="30">
         <v>31.93</v>
       </c>
-      <c r="D88" s="28">
+      <c r="D88" s="27">
         <v>34.07</v>
       </c>
       <c r="E88">
@@ -3487,15 +3508,15 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>311</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C89" s="31">
+        <v>318</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" s="30">
         <v>12.5</v>
       </c>
-      <c r="D89" s="28">
+      <c r="D89" s="27">
         <v>13.34</v>
       </c>
       <c r="E89">
@@ -3505,15 +3526,15 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>311</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C90" s="31">
+        <v>318</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C90" s="30">
         <v>50.62</v>
       </c>
-      <c r="D90" s="28">
+      <c r="D90" s="27">
         <v>54.01</v>
       </c>
       <c r="E90">
@@ -3523,15 +3544,15 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>311</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C91" s="31">
+        <v>318</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" s="30">
         <v>25.49</v>
       </c>
-      <c r="D91" s="28">
+      <c r="D91" s="27">
         <v>27.2</v>
       </c>
       <c r="E91">
@@ -3541,15 +3562,15 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>311</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C92" s="31">
+        <v>318</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" s="30">
         <v>41.55</v>
       </c>
-      <c r="D92" s="28">
+      <c r="D92" s="27">
         <v>44.33</v>
       </c>
       <c r="E92">
@@ -3559,15 +3580,15 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>311</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C93" s="31">
+        <v>318</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C93" s="30">
         <v>28.81</v>
       </c>
-      <c r="D93" s="28">
+      <c r="D93" s="27">
         <v>30.74</v>
       </c>
       <c r="E93">
@@ -3577,15 +3598,15 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>311</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C94" s="31">
+        <v>318</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C94" s="30">
         <v>30.56</v>
       </c>
-      <c r="D94" s="28">
+      <c r="D94" s="27">
         <v>32.61</v>
       </c>
       <c r="E94">
@@ -3595,15 +3616,15 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>311</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C95" s="31">
+        <v>318</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C95" s="30">
         <v>19.97</v>
       </c>
-      <c r="D95" s="28">
+      <c r="D95" s="27">
         <v>21.31</v>
       </c>
       <c r="E95">
@@ -3613,15 +3634,15 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>311</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C96" s="31">
+        <v>318</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C96" s="30">
         <v>28.02</v>
       </c>
-      <c r="D96" s="28">
+      <c r="D96" s="27">
         <v>29.9</v>
       </c>
       <c r="E96">
@@ -3631,15 +3652,15 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>311</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C97" s="31">
+        <v>318</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C97" s="30">
         <v>28.41</v>
       </c>
-      <c r="D97" s="28">
+      <c r="D97" s="27">
         <v>30.31</v>
       </c>
       <c r="E97">
@@ -3649,15 +3670,15 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>311</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C98" s="31">
+        <v>318</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C98" s="30">
         <v>27.45</v>
       </c>
-      <c r="D98" s="28">
+      <c r="D98" s="27">
         <v>29.29</v>
       </c>
       <c r="E98">
@@ -3667,15 +3688,15 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C99" s="31">
+        <v>342</v>
+      </c>
+      <c r="C99" s="30">
         <v>31.93</v>
       </c>
-      <c r="D99" s="28">
+      <c r="D99" s="27">
         <v>34.07</v>
       </c>
       <c r="E99">
@@ -3685,15 +3706,15 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>334</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C100" s="31">
+        <v>341</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="30">
         <v>35.299999999999997</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D100" s="27">
         <v>37.67</v>
       </c>
       <c r="E100">
@@ -3703,15 +3724,15 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>334</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C101" s="31">
+        <v>341</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" s="30">
         <v>26.83</v>
       </c>
-      <c r="D101" s="28">
+      <c r="D101" s="27">
         <v>28.63</v>
       </c>
       <c r="E101">
@@ -3721,15 +3742,15 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>334</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C102" s="31">
+        <v>341</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C102" s="30">
         <v>24.07</v>
       </c>
-      <c r="D102" s="28">
+      <c r="D102" s="27">
         <v>25.68</v>
       </c>
       <c r="E102">
@@ -3739,15 +3760,15 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>334</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C103" s="31">
+        <v>341</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" s="30">
         <v>29.58</v>
       </c>
-      <c r="D103" s="28">
+      <c r="D103" s="27">
         <v>31.56</v>
       </c>
       <c r="E103">
@@ -3757,15 +3778,15 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>334</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C104" s="31">
+        <v>341</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" s="30">
         <v>23.68</v>
       </c>
-      <c r="D104" s="28">
+      <c r="D104" s="27">
         <v>25.27</v>
       </c>
       <c r="E104">
@@ -3775,15 +3796,15 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>334</v>
-      </c>
-      <c r="B105" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C105" s="31">
+      <c r="B105" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="30">
         <v>37.64</v>
       </c>
-      <c r="D105" s="28">
+      <c r="D105" s="27">
         <v>40.159999999999997</v>
       </c>
       <c r="E105">
@@ -3793,15 +3814,15 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>334</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C106" s="31">
+        <v>341</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" s="30">
         <v>21.33</v>
       </c>
-      <c r="D106" s="28">
+      <c r="D106" s="27">
         <v>22.76</v>
       </c>
       <c r="E106">
@@ -3811,15 +3832,15 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>334</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C107" s="31">
+        <v>341</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="30">
         <v>24.49</v>
       </c>
-      <c r="D107" s="28">
+      <c r="D107" s="27">
         <v>26.13</v>
       </c>
       <c r="E107">
@@ -3829,15 +3850,15 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>334</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C108" s="31">
+        <v>341</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C108" s="30">
         <v>14.46</v>
       </c>
-      <c r="D108" s="28">
+      <c r="D108" s="27">
         <v>15.43</v>
       </c>
       <c r="E108">
@@ -3847,15 +3868,15 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>334</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C109" s="31">
+        <v>341</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C109" s="30">
         <v>17.41</v>
       </c>
-      <c r="D109" s="28">
+      <c r="D109" s="27">
         <v>18.579999999999998</v>
       </c>
       <c r="E109">
@@ -3865,15 +3886,15 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>334</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C110" s="31">
+        <v>341</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" s="30">
         <v>28.02</v>
       </c>
-      <c r="D110" s="28">
+      <c r="D110" s="27">
         <v>29.9</v>
       </c>
       <c r="E110">
@@ -3883,15 +3904,15 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>334</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C111" s="31">
+        <v>341</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C111" s="30">
         <v>36.270000000000003</v>
       </c>
-      <c r="D111" s="28">
+      <c r="D111" s="27">
         <v>38.700000000000003</v>
       </c>
       <c r="E111">
@@ -3901,15 +3922,15 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>334</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C112" s="31">
+        <v>341</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C112" s="30">
         <v>34.299999999999997</v>
       </c>
-      <c r="D112" s="28">
+      <c r="D112" s="27">
         <v>36.6</v>
       </c>
       <c r="E112">
@@ -3919,15 +3940,15 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>334</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C113" s="31">
+        <v>341</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C113" s="30">
         <v>23.3</v>
       </c>
-      <c r="D113" s="28">
+      <c r="D113" s="27">
         <v>24.86</v>
       </c>
       <c r="E113">
@@ -3937,15 +3958,15 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>334</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C114" s="31">
+        <v>341</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="30">
         <v>29.42</v>
       </c>
-      <c r="D114" s="28">
+      <c r="D114" s="27">
         <v>31.39</v>
       </c>
       <c r="E114">
@@ -3955,15 +3976,15 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>334</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C115" s="31">
+        <v>341</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C115" s="30">
         <v>20.14</v>
       </c>
-      <c r="D115" s="28">
+      <c r="D115" s="27">
         <v>21.49</v>
       </c>
       <c r="E115">
@@ -3973,15 +3994,15 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>334</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="C116" s="31">
+        <v>341</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C116" s="30">
         <v>20.94</v>
       </c>
-      <c r="D116" s="28">
+      <c r="D116" s="27">
         <v>22.34</v>
       </c>
       <c r="E116">
@@ -3991,15 +4012,15 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C117" s="32">
+        <v>360</v>
+      </c>
+      <c r="C117" s="31">
         <v>25.49</v>
       </c>
-      <c r="D117" s="28">
+      <c r="D117" s="27">
         <v>27.2</v>
       </c>
       <c r="E117">
@@ -4009,15 +4030,15 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>334</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="C118" s="32">
+        <v>341</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C118" s="31">
         <v>28.22</v>
       </c>
-      <c r="D118" s="28">
+      <c r="D118" s="27">
         <v>30.11</v>
       </c>
       <c r="E118">
@@ -4027,15 +4048,15 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>334</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C119" s="32">
+        <v>341</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="31">
         <v>35.450000000000003</v>
       </c>
-      <c r="D119" s="28">
+      <c r="D119" s="27">
         <v>37.83</v>
       </c>
       <c r="E119">
@@ -4059,18 +4080,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4078,10 +4099,10 @@
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4089,10 +4110,10 @@
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4100,10 +4121,10 @@
       <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4111,10 +4132,10 @@
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4122,10 +4143,10 @@
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4133,10 +4154,10 @@
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4144,10 +4165,10 @@
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4155,10 +4176,10 @@
       <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4166,10 +4187,10 @@
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4177,10 +4198,10 @@
       <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>1.238</v>
       </c>
     </row>
@@ -4188,10 +4209,10 @@
       <c r="A12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>0.1976</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>0.20130000000000001</v>
       </c>
     </row>
@@ -4199,10 +4220,10 @@
       <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>1.238</v>
       </c>
     </row>
@@ -4210,10 +4231,10 @@
       <c r="A14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>3.0949</v>
       </c>
     </row>
@@ -4221,10 +4242,10 @@
       <c r="A15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>0.91300000000000003</v>
       </c>
     </row>
@@ -4232,10 +4253,10 @@
       <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>134.06989999999999</v>
       </c>
     </row>
@@ -4243,10 +4264,10 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>8.5199999999999998E-2</v>
       </c>
     </row>
@@ -4254,10 +4275,10 @@
       <c r="A18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>0.15329999999999999</v>
       </c>
     </row>
@@ -4265,10 +4286,10 @@
       <c r="A19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>0.129</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>0.13769999999999999</v>
       </c>
     </row>
@@ -4276,10 +4297,10 @@
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>0.27860000000000001</v>
       </c>
     </row>
@@ -4287,10 +4308,10 @@
       <c r="A21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
@@ -4298,10 +4319,10 @@
       <c r="A22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>2E-3</v>
       </c>
     </row>
@@ -4309,10 +4330,10 @@
       <c r="A23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>5.7564000000000002</v>
       </c>
     </row>
@@ -4320,10 +4341,10 @@
       <c r="A24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
@@ -4331,10 +4352,10 @@
       <c r="A25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>0.30959999999999999</v>
       </c>
     </row>
@@ -4342,10 +4363,10 @@
       <c r="A26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>0.1976</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>0.2109</v>
       </c>
     </row>
@@ -4353,10 +4374,10 @@
       <c r="A27" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>18.867999999999999</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>20.132200000000001</v>
       </c>
     </row>
@@ -4364,10 +4385,10 @@
       <c r="A28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>2.5089999999999999</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>2.6770999999999998</v>
       </c>
     </row>
@@ -4375,10 +4396,10 @@
       <c r="A29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>54.008000000000003</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>57.626600000000003</v>
       </c>
     </row>
@@ -4386,10 +4407,10 @@
       <c r="A30" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>7723.5604000000003</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>8241.0390000000007</v>
       </c>
     </row>
@@ -4397,10 +4418,10 @@
       <c r="A31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>6285.4314999999997</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>6706.5555000000004</v>
       </c>
     </row>
@@ -4408,10 +4429,10 @@
       <c r="A32" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>2001.5</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>2135.6005</v>
       </c>
     </row>
@@ -4419,10 +4440,10 @@
       <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>9.2527000000000008</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>9.8727</v>
       </c>
     </row>
@@ -4433,150 +4454,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4ABDF-7288-45DE-82DA-8D9CB95A4138}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="36.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="29.25">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F1" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="27">
+    </row>
+    <row r="2" spans="1:6" ht="29.25">
+      <c r="A2" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="26">
         <v>8.25</v>
       </c>
-      <c r="D2" s="10">
+      <c r="E2" s="9">
         <v>8.81</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="27">
         <v>6.14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75">
-      <c r="A3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:6" ht="30.75">
+      <c r="A3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="27">
+      <c r="B3" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="26">
         <v>209.13</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E3" s="9">
         <v>223.15</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="27">
         <v>6.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25">
-      <c r="A4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="27">
+    <row r="4" spans="1:6" ht="29.25">
+      <c r="A4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="26">
         <v>104.29</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="27">
         <v>6.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="27">
+    <row r="5" spans="1:6">
+      <c r="A5" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="26">
         <v>1.8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E5" s="9">
         <v>1.92</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="27">
         <v>6.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="27">
+      <c r="B6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="26">
         <v>182.51</v>
       </c>
-      <c r="D6" s="10">
+      <c r="E6" s="9">
         <v>194.74</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="27">
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="27">
+    <row r="7" spans="1:6">
+      <c r="A7" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="26">
         <v>53.56</v>
       </c>
-      <c r="D7" s="10">
+      <c r="E7" s="9">
         <v>57.15</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="27">
         <v>6.62</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="27">
+    <row r="8" spans="1:6">
+      <c r="A8" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" s="26">
         <v>17.8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="E8" s="9">
         <v>19</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="27">
         <v>6.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>3.63</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.88</v>
+      </c>
+      <c r="F9" s="27">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>0.26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F10" s="27">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="F11" s="27">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="26">
+        <v>8.91</v>
+      </c>
+      <c r="E13" s="9">
+        <v>9.51</v>
+      </c>
+      <c r="F13" s="27">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -4595,84 +4730,84 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75">
       <c r="A1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="24">
+        <v>127</v>
+      </c>
+      <c r="B2" s="23">
         <v>32.03</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>34.18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="24">
+        <v>128</v>
+      </c>
+      <c r="B3" s="23">
         <v>39.869999999999997</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>42.55</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="24">
+        <v>129</v>
+      </c>
+      <c r="B4" s="23">
         <v>67.989999999999995</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>72.55</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="24">
+        <v>130</v>
+      </c>
+      <c r="B5" s="23">
         <v>94.7</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>101.05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="24">
+        <v>131</v>
+      </c>
+      <c r="B6" s="23">
         <v>122.81</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>131.04</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1">
+    <row r="7" spans="1:10" s="7" customFormat="1">
       <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="24">
+        <v>132</v>
+      </c>
+      <c r="B7" s="23">
         <v>149.16</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>159.16</v>
       </c>
       <c r="D7"/>
@@ -4683,14 +4818,14 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1">
+    <row r="8" spans="1:10" s="7" customFormat="1">
       <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="24">
+        <v>133</v>
+      </c>
+      <c r="B8" s="23">
         <v>177.66</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>189.57</v>
       </c>
       <c r="D8"/>
@@ -4701,14 +4836,14 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1">
+    <row r="9" spans="1:10" s="7" customFormat="1">
       <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="26">
+        <v>134</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="25">
         <v>234.85</v>
       </c>
       <c r="D9"/>
@@ -4719,14 +4854,14 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" s="8" customFormat="1">
+    <row r="10" spans="1:10" s="7" customFormat="1">
       <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="26">
+        <v>136</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="25">
         <v>248.06</v>
       </c>
       <c r="D10"/>
@@ -4739,56 +4874,56 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="24">
+        <v>138</v>
+      </c>
+      <c r="B11" s="23">
         <v>258.81</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>276.14999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="24">
+        <v>139</v>
+      </c>
+      <c r="B12" s="23">
         <v>285.17</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>304.27999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="24">
+        <v>140</v>
+      </c>
+      <c r="B13" s="23">
         <v>313.64</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>334.66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="24">
+        <v>141</v>
+      </c>
+      <c r="B14" s="23">
         <v>341.78</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>364.68</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="24">
+        <v>142</v>
+      </c>
+      <c r="B15" s="23">
         <v>368.48</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>393.17</v>
       </c>
     </row>
@@ -4814,21 +4949,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>0.18</v>
@@ -4843,7 +4978,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -4858,7 +4993,7 @@
     </row>
     <row r="4" spans="1:4" ht="30.75">
       <c r="A4" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -4873,7 +5008,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>11.09</v>
@@ -4896,86 +5031,86 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="28">
+        <v>151</v>
+      </c>
+      <c r="B2" s="27">
         <v>46724.6</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="C2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="28">
         <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="28">
+        <v>153</v>
+      </c>
+      <c r="B3" s="27">
         <v>1398.94</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>1492.67</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <f>(C3-B3)/B3*100</f>
         <v>6.7000729123479221</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="28">
+      <c r="A4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="27">
         <v>462.46</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>493.45</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <f t="shared" ref="D4:D5" si="0">(C4-B4)/B4*100</f>
         <v>6.7011200968732449</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="28">
+      <c r="A5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="27">
         <v>229.79</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>245.19</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <f t="shared" si="0"/>
         <v>6.7017711823839186</v>
       </c>
@@ -5001,729 +5136,729 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E671045-634E-44D5-91A1-8648E23803F8}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="36" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>150</v>
+      <c r="A1" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="A2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="27">
         <v>0</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>0</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75">
-      <c r="A3" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="A3" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="27">
         <v>0</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>0</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="A4" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45.75">
-      <c r="A5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="A5" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75">
-      <c r="A6" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="A6" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="27">
         <v>0.85</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>1.02</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <f>(D6-C6)/C6*100</f>
         <v>20.000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45.75">
-      <c r="A7" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="A7" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="27">
         <v>102.51</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>123.01</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <f>(D7-C7)/C7*100</f>
         <v>19.998048970832112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="A8" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="27">
         <v>0.6</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>0.7</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <f>(D8-C8)/C8*100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30.75">
-      <c r="A9" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="A9" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="27">
         <v>119.59</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>133.94</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <f>(D9-C9)/C9*100</f>
         <v>11.999331047746461</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="A10" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="27">
         <v>119.59</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>133.94</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <f>(D10-C10)/C10*100</f>
         <v>11.999331047746461</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30.75">
-      <c r="A11" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="A11" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="27">
         <v>0.24</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>0.26</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <f>(D11-C11)/C11*100</f>
         <v>8.333333333333341</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="A12" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="27">
         <v>0.5</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>0.54</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <f>(D12-C12)/C12*100</f>
         <v>8.0000000000000071</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30.75">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>10.5</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>11.24</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <f>(D13-C13)/C13*100</f>
         <v>7.0476190476190501</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45.75">
-      <c r="A14" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="A14" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="27">
         <v>1.42</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>1.52</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <f>(D14-C14)/C14*100</f>
         <v>7.0422535211267681</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45.75">
-      <c r="A15" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="A15" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="27">
         <v>7.53</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>8.06</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <f>(D15-C15)/C15*100</f>
         <v>7.0385126162018627</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="A16" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="27">
         <v>18.09</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>19.36</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <f>(D16-C16)/C16*100</f>
         <v>7.0204532891100024</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="A17" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="27">
         <v>13.13</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>14.05</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <f>(D17-C17)/C17*100</f>
         <v>7.0068545316070052</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="A18" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="27">
         <v>24.55</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>26.27</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <f>(D18-C18)/C18*100</f>
         <v>7.0061099796333961</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.75">
-      <c r="A19" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="28">
+      <c r="A19" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="27">
         <v>18.559999999999999</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>19.86</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <f>(D19-C19)/C19*100</f>
         <v>7.0043103448275907</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30.75">
-      <c r="A20" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="A20" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="27">
         <v>194.29</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>207.89</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <f>(D20-C20)/C20*100</f>
         <v>6.9998455916413587</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="28">
+      <c r="A21" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="27">
         <v>194.29</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>207.89</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <f>(D21-C21)/C21*100</f>
         <v>6.9998455916413587</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="28">
+      <c r="A22" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="27">
         <v>187.15</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>200.25</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <f>(D22-C22)/C22*100</f>
         <v>6.9997328346246297</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30.75">
-      <c r="A23" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="28">
+      <c r="A23" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="27">
         <v>163.63999999999999</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <v>175.09</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <f>(D23-C23)/C23*100</f>
         <v>6.9970667318504143</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="28">
+      <c r="A24" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="27">
         <v>32.49</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>34.76</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <f>(D24-C24)/C24*100</f>
         <v>6.9867651585102983</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30.75">
-      <c r="A25" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="28">
+      <c r="A25" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="27">
         <v>32.49</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <v>34.76</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <f>(D25-C25)/C25*100</f>
         <v>6.9867651585102983</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="28">
+      <c r="A26" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="27">
         <v>1.62</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <v>1.73</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <f>(D26-C26)/C26*100</f>
         <v>6.7901234567901145</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="28">
+      <c r="A27" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="27">
         <v>1.06</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <f>(D27-C27)/C27*100</f>
         <v>6.6037735849056451</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="28">
+      <c r="A28" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="27">
         <v>0.77</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <v>0.82</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <f>(D28-C28)/C28*100</f>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="28">
+      <c r="A29" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="27">
         <v>1976.26</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <v>2035.55</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <f>(D29-C29)/C29*100</f>
         <v>3.000111321384836</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="28">
+      <c r="A30" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="27">
         <v>4079.56</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="27">
         <v>4201.95</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <f>(D30-C30)/C30*100</f>
         <v>3.0000784398317433</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="28">
+      <c r="A31" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="27">
         <v>2532.04</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="27">
         <v>2608</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <f>(D31-C31)/C31*100</f>
         <v>2.9999526073837712</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="28">
+      <c r="A32" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="27">
         <v>370.01</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="27">
         <v>381.11</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <f>(D32-C32)/C32*100</f>
         <v>2.9999189211102464</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="28">
+      <c r="A33" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="27">
         <v>1563.12</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="27">
         <v>1610.01</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <f>(D33-C33)/C33*100</f>
         <v>2.9997696913864647</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="28">
+      <c r="A34" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="27">
         <v>231.11</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="27">
         <v>238.04</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <f>(D34-C34)/C34*100</f>
         <v>2.9985721085197428</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30.75">
-      <c r="A35" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="28">
+      <c r="A35" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="27">
         <v>0.5</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="27">
         <v>0.5</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <f>(D35-C35)/C35*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="28">
+      <c r="A36" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="27">
         <v>0.54</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="34">
         <v>0.5</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <f>(D36-C36)/C36*100</f>
         <v>-7.4074074074074137</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="28">
+      <c r="A37" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="27">
         <v>31.95</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="27">
         <v>34.1</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <f t="shared" ref="E37:E40" si="0">(D37-C37)/C37*100</f>
         <v>6.7292644757433555</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="28">
+      <c r="A38" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="27">
         <v>60.34</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="27">
         <v>64.56</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <f t="shared" si="0"/>
         <v>6.9937023533311216</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30.75">
-      <c r="A39" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="28">
+      <c r="A39" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="27">
         <v>60.34</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="27">
         <v>64.56</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <f t="shared" si="0"/>
         <v>6.9937023533311216</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="28">
+      <c r="A40" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="27">
         <v>513.42999999999995</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="27">
         <v>549.37</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="27">
         <f t="shared" si="0"/>
         <v>6.9999805231482499</v>
       </c>
@@ -5747,2199 +5882,2199 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>202</v>
+        <v>206</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="28">
+        <v>211</v>
+      </c>
+      <c r="C2" s="27">
         <v>0.96</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>1.02</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <f>(D2-C2)/C2*100</f>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="28">
+        <v>212</v>
+      </c>
+      <c r="C3" s="27">
         <v>0.96</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>1.02</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <f t="shared" ref="E3:E66" si="0">(D3-C3)/C3*100</f>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="28">
+        <v>213</v>
+      </c>
+      <c r="C4" s="27">
         <v>0.96</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>1.02</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="28">
+        <v>214</v>
+      </c>
+      <c r="C5" s="27">
         <v>0.96</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>1.02</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="28">
+        <v>215</v>
+      </c>
+      <c r="C6" s="27">
         <v>0.96</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>1.02</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="28">
+        <v>216</v>
+      </c>
+      <c r="C7" s="27">
         <v>0.96</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>1.02</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="28">
+        <v>217</v>
+      </c>
+      <c r="C8" s="27">
         <v>0.96</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>1.02</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="28">
+        <v>218</v>
+      </c>
+      <c r="C9" s="27">
         <v>0.96</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>1.02</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="28">
+        <v>219</v>
+      </c>
+      <c r="C10" s="27">
         <v>0.96</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>1.02</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="28">
+        <v>220</v>
+      </c>
+      <c r="C11" s="27">
         <v>0.96</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>1.02</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="28">
+        <v>221</v>
+      </c>
+      <c r="C12" s="27">
         <v>0.96</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>1.02</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="28">
+        <v>222</v>
+      </c>
+      <c r="C13" s="27">
         <v>0.96</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>1.02</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="28">
+        <v>223</v>
+      </c>
+      <c r="C14" s="27">
         <v>0.96</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>1.02</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="28">
+        <v>210</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="27">
         <v>0.96</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>1.02</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="28">
+        <v>225</v>
+      </c>
+      <c r="C16" s="27">
         <v>0.96</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>1.02</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="28">
+        <v>226</v>
+      </c>
+      <c r="C17" s="27">
         <v>1.53</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>1.63</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <f t="shared" si="0"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="28">
+        <v>227</v>
+      </c>
+      <c r="C18" s="27">
         <v>1.96</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>2.09</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>6.6326530612244845</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="28">
+        <v>228</v>
+      </c>
+      <c r="C19" s="27">
         <v>2.39</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>6.6945606694560542</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="28">
+        <v>229</v>
+      </c>
+      <c r="C20" s="27">
         <v>2.82</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>3.01</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>6.7375886524822679</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="28">
+        <v>230</v>
+      </c>
+      <c r="C21" s="27">
         <v>3.26</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>3.48</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>6.7484662576687189</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="28">
+        <v>231</v>
+      </c>
+      <c r="C22" s="27">
         <v>3.69</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>3.94</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>6.7750677506775077</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="28">
+        <v>232</v>
+      </c>
+      <c r="C23" s="27">
         <v>4.12</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <f t="shared" si="0"/>
         <v>6.7961165048543739</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B24" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>4.55</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>4.8499999999999996</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <f t="shared" si="0"/>
         <v>6.5934065934065895</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:B44" si="1">"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>4.99</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <v>5.32</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <f t="shared" si="0"/>
         <v>6.6132264529058125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>5.42</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <v>5.78</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <f t="shared" si="0"/>
         <v>6.6420664206642126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>5.85</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <v>6.24</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <f t="shared" si="0"/>
         <v>6.6666666666666767</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 31 и до 32 (включительно)</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <v>6.28</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <v>6.7</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <f t="shared" si="0"/>
         <v>6.6878980891719735</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 32 и до 33 (включительно)</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>6.71</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <v>7.16</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <f t="shared" si="0"/>
         <v>6.7064083457526111</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 33 и до 34 (включительно)</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>7.15</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="27">
         <v>7.63</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <f t="shared" si="0"/>
         <v>6.7132867132867062</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B31" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 34 и до 35 (включительно)</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>7.58</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="27">
         <v>8.09</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <f t="shared" si="0"/>
         <v>6.7282321899736122</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 35 и до 36 (включительно)</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>8.01</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="27">
         <v>8.5500000000000007</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <f t="shared" si="0"/>
         <v>6.7415730337078772</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 36 и до 37 (включительно)</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>8.44</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="27">
         <v>9.01</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <f t="shared" si="0"/>
         <v>6.7535545023696715</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 37 и до 38 (включительно)</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="27">
         <v>9.4600000000000009</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <f t="shared" si="0"/>
         <v>6.6516347237880691</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 38 и до 39 (включительно)</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="27">
         <v>9.31</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="27">
         <v>9.93</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <f t="shared" si="0"/>
         <v>6.6595059076261993</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 39 и до 40 (включительно)</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="27">
         <v>9.74</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="27">
         <v>10.39</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <f t="shared" si="0"/>
         <v>6.6735112936345002</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 40 и до 41 (включительно)</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="27">
         <v>10.17</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="27">
         <v>10.85</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <f t="shared" si="0"/>
         <v>6.6863323500491605</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 41 и до 42 (включительно)</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="27">
         <v>10.6</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="27">
         <v>11.31</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <f t="shared" si="0"/>
         <v>6.6981132075471779</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 42 и до 43 (включительно)</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="27">
         <v>11.04</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="27">
         <v>11.78</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <f t="shared" si="0"/>
         <v>6.7028985507246395</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 43 и до 44 (включительно)</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="27">
         <v>11.47</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="27">
         <v>12.24</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="27">
         <f t="shared" si="0"/>
         <v>6.7131647776809018</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B41" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 44 и до 45 (включительно)</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="27">
         <v>11.9</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="27">
         <v>12.7</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="27">
         <f t="shared" si="0"/>
         <v>6.7226890756302433</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 45 и до 46 (включительно)</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="27">
         <v>12.33</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="27">
         <v>13.16</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="27">
         <f t="shared" si="0"/>
         <v>6.7315490673154912</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 46 и до 47 (включительно)</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="27">
         <v>12.76</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="27">
         <v>13.61</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="27">
         <f t="shared" si="0"/>
         <v>6.6614420062695894</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 47 и до 48 (включительно)</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="27">
         <v>13.2</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="27">
         <v>14.08</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="27">
         <f t="shared" si="0"/>
         <v>6.6666666666666732</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B45" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 48 и до 49 (включительно)</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="27">
         <v>13.63</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="27">
         <v>14.54</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="27">
         <f t="shared" si="0"/>
         <v>6.6764490095377713</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" s="28">
+        <v>233</v>
+      </c>
+      <c r="C46" s="27">
         <v>14.06</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="27">
         <v>15</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="27">
         <f t="shared" si="0"/>
         <v>6.6856330014224712</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="28">
+      <c r="A47" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="27">
         <v>0.06</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="27">
         <v>0.06</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="28">
+      <c r="A48" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="27">
         <v>0.15</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="27">
         <f t="shared" si="0"/>
         <v>7.1428571428571281</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="12" t="s">
-        <v>227</v>
+      <c r="A49" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B49" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 7 и до 8 (включительно)</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="27">
         <v>0.2</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="27">
         <v>0.21</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="27">
         <f t="shared" si="0"/>
         <v>4.9999999999999902</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="12" t="s">
-        <v>227</v>
+      <c r="A50" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" ref="B50:B71" si="2">"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 8 и до 9 (включительно)</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="27">
         <v>0.3</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="27">
         <f t="shared" si="0"/>
         <v>7.1428571428571281</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="12" t="s">
-        <v>227</v>
+      <c r="A51" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 9 и до 10 (включительно)</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="27">
         <v>0.31</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="27">
         <v>0.33</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="27">
         <f t="shared" si="0"/>
         <v>6.4516129032258114</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="12" t="s">
-        <v>227</v>
+      <c r="A52" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 10 и до 11 (включительно)</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="27">
         <v>0.35</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="27">
         <v>0.37</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="27">
         <f t="shared" si="0"/>
         <v>5.7142857142857197</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="12" t="s">
-        <v>227</v>
+      <c r="A53" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 11 и до 12 (включительно)</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="27">
         <v>0.43</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D53" s="27">
         <v>0.46</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="27">
         <f t="shared" si="0"/>
         <v>6.9767441860465187</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="12" t="s">
-        <v>227</v>
+      <c r="A54" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 12 и до 13 (включительно)</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="27">
         <v>0.51</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="27">
         <v>0.54</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="27">
         <f t="shared" si="0"/>
         <v>5.8823529411764754</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="12" t="s">
-        <v>227</v>
+      <c r="A55" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 13 и до 14 (включительно)</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D55" s="27">
         <v>0.59</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="27">
         <f t="shared" si="0"/>
         <v>7.2727272727272583</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="12" t="s">
-        <v>227</v>
+      <c r="A56" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 14 и до 15 (включительно)</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="27">
         <v>0.6</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="27">
         <v>0.64</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="27">
         <f t="shared" si="0"/>
         <v>6.6666666666666732</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="12" t="s">
-        <v>227</v>
+      <c r="A57" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 15 и до 16 (включительно)</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="27">
         <v>0.64</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D57" s="27">
         <v>0.68</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="27">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="12" t="s">
-        <v>227</v>
+      <c r="A58" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 16 и до 17 (включительно)</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="27">
         <v>0.72</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D58" s="27">
         <v>0.77</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="27">
         <f t="shared" si="0"/>
         <v>6.94444444444445</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="12" t="s">
-        <v>227</v>
+      <c r="A59" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 17 и до 18 (включительно)</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="27">
         <v>0.77</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="27">
         <v>0.82</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="27">
         <f t="shared" si="0"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="12" t="s">
-        <v>227</v>
+      <c r="A60" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 18 и до 19 (включительно)</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="27">
         <v>0.84</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="27">
         <v>0.9</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="27">
         <f t="shared" si="0"/>
         <v>7.1428571428571495</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="12" t="s">
-        <v>227</v>
+      <c r="A61" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 19 и до 20 (включительно)</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="27">
         <v>0.92</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D61" s="27">
         <v>0.98</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="27">
         <f t="shared" si="0"/>
         <v>6.5217391304347752</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="12" t="s">
-        <v>227</v>
+      <c r="A62" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 20 и до 21 (включительно)</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="27">
         <v>0.95</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="27">
         <v>1.01</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="27">
         <f t="shared" si="0"/>
         <v>6.3157894736842159</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="12" t="s">
-        <v>227</v>
+      <c r="A63" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 21 и до 22 (включительно)</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="27">
         <v>1</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="27">
         <v>1.07</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="27">
         <f t="shared" si="0"/>
         <v>7.0000000000000062</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="12" t="s">
-        <v>227</v>
+      <c r="A64" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 22 и до 23 (включительно)</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="27">
         <v>1.06</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="27">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="27">
         <f t="shared" si="0"/>
         <v>6.6037735849056451</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="12" t="s">
-        <v>227</v>
+      <c r="A65" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 23 и до 24 (включительно)</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="27">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="27">
         <v>1.23</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="27">
         <f t="shared" si="0"/>
         <v>6.9565217391304417</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="12" t="s">
-        <v>227</v>
+      <c r="A66" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 24 и до 25 (включительно)</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="27">
         <v>1.19</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="27">
         <v>1.27</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="27">
         <f t="shared" si="0"/>
         <v>6.7226890756302584</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="12" t="s">
-        <v>227</v>
+      <c r="A67" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 25 и до 26 (включительно)</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="27">
         <v>1.25</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D67" s="27">
         <v>1.33</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="27">
         <f t="shared" ref="E67:E117" si="3">(D67-C67)/C67*100</f>
         <v>6.4000000000000057</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="12" t="s">
-        <v>227</v>
+      <c r="A68" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 26 и до 27 (включительно)</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="27">
         <v>1.31</v>
       </c>
-      <c r="D68" s="28">
+      <c r="D68" s="27">
         <v>1.4</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="27">
         <f t="shared" si="3"/>
         <v>6.8702290076335775</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="12" t="s">
-        <v>227</v>
+      <c r="A69" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B69" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C69" s="28">
+      <c r="C69" s="27">
         <v>1.34</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D69" s="27">
         <v>1.43</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="27">
         <f t="shared" si="3"/>
         <v>6.7164179104477499</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="12" t="s">
-        <v>227</v>
+      <c r="A70" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C70" s="28">
+      <c r="C70" s="27">
         <v>1.4</v>
       </c>
-      <c r="D70" s="28">
+      <c r="D70" s="27">
         <v>1.49</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70" s="27">
         <f t="shared" si="3"/>
         <v>6.428571428571435</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="12" t="s">
-        <v>227</v>
+      <c r="A71" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C71" s="28">
+      <c r="C71" s="27">
         <v>1.48</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D71" s="27">
         <v>1.58</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71" s="27">
         <f t="shared" si="3"/>
         <v>6.7567567567567623</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="12" t="s">
-        <v>227</v>
+      <c r="A72" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B72" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C72" s="28">
+      <c r="C72" s="27">
         <v>1.54</v>
       </c>
-      <c r="D72" s="28">
+      <c r="D72" s="27">
         <v>1.64</v>
       </c>
-      <c r="E72" s="28">
+      <c r="E72" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30.75">
       <c r="A73" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="28">
+        <v>235</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="27">
         <v>1.53</v>
       </c>
-      <c r="D73" s="28">
+      <c r="D73" s="27">
         <v>1.63</v>
       </c>
-      <c r="E73" s="28">
+      <c r="E73" s="27">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30.75">
       <c r="A74" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="28">
+        <v>235</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="27">
         <v>1.53</v>
       </c>
-      <c r="D74" s="28">
+      <c r="D74" s="27">
         <v>1.63</v>
       </c>
-      <c r="E74" s="28">
+      <c r="E74" s="27">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30.75">
       <c r="A75" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B75" t="str">
         <f>"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
         <v>Свыше 7 и до 8 (включительно)</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C75" s="27">
         <v>1.53</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D75" s="27">
         <v>1.63</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75" s="27">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30.75">
       <c r="A76" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" ref="B76:B116" si="4">"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
         <v>Свыше 8 и до 9 (включительно)</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C76" s="27">
         <v>1.53</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D76" s="27">
         <v>1.63</v>
       </c>
-      <c r="E76" s="28">
+      <c r="E76" s="27">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30.75">
       <c r="A77" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 9 и до 10 (включительно)</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="27">
         <v>1.53</v>
       </c>
-      <c r="D77" s="28">
+      <c r="D77" s="27">
         <v>1.63</v>
       </c>
-      <c r="E77" s="28">
+      <c r="E77" s="27">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30.75">
       <c r="A78" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 10 и до 11 (включительно)</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="27">
         <v>1.53</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D78" s="27">
         <v>1.63</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="27">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30.75">
       <c r="A79" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 11 и до 12 (включительно)</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C79" s="27">
         <v>1.53</v>
       </c>
-      <c r="D79" s="28">
+      <c r="D79" s="27">
         <v>1.63</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="27">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30.75">
       <c r="A80" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 12 и до 13 (включительно)</v>
       </c>
-      <c r="C80" s="28">
+      <c r="C80" s="27">
         <v>1.54</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D80" s="27">
         <v>1.64</v>
       </c>
-      <c r="E80" s="28">
+      <c r="E80" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30.75">
       <c r="A81" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 13 и до 14 (включительно)</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="27">
         <v>1.54</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D81" s="27">
         <v>1.64</v>
       </c>
-      <c r="E81" s="28">
+      <c r="E81" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30.75">
       <c r="A82" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 14 и до 15 (включительно)</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C82" s="27">
         <v>1.54</v>
       </c>
-      <c r="D82" s="28">
+      <c r="D82" s="27">
         <v>1.64</v>
       </c>
-      <c r="E82" s="28">
+      <c r="E82" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30.75">
       <c r="A83" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 15 и до 16 (включительно)</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="27">
         <v>1.54</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D83" s="27">
         <v>1.64</v>
       </c>
-      <c r="E83" s="28">
+      <c r="E83" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30.75">
       <c r="A84" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 16 и до 17 (включительно)</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C84" s="27">
         <v>1.54</v>
       </c>
-      <c r="D84" s="28">
+      <c r="D84" s="27">
         <v>1.64</v>
       </c>
-      <c r="E84" s="28">
+      <c r="E84" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30.75">
       <c r="A85" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 17 и до 18 (включительно)</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C85" s="27">
         <v>1.54</v>
       </c>
-      <c r="D85" s="28">
+      <c r="D85" s="27">
         <v>1.64</v>
       </c>
-      <c r="E85" s="28">
+      <c r="E85" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30.75">
       <c r="A86" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 18 и до 19 (включительно)</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C86" s="27">
         <v>1.54</v>
       </c>
-      <c r="D86" s="28">
+      <c r="D86" s="27">
         <v>1.64</v>
       </c>
-      <c r="E86" s="28">
+      <c r="E86" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30.75">
       <c r="A87" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 19 и до 20 (включительно)</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="27">
         <v>1.54</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D87" s="27">
         <v>1.64</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="27">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30.75">
       <c r="A88" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 20 и до 21 (включительно)</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="29">
         <v>1.88</v>
       </c>
-      <c r="D88" s="28">
+      <c r="D88" s="27">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="27">
         <f t="shared" si="3"/>
         <v>6.9148936170212716</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30.75">
       <c r="A89" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 21 и до 22 (включительно)</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="29">
         <v>2.52</v>
       </c>
-      <c r="D89" s="28">
+      <c r="D89" s="27">
         <v>2.69</v>
       </c>
-      <c r="E89" s="28">
+      <c r="E89" s="27">
         <f t="shared" si="3"/>
         <v>6.7460317460317425</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30.75">
       <c r="A90" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 22 и до 23 (включительно)</v>
       </c>
-      <c r="C90" s="30">
+      <c r="C90" s="29">
         <v>3.16</v>
       </c>
-      <c r="D90" s="28">
+      <c r="D90" s="27">
         <v>3.37</v>
       </c>
-      <c r="E90" s="28">
+      <c r="E90" s="27">
         <f t="shared" si="3"/>
         <v>6.6455696202531627</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30.75">
       <c r="A91" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 23 и до 24 (включительно)</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="29">
         <v>3.8</v>
       </c>
-      <c r="D91" s="30">
+      <c r="D91" s="29">
         <v>4.05</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91" s="27">
         <f t="shared" si="3"/>
         <v>6.5789473684210522</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30.75">
       <c r="A92" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 24 и до 25 (включительно)</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="29">
         <v>4.45</v>
       </c>
-      <c r="D92" s="34">
+      <c r="D92" s="33">
         <v>4.75</v>
       </c>
-      <c r="E92" s="28">
+      <c r="E92" s="27">
         <f t="shared" si="3"/>
         <v>6.7415730337078612</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30.75">
       <c r="A93" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 25 и до 26 (включительно)</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C93" s="27">
         <v>5.09</v>
       </c>
-      <c r="D93" s="28">
+      <c r="D93" s="27">
         <v>5.43</v>
       </c>
-      <c r="E93" s="28">
+      <c r="E93" s="27">
         <f t="shared" si="3"/>
         <v>6.6797642436149287</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30.75">
       <c r="A94" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 26 и до 27 (включительно)</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C94" s="27">
         <v>5.73</v>
       </c>
-      <c r="D94" s="28">
+      <c r="D94" s="27">
         <v>6.11</v>
       </c>
-      <c r="E94" s="28">
+      <c r="E94" s="27">
         <f t="shared" si="3"/>
         <v>6.631762652705059</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30.75">
       <c r="A95" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="27">
         <v>6.38</v>
       </c>
-      <c r="D95" s="28">
+      <c r="D95" s="27">
         <v>6.81</v>
       </c>
-      <c r="E95" s="28">
+      <c r="E95" s="27">
         <f t="shared" si="3"/>
         <v>6.7398119122257016</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30.75">
       <c r="A96" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="27">
         <v>7.02</v>
       </c>
-      <c r="D96" s="28">
+      <c r="D96" s="27">
         <v>7.49</v>
       </c>
-      <c r="E96" s="28">
+      <c r="E96" s="27">
         <f t="shared" si="3"/>
         <v>6.6951566951567054</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30.75">
       <c r="A97" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="27">
         <v>7.66</v>
       </c>
-      <c r="D97" s="28">
+      <c r="D97" s="27">
         <v>8.17</v>
       </c>
-      <c r="E97" s="28">
+      <c r="E97" s="27">
         <f t="shared" si="3"/>
         <v>6.6579634464751933</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30.75">
       <c r="A98" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="27">
         <v>8.31</v>
       </c>
-      <c r="D98" s="28">
+      <c r="D98" s="27">
         <v>8.8699999999999992</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="27">
         <f t="shared" si="3"/>
         <v>6.7388688327316331</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30.75">
       <c r="A99" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 31 и до 32 (включительно)</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="27">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D99" s="28">
+      <c r="D99" s="27">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E99" s="28">
+      <c r="E99" s="27">
         <f t="shared" si="3"/>
         <v>6.7039106145251566</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30.75">
       <c r="A100" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 32 и до 33 (включительно)</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C100" s="27">
         <v>9.59</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D100" s="27">
         <v>10.23</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="27">
         <f t="shared" si="3"/>
         <v>6.6736183524504753</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30.75">
       <c r="A101" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 33 и до 34 (включительно)</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C101" s="27">
         <v>10.23</v>
       </c>
-      <c r="D101" s="28">
+      <c r="D101" s="27">
         <v>10.92</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E101" s="27">
         <f t="shared" si="3"/>
         <v>6.7448680351906116</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30.75">
       <c r="A102" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 34 и до 35 (включительно)</v>
       </c>
-      <c r="C102" s="28">
+      <c r="C102" s="27">
         <v>10.88</v>
       </c>
-      <c r="D102" s="28">
+      <c r="D102" s="27">
         <v>11.61</v>
       </c>
-      <c r="E102" s="28">
+      <c r="E102" s="27">
         <f t="shared" si="3"/>
         <v>6.7095588235293988</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30.75">
       <c r="A103" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 35 и до 36 (включительно)</v>
       </c>
-      <c r="C103" s="28">
+      <c r="C103" s="27">
         <v>11.52</v>
       </c>
-      <c r="D103" s="28">
+      <c r="D103" s="27">
         <v>12.29</v>
       </c>
-      <c r="E103" s="28">
+      <c r="E103" s="27">
         <f t="shared" si="3"/>
         <v>6.684027777777775</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30.75">
       <c r="A104" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 36 и до 37 (включительно)</v>
       </c>
-      <c r="C104" s="28">
+      <c r="C104" s="27">
         <v>12.16</v>
       </c>
-      <c r="D104" s="28">
+      <c r="D104" s="27">
         <v>12.97</v>
       </c>
-      <c r="E104" s="28">
+      <c r="E104" s="27">
         <f t="shared" si="3"/>
         <v>6.6611842105263195</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30.75">
       <c r="A105" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 37 и до 38 (включительно)</v>
       </c>
-      <c r="C105" s="28">
+      <c r="C105" s="27">
         <v>12.81</v>
       </c>
-      <c r="D105" s="28">
+      <c r="D105" s="27">
         <v>13.67</v>
       </c>
-      <c r="E105" s="28">
+      <c r="E105" s="27">
         <f t="shared" si="3"/>
         <v>6.7135050741608069</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30.75">
       <c r="A106" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 38 и до 39 (включительно)</v>
       </c>
-      <c r="C106" s="28">
+      <c r="C106" s="27">
         <v>13.45</v>
       </c>
-      <c r="D106" s="28">
+      <c r="D106" s="27">
         <v>14.35</v>
       </c>
-      <c r="E106" s="28">
+      <c r="E106" s="27">
         <f t="shared" si="3"/>
         <v>6.6914498141263978</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30.75">
       <c r="A107" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 39 и до 40 (включительно)</v>
       </c>
-      <c r="C107" s="28">
+      <c r="C107" s="27">
         <v>14.09</v>
       </c>
-      <c r="D107" s="28">
+      <c r="D107" s="27">
         <v>15.03</v>
       </c>
-      <c r="E107" s="28">
+      <c r="E107" s="27">
         <f t="shared" si="3"/>
         <v>6.6713981547196557</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30.75">
       <c r="A108" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 40 и до 41 (включительно)</v>
       </c>
-      <c r="C108" s="28">
+      <c r="C108" s="27">
         <v>14.73</v>
       </c>
-      <c r="D108" s="28">
+      <c r="D108" s="27">
         <v>15.72</v>
       </c>
-      <c r="E108" s="28">
+      <c r="E108" s="27">
         <f t="shared" si="3"/>
         <v>6.7209775967413456</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30.75">
       <c r="A109" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 41 и до 42 (включительно)</v>
       </c>
-      <c r="C109" s="28">
+      <c r="C109" s="27">
         <v>15.38</v>
       </c>
-      <c r="D109" s="28">
+      <c r="D109" s="27">
         <v>16.41</v>
       </c>
-      <c r="E109" s="28">
+      <c r="E109" s="27">
         <f t="shared" si="3"/>
         <v>6.6970091027308154</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30.75">
       <c r="A110" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 42 и до 43 (включительно)</v>
       </c>
-      <c r="C110" s="28">
+      <c r="C110" s="27">
         <v>16.02</v>
       </c>
-      <c r="D110" s="28">
+      <c r="D110" s="27">
         <v>17.09</v>
       </c>
-      <c r="E110" s="28">
+      <c r="E110" s="27">
         <f t="shared" si="3"/>
         <v>6.6791510611735356</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30.75">
       <c r="A111" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 43 и до 44 (включительно)</v>
       </c>
-      <c r="C111" s="28">
+      <c r="C111" s="27">
         <v>16.66</v>
       </c>
-      <c r="D111" s="28">
+      <c r="D111" s="27">
         <v>17.78</v>
       </c>
-      <c r="E111" s="28">
+      <c r="E111" s="27">
         <f t="shared" si="3"/>
         <v>6.7226890756302575</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30.75">
       <c r="A112" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 44 и до 45 (включительно)</v>
       </c>
-      <c r="C112" s="28">
+      <c r="C112" s="27">
         <v>17.309999999999999</v>
       </c>
-      <c r="D112" s="28">
+      <c r="D112" s="27">
         <v>18.47</v>
       </c>
-      <c r="E112" s="28">
+      <c r="E112" s="27">
         <f t="shared" si="3"/>
         <v>6.7013287117273261</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30.75">
       <c r="A113" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 45 и до 46 (включительно)</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C113" s="27">
         <v>17.95</v>
       </c>
-      <c r="D113" s="28">
+      <c r="D113" s="27">
         <v>19.149999999999999</v>
       </c>
-      <c r="E113" s="28">
+      <c r="E113" s="27">
         <f t="shared" si="3"/>
         <v>6.6852367688022243</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30.75">
       <c r="A114" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 46 и до 47 (включительно)</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C114" s="27">
         <v>18.59</v>
       </c>
-      <c r="D114" s="28">
+      <c r="D114" s="27">
         <v>19.84</v>
       </c>
-      <c r="E114" s="28">
+      <c r="E114" s="27">
         <f t="shared" si="3"/>
         <v>6.7240451855836474</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="30.75">
       <c r="A115" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 47 и до 48 (включительно)</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C115" s="27">
         <v>19.239999999999998</v>
       </c>
-      <c r="D115" s="28">
+      <c r="D115" s="27">
         <v>20.53</v>
       </c>
-      <c r="E115" s="28">
+      <c r="E115" s="27">
         <f t="shared" si="3"/>
         <v>6.7047817047817189</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30.75">
       <c r="A116" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 48 и до 49 (включительно)</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C116" s="27">
         <v>19.88</v>
       </c>
-      <c r="D116" s="28">
+      <c r="D116" s="27">
         <v>21.21</v>
       </c>
-      <c r="E116" s="28">
+      <c r="E116" s="27">
         <f t="shared" si="3"/>
         <v>6.6901408450704318</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30.75">
       <c r="A117" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C117" s="28">
+        <v>235</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="27">
         <v>20.52</v>
       </c>
-      <c r="D117" s="28">
+      <c r="D117" s="27">
         <v>21.89</v>
       </c>
-      <c r="E117" s="28">
+      <c r="E117" s="27">
         <f t="shared" si="3"/>
         <v>6.6764132553606288</v>
       </c>

--- a/Налоги_таблицы.xlsx
+++ b/Налоги_таблицы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1850" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1B8A58D-9EAA-4DEC-80D0-AE6F231221EE}"/>
+  <xr:revisionPtr revIDLastSave="1852" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3312FD25-279C-4A42-916C-CA160DE1EEBC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Транспортный" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="361">
   <si>
     <t>Тип транспортных средств </t>
   </si>
@@ -363,7 +363,7 @@
     <t>Ставка_2025</t>
   </si>
   <si>
-    <t>Ставка _2026</t>
+    <t>Ставка_2026</t>
   </si>
   <si>
     <t>Рост_налога</t>
@@ -381,9 +381,6 @@
     <t>опасные отходы производства IV класса</t>
   </si>
   <si>
-    <t>110.97</t>
-  </si>
-  <si>
     <t>Хранение</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
   </si>
   <si>
     <t>Средняя цена реализации 1000 килограммов нефти в  долларах США</t>
-  </si>
-  <si>
-    <t>Ставка_2026</t>
   </si>
   <si>
     <t xml:space="preserve">До 578,4 </t>
@@ -1925,27 +1919,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="30">
         <v>35.89</v>
@@ -1960,10 +1954,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
         <v>239</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
       </c>
       <c r="C3" s="26">
         <v>32.340000000000003</v>
@@ -1978,10 +1972,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="30">
         <v>32.159999999999997</v>
@@ -1996,10 +1990,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C5" s="30">
         <v>22.31</v>
@@ -2014,10 +2008,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" s="30">
         <v>24.29</v>
@@ -2032,10 +2026,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" s="30">
         <v>30.2</v>
@@ -2050,10 +2044,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="30">
         <v>23.3</v>
@@ -2068,10 +2062,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" s="30">
         <v>25.64</v>
@@ -2086,10 +2080,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C10" s="26">
         <v>32.159999999999997</v>
@@ -2104,10 +2098,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" s="30">
         <v>25.05</v>
@@ -2122,10 +2116,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C12" s="30">
         <v>16.829999999999998</v>
@@ -2140,10 +2134,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="30">
         <v>35.08</v>
@@ -2158,10 +2152,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C14" s="30">
         <v>18.18</v>
@@ -2176,10 +2170,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="30">
         <v>22.72</v>
@@ -2194,10 +2188,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16" s="30">
         <v>28.81</v>
@@ -2212,10 +2206,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C17" s="26">
         <v>24.29</v>
@@ -2230,10 +2224,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C18" s="30">
         <v>17.41</v>
@@ -2248,10 +2242,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
         <v>256</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
       </c>
       <c r="C19" s="30">
         <v>8.9499999999999993</v>
@@ -2266,10 +2260,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C20" s="30">
         <v>10.32</v>
@@ -2284,10 +2278,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C21" s="30">
         <v>12.29</v>
@@ -2302,10 +2296,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C22" s="30">
         <v>18.18</v>
@@ -2320,10 +2314,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C23" s="30">
         <v>4.5599999999999996</v>
@@ -2338,10 +2332,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C24" s="30">
         <v>17.989999999999998</v>
@@ -2356,10 +2350,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C25" s="30">
         <v>25.27</v>
@@ -2374,10 +2368,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C26" s="30">
         <v>9.94</v>
@@ -2392,10 +2386,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" s="30">
         <v>12.5</v>
@@ -2410,10 +2404,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="30">
         <v>14.08</v>
@@ -2428,10 +2422,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="30">
         <v>26.26</v>
@@ -2446,10 +2440,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C30" s="30">
         <v>5.64</v>
@@ -2464,10 +2458,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C31" s="30">
         <v>14.25</v>
@@ -2482,10 +2476,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C32" s="30">
         <v>4.5599999999999996</v>
@@ -2500,10 +2494,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C33" s="30">
         <v>14.25</v>
@@ -2518,10 +2512,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C34" s="30">
         <v>23.88</v>
@@ -2536,10 +2530,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C35" s="30">
         <v>7.16</v>
@@ -2554,10 +2548,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C36" s="30">
         <v>15.06</v>
@@ -2572,10 +2566,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37" s="26">
         <v>18.18</v>
@@ -2590,10 +2584,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C38" s="26">
         <v>10.55</v>
@@ -2608,10 +2602,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C39" s="30">
         <v>19.91</v>
@@ -2626,10 +2620,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="C40" s="30">
         <v>28.41</v>
@@ -2644,10 +2638,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C41" s="30">
         <v>28.41</v>
@@ -2662,10 +2656,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C42" s="30">
         <v>21.74</v>
@@ -2680,10 +2674,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C43" s="30">
         <v>30.78</v>
@@ -2698,10 +2692,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C44" s="30">
         <v>14.86</v>
@@ -2716,10 +2710,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C45" s="30">
         <v>21.55</v>
@@ -2734,10 +2728,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C46" s="30">
         <v>31.93</v>
@@ -2752,10 +2746,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C47" s="30">
         <v>18.39</v>
@@ -2770,10 +2764,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C48" s="30">
         <v>35.450000000000003</v>
@@ -2788,10 +2782,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C49" s="30">
         <v>17.41</v>
@@ -2806,10 +2800,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C50" s="30">
         <v>15.24</v>
@@ -2824,10 +2818,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C51" s="30">
         <v>18.97</v>
@@ -2842,10 +2836,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C52" s="30">
         <v>18.97</v>
@@ -2860,10 +2854,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C53" s="30">
         <v>24.66</v>
@@ -2878,10 +2872,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C54" s="30">
         <v>14.25</v>
@@ -2896,10 +2890,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C55" s="30">
         <v>22.9</v>
@@ -2914,10 +2908,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C56" s="30">
         <v>31.38</v>
@@ -2932,10 +2926,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C57" s="30">
         <v>18.18</v>
@@ -2950,10 +2944,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C58" s="30">
         <v>31.38</v>
@@ -2968,10 +2962,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C59" s="30">
         <v>26.07</v>
@@ -2986,10 +2980,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C60" s="30">
         <v>39.99</v>
@@ -3004,10 +2998,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="C61" s="30">
         <v>41.19</v>
@@ -3022,10 +3016,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C62" s="30">
         <v>31.54</v>
@@ -3040,10 +3034,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C63" s="30">
         <v>38.43</v>
@@ -3058,10 +3052,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C64" s="30">
         <v>25.05</v>
@@ -3076,10 +3070,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C65" s="30">
         <v>39.99</v>
@@ -3094,10 +3088,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C66" s="30">
         <v>23.53</v>
@@ -3112,10 +3106,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C67" s="30">
         <v>41.4</v>
@@ -3130,10 +3124,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C68" s="30">
         <v>29.79</v>
@@ -3148,10 +3142,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C69" s="30">
         <v>35.68</v>
@@ -3166,10 +3160,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C70" s="30">
         <v>30.56</v>
@@ -3184,10 +3178,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C71" s="30">
         <v>22.31</v>
@@ -3202,10 +3196,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C72" s="30">
         <v>28.81</v>
@@ -3220,10 +3214,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C73" s="30">
         <v>30.56</v>
@@ -3238,10 +3232,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C74" s="30">
         <v>34.11</v>
@@ -3256,10 +3250,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C75" s="30">
         <v>23.3</v>
@@ -3274,10 +3268,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C76" s="30">
         <v>36.270000000000003</v>
@@ -3292,10 +3286,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C77" s="30">
         <v>18.97</v>
@@ -3310,10 +3304,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
+        <v>316</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="C78" s="30">
         <v>27.82</v>
@@ -3328,10 +3322,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C79" s="30">
         <v>23.53</v>
@@ -3346,10 +3340,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C80" s="30">
         <v>25.64</v>
@@ -3364,10 +3358,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C81" s="30">
         <v>33.72</v>
@@ -3382,10 +3376,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C82" s="30">
         <v>46.68</v>
@@ -3400,10 +3394,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C83" s="30">
         <v>40.799999999999997</v>
@@ -3418,10 +3412,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C84" s="30">
         <v>17.21</v>
@@ -3436,10 +3430,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C85" s="30">
         <v>17.010000000000002</v>
@@ -3454,10 +3448,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C86" s="30">
         <v>25.64</v>
@@ -3472,10 +3466,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C87" s="30">
         <v>35.08</v>
@@ -3490,10 +3484,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C88" s="30">
         <v>31.93</v>
@@ -3508,10 +3502,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C89" s="30">
         <v>12.5</v>
@@ -3526,10 +3520,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C90" s="30">
         <v>50.62</v>
@@ -3544,10 +3538,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C91" s="30">
         <v>25.49</v>
@@ -3562,10 +3556,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C92" s="30">
         <v>41.55</v>
@@ -3580,10 +3574,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C93" s="30">
         <v>28.81</v>
@@ -3598,10 +3592,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C94" s="30">
         <v>30.56</v>
@@ -3616,10 +3610,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C95" s="30">
         <v>19.97</v>
@@ -3634,10 +3628,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C96" s="30">
         <v>28.02</v>
@@ -3652,10 +3646,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C97" s="30">
         <v>28.41</v>
@@ -3670,10 +3664,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C98" s="30">
         <v>27.45</v>
@@ -3688,10 +3682,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C99" s="30">
         <v>31.93</v>
@@ -3706,10 +3700,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>343</v>
       </c>
       <c r="C100" s="30">
         <v>35.299999999999997</v>
@@ -3724,10 +3718,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C101" s="30">
         <v>26.83</v>
@@ -3742,10 +3736,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C102" s="30">
         <v>24.07</v>
@@ -3760,10 +3754,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C103" s="30">
         <v>29.58</v>
@@ -3778,10 +3772,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C104" s="30">
         <v>23.68</v>
@@ -3796,10 +3790,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C105" s="30">
         <v>37.64</v>
@@ -3814,10 +3808,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C106" s="30">
         <v>21.33</v>
@@ -3832,10 +3826,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C107" s="30">
         <v>24.49</v>
@@ -3850,10 +3844,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C108" s="30">
         <v>14.46</v>
@@ -3868,10 +3862,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C109" s="30">
         <v>17.41</v>
@@ -3886,10 +3880,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C110" s="30">
         <v>28.02</v>
@@ -3904,10 +3898,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C111" s="30">
         <v>36.270000000000003</v>
@@ -3922,10 +3916,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C112" s="30">
         <v>34.299999999999997</v>
@@ -3940,10 +3934,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C113" s="30">
         <v>23.3</v>
@@ -3958,10 +3952,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C114" s="30">
         <v>29.42</v>
@@ -3976,10 +3970,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C115" s="30">
         <v>20.14</v>
@@ -3994,10 +3988,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C116" s="30">
         <v>20.94</v>
@@ -4012,10 +4006,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C117" s="31">
         <v>25.49</v>
@@ -4030,10 +4024,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C118" s="31">
         <v>28.22</v>
@@ -4048,10 +4042,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C119" s="31">
         <v>35.450000000000003</v>
@@ -4456,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4ABDF-7288-45DE-82DA-8D9CB95A4138}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4535,8 +4529,8 @@
       <c r="D4" s="26">
         <v>104.29</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>113</v>
+      <c r="E4" s="9">
+        <v>110.97</v>
       </c>
       <c r="F4" s="27">
         <v>6.4</v>
@@ -4544,10 +4538,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>115</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="26">
@@ -4562,10 +4556,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="26">
@@ -4580,10 +4574,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="26">
@@ -4598,10 +4592,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="26">
@@ -4616,13 +4610,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="D9">
         <v>3.63</v>
@@ -4636,13 +4630,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10">
         <v>0.26</v>
@@ -4656,13 +4650,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="D11">
         <v>1.1000000000000001</v>
@@ -4676,13 +4670,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="26">
         <v>0.2</v>
@@ -4696,13 +4690,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="26">
         <v>8.91</v>
@@ -4736,18 +4730,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30.75">
       <c r="A1" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="23">
         <v>32.03</v>
@@ -4758,7 +4752,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="23">
         <v>39.869999999999997</v>
@@ -4769,7 +4763,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="23">
         <v>67.989999999999995</v>
@@ -4780,7 +4774,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="23">
         <v>94.7</v>
@@ -4791,7 +4785,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="23">
         <v>122.81</v>
@@ -4802,7 +4796,7 @@
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="23">
         <v>149.16</v>
@@ -4820,7 +4814,7 @@
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="23">
         <v>177.66</v>
@@ -4838,10 +4832,10 @@
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="25">
         <v>234.85</v>
@@ -4856,10 +4850,10 @@
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="25">
         <v>248.06</v>
@@ -4874,7 +4868,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="23">
         <v>258.81</v>
@@ -4885,7 +4879,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" s="23">
         <v>285.17</v>
@@ -4896,7 +4890,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="23">
         <v>313.64</v>
@@ -4907,7 +4901,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="23">
         <v>341.78</v>
@@ -4918,7 +4912,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B15" s="23">
         <v>368.48</v>
@@ -4936,7 +4930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB984131-EFDE-469B-9D68-81E47D3A1F3E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4949,21 +4943,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>0.18</v>
@@ -4978,7 +4972,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -4993,7 +4987,7 @@
     </row>
     <row r="4" spans="1:4" ht="30.75">
       <c r="A4" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -5008,7 +5002,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>11.09</v>
@@ -5044,27 +5038,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="27">
         <v>46724.6</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="28">
         <v>6.7</v>
@@ -5072,7 +5066,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="27">
         <v>1398.94</v>
@@ -5087,7 +5081,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="27">
         <v>462.46</v>
@@ -5102,7 +5096,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="27">
         <v>229.79</v>
@@ -5150,16 +5144,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>108</v>
@@ -5167,10 +5161,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="27">
         <v>0</v>
@@ -5184,10 +5178,10 @@
     </row>
     <row r="3" spans="1:5" ht="30.75">
       <c r="A3" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="27">
         <v>0</v>
@@ -5201,10 +5195,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="27">
         <v>0</v>
@@ -5218,10 +5212,10 @@
     </row>
     <row r="5" spans="1:5" ht="45.75">
       <c r="A5" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="27">
         <v>0</v>
@@ -5235,10 +5229,10 @@
     </row>
     <row r="6" spans="1:5" ht="30.75">
       <c r="A6" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="27">
         <v>0.85</v>
@@ -5253,10 +5247,10 @@
     </row>
     <row r="7" spans="1:5" ht="45.75">
       <c r="A7" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="27">
         <v>102.51</v>
@@ -5271,10 +5265,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="27">
         <v>0.6</v>
@@ -5289,10 +5283,10 @@
     </row>
     <row r="9" spans="1:5" ht="30.75">
       <c r="A9" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="27">
         <v>119.59</v>
@@ -5307,10 +5301,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="27">
         <v>119.59</v>
@@ -5325,10 +5319,10 @@
     </row>
     <row r="11" spans="1:5" ht="30.75">
       <c r="A11" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="27">
         <v>0.24</v>
@@ -5343,10 +5337,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="27">
         <v>0.5</v>
@@ -5361,10 +5355,10 @@
     </row>
     <row r="13" spans="1:5" ht="30.75">
       <c r="A13" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="27">
         <v>10.5</v>
@@ -5379,10 +5373,10 @@
     </row>
     <row r="14" spans="1:5" ht="45.75">
       <c r="A14" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="27">
         <v>1.42</v>
@@ -5397,10 +5391,10 @@
     </row>
     <row r="15" spans="1:5" ht="45.75">
       <c r="A15" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" s="27">
         <v>7.53</v>
@@ -5415,10 +5409,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="27">
         <v>18.09</v>
@@ -5433,10 +5427,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="27">
         <v>13.13</v>
@@ -5451,10 +5445,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="27">
         <v>24.55</v>
@@ -5469,10 +5463,10 @@
     </row>
     <row r="19" spans="1:5" ht="30.75">
       <c r="A19" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" s="27">
         <v>18.559999999999999</v>
@@ -5487,10 +5481,10 @@
     </row>
     <row r="20" spans="1:5" ht="30.75">
       <c r="A20" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" s="27">
         <v>194.29</v>
@@ -5505,10 +5499,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="27">
         <v>194.29</v>
@@ -5523,10 +5517,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" s="27">
         <v>187.15</v>
@@ -5541,10 +5535,10 @@
     </row>
     <row r="23" spans="1:5" ht="30.75">
       <c r="A23" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="27">
         <v>163.63999999999999</v>
@@ -5559,10 +5553,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="27">
         <v>32.49</v>
@@ -5577,10 +5571,10 @@
     </row>
     <row r="25" spans="1:5" ht="30.75">
       <c r="A25" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25" s="27">
         <v>32.49</v>
@@ -5595,10 +5589,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" s="27">
         <v>1.62</v>
@@ -5613,10 +5607,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27" s="27">
         <v>1.06</v>
@@ -5631,10 +5625,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C28" s="27">
         <v>0.77</v>
@@ -5649,10 +5643,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" s="27">
         <v>1976.26</v>
@@ -5667,10 +5661,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C30" s="27">
         <v>4079.56</v>
@@ -5685,10 +5679,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C31" s="27">
         <v>2532.04</v>
@@ -5703,10 +5697,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32" s="27">
         <v>370.01</v>
@@ -5721,10 +5715,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C33" s="27">
         <v>1563.12</v>
@@ -5739,10 +5733,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C34" s="27">
         <v>231.11</v>
@@ -5757,10 +5751,10 @@
     </row>
     <row r="35" spans="1:5" ht="30.75">
       <c r="A35" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" s="27">
         <v>0.5</v>
@@ -5775,10 +5769,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" s="27">
         <v>0.54</v>
@@ -5793,10 +5787,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C37" s="27">
         <v>31.95</v>
@@ -5811,10 +5805,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C38" s="27">
         <v>60.34</v>
@@ -5829,10 +5823,10 @@
     </row>
     <row r="39" spans="1:5" ht="30.75">
       <c r="A39" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C39" s="27">
         <v>60.34</v>
@@ -5847,10 +5841,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C40" s="27">
         <v>513.42999999999995</v>
@@ -5888,27 +5882,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75">
       <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>207</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="27">
         <v>0.96</v>
@@ -5923,10 +5917,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
         <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
       </c>
       <c r="C3" s="27">
         <v>0.96</v>
@@ -5941,10 +5935,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" s="27">
         <v>0.96</v>
@@ -5959,10 +5953,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C5" s="27">
         <v>0.96</v>
@@ -5977,10 +5971,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" s="27">
         <v>0.96</v>
@@ -5995,10 +5989,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="27">
         <v>0.96</v>
@@ -6013,10 +6007,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="27">
         <v>0.96</v>
@@ -6031,10 +6025,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="27">
         <v>0.96</v>
@@ -6049,10 +6043,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C10" s="27">
         <v>0.96</v>
@@ -6067,10 +6061,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" s="27">
         <v>0.96</v>
@@ -6085,10 +6079,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" s="27">
         <v>0.96</v>
@@ -6103,10 +6097,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="27">
         <v>0.96</v>
@@ -6121,10 +6115,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" s="27">
         <v>0.96</v>
@@ -6139,10 +6133,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C15" s="27">
         <v>0.96</v>
@@ -6157,10 +6151,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" s="27">
         <v>0.96</v>
@@ -6175,10 +6169,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" s="27">
         <v>1.53</v>
@@ -6193,10 +6187,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" s="27">
         <v>1.96</v>
@@ -6211,10 +6205,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="27">
         <v>2.39</v>
@@ -6229,10 +6223,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C20" s="27">
         <v>2.82</v>
@@ -6247,10 +6241,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C21" s="27">
         <v>3.26</v>
@@ -6265,10 +6259,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C22" s="27">
         <v>3.69</v>
@@ -6283,10 +6277,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="27">
         <v>4.12</v>
@@ -6301,7 +6295,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6320,7 +6314,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:B44" si="1">"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6339,7 +6333,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
@@ -6358,7 +6352,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
@@ -6377,7 +6371,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
@@ -6396,7 +6390,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
@@ -6415,7 +6409,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
@@ -6434,7 +6428,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B31" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6453,7 +6447,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
@@ -6472,7 +6466,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
@@ -6491,7 +6485,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
@@ -6510,7 +6504,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
@@ -6529,7 +6523,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
@@ -6548,7 +6542,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
@@ -6567,7 +6561,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
@@ -6586,7 +6580,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
@@ -6605,7 +6599,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
@@ -6624,7 +6618,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B41" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6643,7 +6637,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
@@ -6662,7 +6656,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
@@ -6681,7 +6675,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
@@ -6700,7 +6694,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B45" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6719,10 +6713,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C46" s="27">
         <v>14.06</v>
@@ -6737,10 +6731,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C47" s="27">
         <v>0.06</v>
@@ -6755,10 +6749,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C48" s="27">
         <v>0.14000000000000001</v>
@@ -6773,7 +6767,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B49" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
@@ -6792,7 +6786,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" ref="B50:B71" si="2">"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
@@ -6811,7 +6805,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="2"/>
@@ -6830,7 +6824,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="2"/>
@@ -6849,7 +6843,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="2"/>
@@ -6868,7 +6862,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="2"/>
@@ -6887,7 +6881,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="2"/>
@@ -6906,7 +6900,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="2"/>
@@ -6925,7 +6919,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="2"/>
@@ -6944,7 +6938,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="2"/>
@@ -6963,7 +6957,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="2"/>
@@ -6982,7 +6976,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="2"/>
@@ -7001,7 +6995,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="2"/>
@@ -7020,7 +7014,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="2"/>
@@ -7039,7 +7033,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="2"/>
@@ -7058,7 +7052,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="2"/>
@@ -7077,7 +7071,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="2"/>
@@ -7096,7 +7090,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="2"/>
@@ -7115,7 +7109,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
@@ -7134,7 +7128,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
@@ -7153,7 +7147,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B69" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
@@ -7172,7 +7166,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
@@ -7191,7 +7185,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
@@ -7210,7 +7204,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B72" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
@@ -7229,10 +7223,10 @@
     </row>
     <row r="73" spans="1:5" ht="30.75">
       <c r="A73" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C73" s="27">
         <v>1.53</v>
@@ -7247,10 +7241,10 @@
     </row>
     <row r="74" spans="1:5" ht="30.75">
       <c r="A74" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C74" s="27">
         <v>1.53</v>
@@ -7265,7 +7259,7 @@
     </row>
     <row r="75" spans="1:5" ht="30.75">
       <c r="A75" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B75" t="str">
         <f>"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
@@ -7284,7 +7278,7 @@
     </row>
     <row r="76" spans="1:5" ht="30.75">
       <c r="A76" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" ref="B76:B116" si="4">"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
@@ -7303,7 +7297,7 @@
     </row>
     <row r="77" spans="1:5" ht="30.75">
       <c r="A77" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="4"/>
@@ -7322,7 +7316,7 @@
     </row>
     <row r="78" spans="1:5" ht="30.75">
       <c r="A78" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="4"/>
@@ -7341,7 +7335,7 @@
     </row>
     <row r="79" spans="1:5" ht="30.75">
       <c r="A79" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="4"/>
@@ -7360,7 +7354,7 @@
     </row>
     <row r="80" spans="1:5" ht="30.75">
       <c r="A80" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="4"/>
@@ -7379,7 +7373,7 @@
     </row>
     <row r="81" spans="1:5" ht="30.75">
       <c r="A81" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="4"/>
@@ -7398,7 +7392,7 @@
     </row>
     <row r="82" spans="1:5" ht="30.75">
       <c r="A82" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="4"/>
@@ -7417,7 +7411,7 @@
     </row>
     <row r="83" spans="1:5" ht="30.75">
       <c r="A83" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="4"/>
@@ -7436,7 +7430,7 @@
     </row>
     <row r="84" spans="1:5" ht="30.75">
       <c r="A84" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="4"/>
@@ -7455,7 +7449,7 @@
     </row>
     <row r="85" spans="1:5" ht="30.75">
       <c r="A85" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="4"/>
@@ -7474,7 +7468,7 @@
     </row>
     <row r="86" spans="1:5" ht="30.75">
       <c r="A86" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="4"/>
@@ -7493,7 +7487,7 @@
     </row>
     <row r="87" spans="1:5" ht="30.75">
       <c r="A87" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="4"/>
@@ -7512,7 +7506,7 @@
     </row>
     <row r="88" spans="1:5" ht="30.75">
       <c r="A88" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
@@ -7531,7 +7525,7 @@
     </row>
     <row r="89" spans="1:5" ht="30.75">
       <c r="A89" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
@@ -7550,7 +7544,7 @@
     </row>
     <row r="90" spans="1:5" ht="30.75">
       <c r="A90" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
@@ -7569,7 +7563,7 @@
     </row>
     <row r="91" spans="1:5" ht="30.75">
       <c r="A91" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
@@ -7588,7 +7582,7 @@
     </row>
     <row r="92" spans="1:5" ht="30.75">
       <c r="A92" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
@@ -7607,7 +7601,7 @@
     </row>
     <row r="93" spans="1:5" ht="30.75">
       <c r="A93" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
@@ -7626,7 +7620,7 @@
     </row>
     <row r="94" spans="1:5" ht="30.75">
       <c r="A94" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
@@ -7645,7 +7639,7 @@
     </row>
     <row r="95" spans="1:5" ht="30.75">
       <c r="A95" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
@@ -7664,7 +7658,7 @@
     </row>
     <row r="96" spans="1:5" ht="30.75">
       <c r="A96" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
@@ -7683,7 +7677,7 @@
     </row>
     <row r="97" spans="1:5" ht="30.75">
       <c r="A97" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="4"/>
@@ -7702,7 +7696,7 @@
     </row>
     <row r="98" spans="1:5" ht="30.75">
       <c r="A98" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="4"/>
@@ -7721,7 +7715,7 @@
     </row>
     <row r="99" spans="1:5" ht="30.75">
       <c r="A99" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="4"/>
@@ -7740,7 +7734,7 @@
     </row>
     <row r="100" spans="1:5" ht="30.75">
       <c r="A100" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="4"/>
@@ -7759,7 +7753,7 @@
     </row>
     <row r="101" spans="1:5" ht="30.75">
       <c r="A101" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="4"/>
@@ -7778,7 +7772,7 @@
     </row>
     <row r="102" spans="1:5" ht="30.75">
       <c r="A102" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="4"/>
@@ -7797,7 +7791,7 @@
     </row>
     <row r="103" spans="1:5" ht="30.75">
       <c r="A103" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="4"/>
@@ -7816,7 +7810,7 @@
     </row>
     <row r="104" spans="1:5" ht="30.75">
       <c r="A104" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="4"/>
@@ -7835,7 +7829,7 @@
     </row>
     <row r="105" spans="1:5" ht="30.75">
       <c r="A105" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="4"/>
@@ -7854,7 +7848,7 @@
     </row>
     <row r="106" spans="1:5" ht="30.75">
       <c r="A106" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="4"/>
@@ -7873,7 +7867,7 @@
     </row>
     <row r="107" spans="1:5" ht="30.75">
       <c r="A107" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="4"/>
@@ -7892,7 +7886,7 @@
     </row>
     <row r="108" spans="1:5" ht="30.75">
       <c r="A108" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="4"/>
@@ -7911,7 +7905,7 @@
     </row>
     <row r="109" spans="1:5" ht="30.75">
       <c r="A109" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="4"/>
@@ -7930,7 +7924,7 @@
     </row>
     <row r="110" spans="1:5" ht="30.75">
       <c r="A110" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="4"/>
@@ -7949,7 +7943,7 @@
     </row>
     <row r="111" spans="1:5" ht="30.75">
       <c r="A111" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="4"/>
@@ -7968,7 +7962,7 @@
     </row>
     <row r="112" spans="1:5" ht="30.75">
       <c r="A112" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="4"/>
@@ -7987,7 +7981,7 @@
     </row>
     <row r="113" spans="1:5" ht="30.75">
       <c r="A113" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="4"/>
@@ -8006,7 +8000,7 @@
     </row>
     <row r="114" spans="1:5" ht="30.75">
       <c r="A114" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="4"/>
@@ -8025,7 +8019,7 @@
     </row>
     <row r="115" spans="1:5" ht="30.75">
       <c r="A115" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="4"/>
@@ -8044,7 +8038,7 @@
     </row>
     <row r="116" spans="1:5" ht="30.75">
       <c r="A116" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="4"/>
@@ -8063,10 +8057,10 @@
     </row>
     <row r="117" spans="1:5" ht="30.75">
       <c r="A117" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C117" s="27">
         <v>20.52</v>

--- a/Налоги_таблицы.xlsx
+++ b/Налоги_таблицы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1852" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3312FD25-279C-4A42-916C-CA160DE1EEBC}"/>
+  <xr:revisionPtr revIDLastSave="1855" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A06AE9DF-ACF5-4B30-9EF0-18E11581C633}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Транспортный" sheetId="1" r:id="rId1"/>
@@ -4451,7 +4451,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4930,28 +4930,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB984131-EFDE-469B-9D68-81E47D3A1F3E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4959,13 +4959,13 @@
       <c r="A2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="27">
         <v>0.18</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="27">
         <v>0.19</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="27">
         <f>(C2 - B2) / B2 * 100</f>
         <v>5.5555555555555607</v>
       </c>
@@ -4974,13 +4974,13 @@
       <c r="A3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="27">
         <v>0.2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="27">
         <v>0.21</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="27">
         <f t="shared" ref="D3:D5" si="0">(C3 - B3) / B3 * 100</f>
         <v>4.9999999999999902</v>
       </c>
@@ -4989,13 +4989,13 @@
       <c r="A4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="27">
         <v>0.2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="27">
         <v>0.21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="27">
         <f t="shared" si="0"/>
         <v>4.9999999999999902</v>
       </c>
@@ -5004,13 +5004,13 @@
       <c r="A5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="27">
         <v>11.09</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="27">
         <v>11.83</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="27">
         <f t="shared" si="0"/>
         <v>6.6726780883679009</v>
       </c>
@@ -5024,8 +5024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3266E8AB-01CA-44B5-BD8D-A5D9658FE3AC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Налоги_таблицы.xlsx
+++ b/Налоги_таблицы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1855" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A06AE9DF-ACF5-4B30-9EF0-18E11581C633}"/>
+  <xr:revisionPtr revIDLastSave="1856" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B325C705-7B0D-4134-A77E-ACB4B7E10B30}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Транспортный" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>Способ обращения с отходами</t>
   </si>
   <si>
-    <t xml:space="preserve">Категории отходов </t>
+    <t>Категории отходов</t>
   </si>
   <si>
     <t xml:space="preserve"> Конкретный вид отхода</t>
@@ -4450,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4ABDF-7288-45DE-82DA-8D9CB95A4138}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4931,7 +4931,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5024,7 +5024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3266E8AB-01CA-44B5-BD8D-A5D9658FE3AC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/Налоги_таблицы.xlsx
+++ b/Налоги_таблицы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1856" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B325C705-7B0D-4134-A77E-ACB4B7E10B30}"/>
+  <xr:revisionPtr revIDLastSave="1858" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B127DE94-F517-48A0-ACCC-D50055346F86}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Транспортный" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
     <t>Категории отходов</t>
   </si>
   <si>
-    <t xml:space="preserve"> Конкретный вид отхода</t>
+    <t>Конкретный вид отхода</t>
   </si>
   <si>
     <t>Ставка_2025</t>

--- a/Налоги_таблицы.xlsx
+++ b/Налоги_таблицы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1858" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B127DE94-F517-48A0-ACCC-D50055346F86}"/>
+  <xr:revisionPtr revIDLastSave="1917" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C30920FB-039B-4489-9AF2-2F9FA17BEC79}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Транспортный" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="361">
   <si>
     <t>Тип транспортных средств </t>
   </si>
@@ -414,7 +414,16 @@
     <t>иные отходы</t>
   </si>
   <si>
-    <t>Средняя цена реализации 1000 килограммов нефти в  долларах США</t>
+    <t>Средняя цена 1000 килограммов нефти, $</t>
+  </si>
+  <si>
+    <t>Ставка_2025, BYN</t>
+  </si>
+  <si>
+    <t>Ставка_2026, BYN</t>
+  </si>
+  <si>
+    <t>Рост в %</t>
   </si>
   <si>
     <t xml:space="preserve">До 578,4 </t>
@@ -441,15 +450,7 @@
     <t>От 1012,2 до 1084,5</t>
   </si>
   <si>
-    <t xml:space="preserve">220,08 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">От 1084,5 до 1156,8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">232,48 
-</t>
   </si>
   <si>
     <t xml:space="preserve">От 1156,8 до 1229,1 </t>
@@ -753,9 +754,6 @@
   </si>
   <si>
     <t>Районы</t>
-  </si>
-  <si>
-    <t>Рост в %</t>
   </si>
   <si>
     <t>Брестская</t>
@@ -1353,9 +1351,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1380,6 +1375,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,26 +1910,26 @@
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1941,10 +1939,10 @@
       <c r="B2" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>35.89</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>38.29</v>
       </c>
       <c r="E2">
@@ -1959,10 +1957,10 @@
       <c r="B3" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>32.340000000000003</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>34.51</v>
       </c>
       <c r="E3">
@@ -1977,10 +1975,10 @@
       <c r="B4" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>32.159999999999997</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>34.31</v>
       </c>
       <c r="E4">
@@ -1995,10 +1993,10 @@
       <c r="B5" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>22.31</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>23.8</v>
       </c>
       <c r="E5">
@@ -2013,10 +2011,10 @@
       <c r="B6" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>24.29</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>25.92</v>
       </c>
       <c r="E6">
@@ -2031,10 +2029,10 @@
       <c r="B7" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>30.2</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>32.22</v>
       </c>
       <c r="E7">
@@ -2049,10 +2047,10 @@
       <c r="B8" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>23.3</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>24.86</v>
       </c>
       <c r="E8">
@@ -2067,10 +2065,10 @@
       <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>25.64</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>27.36</v>
       </c>
       <c r="E9">
@@ -2085,10 +2083,10 @@
       <c r="B10" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>32.159999999999997</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>34.31</v>
       </c>
       <c r="E10">
@@ -2103,10 +2101,10 @@
       <c r="B11" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <v>25.05</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>26.73</v>
       </c>
       <c r="E11">
@@ -2121,10 +2119,10 @@
       <c r="B12" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <v>16.829999999999998</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>17.96</v>
       </c>
       <c r="E12">
@@ -2139,10 +2137,10 @@
       <c r="B13" t="s">
         <v>249</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <v>35.08</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>37.43</v>
       </c>
       <c r="E13">
@@ -2157,10 +2155,10 @@
       <c r="B14" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>18.18</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>19.399999999999999</v>
       </c>
       <c r="E14">
@@ -2175,10 +2173,10 @@
       <c r="B15" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <v>22.72</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>24.24</v>
       </c>
       <c r="E15">
@@ -2193,10 +2191,10 @@
       <c r="B16" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>28.81</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>30.74</v>
       </c>
       <c r="E16">
@@ -2211,10 +2209,10 @@
       <c r="B17" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>24.29</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>25.92</v>
       </c>
       <c r="E17">
@@ -2229,10 +2227,10 @@
       <c r="B18" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>17.41</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>18.579999999999998</v>
       </c>
       <c r="E18">
@@ -2247,10 +2245,10 @@
       <c r="B19" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>9.5500000000000007</v>
       </c>
       <c r="E19">
@@ -2265,10 +2263,10 @@
       <c r="B20" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="29">
         <v>10.32</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>11.01</v>
       </c>
       <c r="E20">
@@ -2283,10 +2281,10 @@
       <c r="B21" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="29">
         <v>12.29</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>13.11</v>
       </c>
       <c r="E21">
@@ -2301,10 +2299,10 @@
       <c r="B22" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="29">
         <v>18.18</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>19.399999999999999</v>
       </c>
       <c r="E22">
@@ -2319,10 +2317,10 @@
       <c r="B23" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="29">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <v>4.87</v>
       </c>
       <c r="E23">
@@ -2337,10 +2335,10 @@
       <c r="B24" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>17.989999999999998</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>19.2</v>
       </c>
       <c r="E24">
@@ -2355,10 +2353,10 @@
       <c r="B25" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="29">
         <v>25.27</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <v>26.96</v>
       </c>
       <c r="E25">
@@ -2373,10 +2371,10 @@
       <c r="B26" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="29">
         <v>9.94</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <v>10.61</v>
       </c>
       <c r="E26">
@@ -2391,10 +2389,10 @@
       <c r="B27" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="29">
         <v>12.5</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>13.34</v>
       </c>
       <c r="E27">
@@ -2409,10 +2407,10 @@
       <c r="B28" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="29">
         <v>14.08</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="26">
         <v>15.02</v>
       </c>
       <c r="E28">
@@ -2427,10 +2425,10 @@
       <c r="B29" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="29">
         <v>26.26</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="26">
         <v>28.02</v>
       </c>
       <c r="E29">
@@ -2445,10 +2443,10 @@
       <c r="B30" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <v>5.64</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <v>6.02</v>
       </c>
       <c r="E30">
@@ -2463,10 +2461,10 @@
       <c r="B31" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="29">
         <v>14.25</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="26">
         <v>15.2</v>
       </c>
       <c r="E31">
@@ -2481,10 +2479,10 @@
       <c r="B32" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="29">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <v>4.87</v>
       </c>
       <c r="E32">
@@ -2499,10 +2497,10 @@
       <c r="B33" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="29">
         <v>14.25</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="26">
         <v>15.2</v>
       </c>
       <c r="E33">
@@ -2517,10 +2515,10 @@
       <c r="B34" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="29">
         <v>23.88</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <v>25.48</v>
       </c>
       <c r="E34">
@@ -2535,10 +2533,10 @@
       <c r="B35" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="29">
         <v>7.16</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="26">
         <v>7.64</v>
       </c>
       <c r="E35">
@@ -2553,10 +2551,10 @@
       <c r="B36" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="29">
         <v>15.06</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <v>16.07</v>
       </c>
       <c r="E36">
@@ -2571,10 +2569,10 @@
       <c r="B37" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="25">
         <v>18.18</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <v>19.399999999999999</v>
       </c>
       <c r="E37">
@@ -2589,10 +2587,10 @@
       <c r="B38" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>10.55</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <v>11.26</v>
       </c>
       <c r="E38">
@@ -2607,10 +2605,10 @@
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="29">
         <v>19.91</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="26">
         <v>21.24</v>
       </c>
       <c r="E39">
@@ -2625,10 +2623,10 @@
       <c r="B40" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="29">
         <v>28.41</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="26">
         <v>30.31</v>
       </c>
       <c r="E40">
@@ -2643,10 +2641,10 @@
       <c r="B41" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="29">
         <v>28.41</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="26">
         <v>30.31</v>
       </c>
       <c r="E41">
@@ -2661,10 +2659,10 @@
       <c r="B42" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="29">
         <v>21.74</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="26">
         <v>23.2</v>
       </c>
       <c r="E42">
@@ -2679,10 +2677,10 @@
       <c r="B43" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="29">
         <v>30.78</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="26">
         <v>32.840000000000003</v>
       </c>
       <c r="E43">
@@ -2697,10 +2695,10 @@
       <c r="B44" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="29">
         <v>14.86</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="26">
         <v>15.86</v>
       </c>
       <c r="E44">
@@ -2715,10 +2713,10 @@
       <c r="B45" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="29">
         <v>21.55</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="26">
         <v>22.99</v>
       </c>
       <c r="E45">
@@ -2733,10 +2731,10 @@
       <c r="B46" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="29">
         <v>31.93</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="26">
         <v>34.07</v>
       </c>
       <c r="E46">
@@ -2751,10 +2749,10 @@
       <c r="B47" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="29">
         <v>18.39</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="26">
         <v>19.62</v>
       </c>
       <c r="E47">
@@ -2769,10 +2767,10 @@
       <c r="B48" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="29">
         <v>35.450000000000003</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="26">
         <v>37.83</v>
       </c>
       <c r="E48">
@@ -2787,10 +2785,10 @@
       <c r="B49" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="29">
         <v>17.41</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="26">
         <v>18.579999999999998</v>
       </c>
       <c r="E49">
@@ -2805,10 +2803,10 @@
       <c r="B50" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="29">
         <v>15.24</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <v>16.260000000000002</v>
       </c>
       <c r="E50">
@@ -2823,10 +2821,10 @@
       <c r="B51" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="29">
         <v>18.97</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="26">
         <v>20.239999999999998</v>
       </c>
       <c r="E51">
@@ -2841,10 +2839,10 @@
       <c r="B52" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="29">
         <v>18.97</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="26">
         <v>20.239999999999998</v>
       </c>
       <c r="E52">
@@ -2859,10 +2857,10 @@
       <c r="B53" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="29">
         <v>24.66</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="26">
         <v>26.31</v>
       </c>
       <c r="E53">
@@ -2877,10 +2875,10 @@
       <c r="B54" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="29">
         <v>14.25</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="26">
         <v>15.2</v>
       </c>
       <c r="E54">
@@ -2895,10 +2893,10 @@
       <c r="B55" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="29">
         <v>22.9</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="26">
         <v>24.43</v>
       </c>
       <c r="E55">
@@ -2913,10 +2911,10 @@
       <c r="B56" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="29">
         <v>31.38</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="26">
         <v>33.479999999999997</v>
       </c>
       <c r="E56">
@@ -2931,10 +2929,10 @@
       <c r="B57" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="29">
         <v>18.18</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="26">
         <v>19.399999999999999</v>
       </c>
       <c r="E57">
@@ -2949,10 +2947,10 @@
       <c r="B58" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="29">
         <v>31.38</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="26">
         <v>33.479999999999997</v>
       </c>
       <c r="E58">
@@ -2967,10 +2965,10 @@
       <c r="B59" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="29">
         <v>26.07</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="26">
         <v>27.82</v>
       </c>
       <c r="E59">
@@ -2985,10 +2983,10 @@
       <c r="B60" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="29">
         <v>39.99</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="26">
         <v>42.67</v>
       </c>
       <c r="E60">
@@ -3003,10 +3001,10 @@
       <c r="B61" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="29">
         <v>41.19</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="26">
         <v>43.95</v>
       </c>
       <c r="E61">
@@ -3021,10 +3019,10 @@
       <c r="B62" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C62" s="30">
+      <c r="C62" s="29">
         <v>31.54</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="26">
         <v>33.65</v>
       </c>
       <c r="E62">
@@ -3039,10 +3037,10 @@
       <c r="B63" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="29">
         <v>38.43</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="26">
         <v>41</v>
       </c>
       <c r="E63">
@@ -3057,10 +3055,10 @@
       <c r="B64" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="29">
         <v>25.05</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="26">
         <v>26.73</v>
       </c>
       <c r="E64">
@@ -3075,10 +3073,10 @@
       <c r="B65" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="30">
+      <c r="C65" s="29">
         <v>39.99</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="26">
         <v>42.67</v>
       </c>
       <c r="E65">
@@ -3093,10 +3091,10 @@
       <c r="B66" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C66" s="30">
+      <c r="C66" s="29">
         <v>23.53</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66" s="26">
         <v>25.11</v>
       </c>
       <c r="E66">
@@ -3111,10 +3109,10 @@
       <c r="B67" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="29">
         <v>41.4</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="26">
         <v>44.17</v>
       </c>
       <c r="E67">
@@ -3129,10 +3127,10 @@
       <c r="B68" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C68" s="29">
         <v>29.79</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68" s="26">
         <v>31.79</v>
       </c>
       <c r="E68">
@@ -3147,10 +3145,10 @@
       <c r="B69" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="29">
         <v>35.68</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="26">
         <v>38.07</v>
       </c>
       <c r="E69">
@@ -3165,10 +3163,10 @@
       <c r="B70" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="29">
         <v>30.56</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="26">
         <v>32.61</v>
       </c>
       <c r="E70">
@@ -3183,10 +3181,10 @@
       <c r="B71" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="29">
         <v>22.31</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="26">
         <v>23.8</v>
       </c>
       <c r="E71">
@@ -3201,10 +3199,10 @@
       <c r="B72" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="29">
         <v>28.81</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="26">
         <v>30.74</v>
       </c>
       <c r="E72">
@@ -3219,10 +3217,10 @@
       <c r="B73" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="29">
         <v>30.56</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="26">
         <v>32.61</v>
       </c>
       <c r="E73">
@@ -3237,10 +3235,10 @@
       <c r="B74" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C74" s="29">
         <v>34.11</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="26">
         <v>36.4</v>
       </c>
       <c r="E74">
@@ -3255,10 +3253,10 @@
       <c r="B75" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="30">
+      <c r="C75" s="29">
         <v>23.3</v>
       </c>
-      <c r="D75" s="27">
+      <c r="D75" s="26">
         <v>24.86</v>
       </c>
       <c r="E75">
@@ -3273,10 +3271,10 @@
       <c r="B76" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="29">
         <v>36.270000000000003</v>
       </c>
-      <c r="D76" s="27">
+      <c r="D76" s="26">
         <v>38.700000000000003</v>
       </c>
       <c r="E76">
@@ -3291,10 +3289,10 @@
       <c r="B77" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C77" s="30">
+      <c r="C77" s="29">
         <v>18.97</v>
       </c>
-      <c r="D77" s="27">
+      <c r="D77" s="26">
         <v>20.239999999999998</v>
       </c>
       <c r="E77">
@@ -3309,10 +3307,10 @@
       <c r="B78" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="29">
         <v>27.82</v>
       </c>
-      <c r="D78" s="27">
+      <c r="D78" s="26">
         <v>29.68</v>
       </c>
       <c r="E78">
@@ -3327,10 +3325,10 @@
       <c r="B79" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="29">
         <v>23.53</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D79" s="26">
         <v>25.11</v>
       </c>
       <c r="E79">
@@ -3345,10 +3343,10 @@
       <c r="B80" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="29">
         <v>25.64</v>
       </c>
-      <c r="D80" s="27">
+      <c r="D80" s="26">
         <v>27.36</v>
       </c>
       <c r="E80">
@@ -3363,10 +3361,10 @@
       <c r="B81" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="30">
+      <c r="C81" s="29">
         <v>33.72</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="26">
         <v>35.979999999999997</v>
       </c>
       <c r="E81">
@@ -3381,10 +3379,10 @@
       <c r="B82" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="29">
         <v>46.68</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="26">
         <v>49.81</v>
       </c>
       <c r="E82">
@@ -3399,10 +3397,10 @@
       <c r="B83" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="29">
         <v>40.799999999999997</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D83" s="26">
         <v>43.53</v>
       </c>
       <c r="E83">
@@ -3417,10 +3415,10 @@
       <c r="B84" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C84" s="30">
+      <c r="C84" s="29">
         <v>17.21</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D84" s="26">
         <v>18.36</v>
       </c>
       <c r="E84">
@@ -3435,10 +3433,10 @@
       <c r="B85" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="29">
         <v>17.010000000000002</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D85" s="26">
         <v>18.149999999999999</v>
       </c>
       <c r="E85">
@@ -3453,10 +3451,10 @@
       <c r="B86" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="29">
         <v>25.64</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D86" s="26">
         <v>27.36</v>
       </c>
       <c r="E86">
@@ -3471,10 +3469,10 @@
       <c r="B87" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="29">
         <v>35.08</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87" s="26">
         <v>37.43</v>
       </c>
       <c r="E87">
@@ -3489,10 +3487,10 @@
       <c r="B88" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="29">
         <v>31.93</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88" s="26">
         <v>34.07</v>
       </c>
       <c r="E88">
@@ -3507,10 +3505,10 @@
       <c r="B89" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="29">
         <v>12.5</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89" s="26">
         <v>13.34</v>
       </c>
       <c r="E89">
@@ -3525,10 +3523,10 @@
       <c r="B90" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C90" s="30">
+      <c r="C90" s="29">
         <v>50.62</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="26">
         <v>54.01</v>
       </c>
       <c r="E90">
@@ -3543,10 +3541,10 @@
       <c r="B91" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="29">
         <v>25.49</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D91" s="26">
         <v>27.2</v>
       </c>
       <c r="E91">
@@ -3561,10 +3559,10 @@
       <c r="B92" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="29">
         <v>41.55</v>
       </c>
-      <c r="D92" s="27">
+      <c r="D92" s="26">
         <v>44.33</v>
       </c>
       <c r="E92">
@@ -3579,10 +3577,10 @@
       <c r="B93" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="29">
         <v>28.81</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D93" s="26">
         <v>30.74</v>
       </c>
       <c r="E93">
@@ -3597,10 +3595,10 @@
       <c r="B94" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="29">
         <v>30.56</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D94" s="26">
         <v>32.61</v>
       </c>
       <c r="E94">
@@ -3615,10 +3613,10 @@
       <c r="B95" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95" s="29">
         <v>19.97</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D95" s="26">
         <v>21.31</v>
       </c>
       <c r="E95">
@@ -3633,10 +3631,10 @@
       <c r="B96" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96" s="29">
         <v>28.02</v>
       </c>
-      <c r="D96" s="27">
+      <c r="D96" s="26">
         <v>29.9</v>
       </c>
       <c r="E96">
@@ -3651,10 +3649,10 @@
       <c r="B97" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="29">
         <v>28.41</v>
       </c>
-      <c r="D97" s="27">
+      <c r="D97" s="26">
         <v>30.31</v>
       </c>
       <c r="E97">
@@ -3669,10 +3667,10 @@
       <c r="B98" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C98" s="30">
+      <c r="C98" s="29">
         <v>27.45</v>
       </c>
-      <c r="D98" s="27">
+      <c r="D98" s="26">
         <v>29.29</v>
       </c>
       <c r="E98">
@@ -3687,10 +3685,10 @@
       <c r="B99" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="29">
         <v>31.93</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99" s="26">
         <v>34.07</v>
       </c>
       <c r="E99">
@@ -3705,10 +3703,10 @@
       <c r="B100" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="29">
         <v>35.299999999999997</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100" s="26">
         <v>37.67</v>
       </c>
       <c r="E100">
@@ -3723,10 +3721,10 @@
       <c r="B101" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="29">
         <v>26.83</v>
       </c>
-      <c r="D101" s="27">
+      <c r="D101" s="26">
         <v>28.63</v>
       </c>
       <c r="E101">
@@ -3741,10 +3739,10 @@
       <c r="B102" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="29">
         <v>24.07</v>
       </c>
-      <c r="D102" s="27">
+      <c r="D102" s="26">
         <v>25.68</v>
       </c>
       <c r="E102">
@@ -3759,10 +3757,10 @@
       <c r="B103" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="29">
         <v>29.58</v>
       </c>
-      <c r="D103" s="27">
+      <c r="D103" s="26">
         <v>31.56</v>
       </c>
       <c r="E103">
@@ -3777,10 +3775,10 @@
       <c r="B104" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="29">
         <v>23.68</v>
       </c>
-      <c r="D104" s="27">
+      <c r="D104" s="26">
         <v>25.27</v>
       </c>
       <c r="E104">
@@ -3795,10 +3793,10 @@
       <c r="B105" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="29">
         <v>37.64</v>
       </c>
-      <c r="D105" s="27">
+      <c r="D105" s="26">
         <v>40.159999999999997</v>
       </c>
       <c r="E105">
@@ -3813,10 +3811,10 @@
       <c r="B106" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C106" s="30">
+      <c r="C106" s="29">
         <v>21.33</v>
       </c>
-      <c r="D106" s="27">
+      <c r="D106" s="26">
         <v>22.76</v>
       </c>
       <c r="E106">
@@ -3831,10 +3829,10 @@
       <c r="B107" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C107" s="29">
         <v>24.49</v>
       </c>
-      <c r="D107" s="27">
+      <c r="D107" s="26">
         <v>26.13</v>
       </c>
       <c r="E107">
@@ -3849,10 +3847,10 @@
       <c r="B108" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C108" s="30">
+      <c r="C108" s="29">
         <v>14.46</v>
       </c>
-      <c r="D108" s="27">
+      <c r="D108" s="26">
         <v>15.43</v>
       </c>
       <c r="E108">
@@ -3867,10 +3865,10 @@
       <c r="B109" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C109" s="30">
+      <c r="C109" s="29">
         <v>17.41</v>
       </c>
-      <c r="D109" s="27">
+      <c r="D109" s="26">
         <v>18.579999999999998</v>
       </c>
       <c r="E109">
@@ -3885,10 +3883,10 @@
       <c r="B110" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C110" s="30">
+      <c r="C110" s="29">
         <v>28.02</v>
       </c>
-      <c r="D110" s="27">
+      <c r="D110" s="26">
         <v>29.9</v>
       </c>
       <c r="E110">
@@ -3903,10 +3901,10 @@
       <c r="B111" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C111" s="29">
         <v>36.270000000000003</v>
       </c>
-      <c r="D111" s="27">
+      <c r="D111" s="26">
         <v>38.700000000000003</v>
       </c>
       <c r="E111">
@@ -3921,10 +3919,10 @@
       <c r="B112" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C112" s="29">
         <v>34.299999999999997</v>
       </c>
-      <c r="D112" s="27">
+      <c r="D112" s="26">
         <v>36.6</v>
       </c>
       <c r="E112">
@@ -3939,10 +3937,10 @@
       <c r="B113" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C113" s="30">
+      <c r="C113" s="29">
         <v>23.3</v>
       </c>
-      <c r="D113" s="27">
+      <c r="D113" s="26">
         <v>24.86</v>
       </c>
       <c r="E113">
@@ -3957,10 +3955,10 @@
       <c r="B114" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C114" s="30">
+      <c r="C114" s="29">
         <v>29.42</v>
       </c>
-      <c r="D114" s="27">
+      <c r="D114" s="26">
         <v>31.39</v>
       </c>
       <c r="E114">
@@ -3975,10 +3973,10 @@
       <c r="B115" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="29">
         <v>20.14</v>
       </c>
-      <c r="D115" s="27">
+      <c r="D115" s="26">
         <v>21.49</v>
       </c>
       <c r="E115">
@@ -3993,10 +3991,10 @@
       <c r="B116" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="30">
+      <c r="C116" s="29">
         <v>20.94</v>
       </c>
-      <c r="D116" s="27">
+      <c r="D116" s="26">
         <v>22.34</v>
       </c>
       <c r="E116">
@@ -4011,10 +4009,10 @@
       <c r="B117" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="30">
         <v>25.49</v>
       </c>
-      <c r="D117" s="27">
+      <c r="D117" s="26">
         <v>27.2</v>
       </c>
       <c r="E117">
@@ -4029,10 +4027,10 @@
       <c r="B118" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C118" s="31">
+      <c r="C118" s="30">
         <v>28.22</v>
       </c>
-      <c r="D118" s="27">
+      <c r="D118" s="26">
         <v>30.11</v>
       </c>
       <c r="E118">
@@ -4047,10 +4045,10 @@
       <c r="B119" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="30">
         <v>35.450000000000003</v>
       </c>
-      <c r="D119" s="27">
+      <c r="D119" s="26">
         <v>37.83</v>
       </c>
       <c r="E119">
@@ -4067,7 +4065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747FE41C-6508-4947-99C1-6794BFB9E6F3}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4450,169 +4448,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B4ABDF-7288-45DE-82DA-8D9CB95A4138}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="36.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="36.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>106</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>8.25</v>
       </c>
       <c r="E2" s="9">
         <v>8.81</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>6.14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.75">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="26">
+      <c r="C3" s="35"/>
+      <c r="D3" s="25">
         <v>209.13</v>
       </c>
       <c r="E3" s="9">
         <v>223.15</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="26">
+      <c r="C4" s="36"/>
+      <c r="D4" s="25">
         <v>104.29</v>
       </c>
       <c r="E4" s="9">
         <v>110.97</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="26">
+      <c r="C5" s="35"/>
+      <c r="D5" s="25">
         <v>1.8</v>
       </c>
       <c r="E5" s="9">
         <v>1.92</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>6.6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="26">
+      <c r="C6" s="36"/>
+      <c r="D6" s="25">
         <v>182.51</v>
       </c>
       <c r="E6" s="9">
         <v>194.74</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="26">
+      <c r="C7" s="36"/>
+      <c r="D7" s="25">
         <v>53.56</v>
       </c>
       <c r="E7" s="9">
         <v>57.15</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>6.62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>17.8</v>
       </c>
       <c r="E8" s="9">
         <v>19</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>6.7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4624,15 +4622,15 @@
       <c r="E9" s="9">
         <v>3.88</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>6.9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -4644,12 +4642,12 @@
       <c r="E10" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>7.7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -4664,12 +4662,12 @@
       <c r="E11" s="9">
         <v>1.18</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>7.3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4678,33 +4676,33 @@
       <c r="C12" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>0.2</v>
       </c>
       <c r="E12" s="9">
         <v>0.22</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>8.91</v>
       </c>
       <c r="E13" s="9">
         <v>9.51</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>6.9</v>
       </c>
     </row>
@@ -4715,210 +4713,258 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD052CA1-D931-47A2-9DBC-406CC4CDEF8E}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75">
+    <row r="1" spans="1:8" ht="30.75">
       <c r="A1" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>125</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="23">
+        <v>128</v>
+      </c>
+      <c r="B2" s="24">
         <v>32.03</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>34.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="D2" s="26">
+        <f>(C2 - B2) / B2 * 100</f>
+        <v>6.7124570714954688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="23">
+        <v>129</v>
+      </c>
+      <c r="B3" s="24">
         <v>39.869999999999997</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>42.55</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="D3" s="26">
+        <f t="shared" ref="D3:D15" si="0">(C3 - B3) / B3 * 100</f>
+        <v>6.7218459994983704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="23">
+        <v>130</v>
+      </c>
+      <c r="B4" s="24">
         <v>67.989999999999995</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="D4" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7068686571554679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="23">
+        <v>131</v>
+      </c>
+      <c r="B5" s="24">
         <v>94.7</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>101.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="D5" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7053854276663092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="23">
+        <v>132</v>
+      </c>
+      <c r="B6" s="24">
         <v>122.81</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>131.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1">
+      <c r="D6" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7014086800749038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1">
       <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="23">
+        <v>133</v>
+      </c>
+      <c r="B7" s="24">
         <v>149.16</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>159.16</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7042102440332529</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10" s="7" customFormat="1">
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="23">
+        <v>134</v>
+      </c>
+      <c r="B8" s="24">
         <v>177.66</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>189.57</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7038162782843624</v>
+      </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" s="7" customFormat="1">
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="25">
+        <v>135</v>
+      </c>
+      <c r="B9" s="37">
+        <v>220.08</v>
+      </c>
+      <c r="C9" s="24">
         <v>234.85</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7111959287531722</v>
+      </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" s="7" customFormat="1">
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1">
       <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="25">
+        <v>136</v>
+      </c>
+      <c r="B10" s="24">
+        <v>232.48</v>
+      </c>
+      <c r="C10" s="24">
         <v>248.06</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7016517549896824</v>
+      </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="23">
+        <v>137</v>
+      </c>
+      <c r="B11" s="24">
         <v>258.81</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>276.14999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="D11" s="26">
+        <f t="shared" si="0"/>
+        <v>6.6998956763648909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="23">
+        <v>138</v>
+      </c>
+      <c r="B12" s="24">
         <v>285.17</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>304.27999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="D12" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7012659115615092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="23">
+        <v>139</v>
+      </c>
+      <c r="B13" s="24">
         <v>313.64</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>334.66</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="D13" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7019512817242815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="23">
+        <v>140</v>
+      </c>
+      <c r="B14" s="24">
         <v>341.78</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>364.68</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="D14" s="26">
+        <f t="shared" si="0"/>
+        <v>6.700216513546736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="23">
+        <v>141</v>
+      </c>
+      <c r="B15" s="24">
         <v>368.48</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>393.17</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7004993486756401</v>
       </c>
     </row>
   </sheetData>
@@ -4931,86 +4977,86 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>142</v>
+      <c r="D1" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="27">
+        <v>144</v>
+      </c>
+      <c r="B2" s="26">
         <v>0.18</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>0.19</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <f>(C2 - B2) / B2 * 100</f>
         <v>5.5555555555555607</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="27">
+        <v>145</v>
+      </c>
+      <c r="B3" s="26">
         <v>0.2</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>0.21</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <f t="shared" ref="D3:D5" si="0">(C3 - B3) / B3 * 100</f>
         <v>4.9999999999999902</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75">
       <c r="A4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="27">
+        <v>146</v>
+      </c>
+      <c r="B4" s="26">
         <v>0.2</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>0.21</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <f t="shared" si="0"/>
         <v>4.9999999999999902</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="27">
+        <v>147</v>
+      </c>
+      <c r="B5" s="26">
         <v>11.09</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>11.83</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <f t="shared" si="0"/>
         <v>6.6726780883679009</v>
       </c>
@@ -5025,86 +5071,86 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>148</v>
+      <c r="D1" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="27">
+        <v>150</v>
+      </c>
+      <c r="B2" s="26">
         <v>46724.6</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="28">
+        <v>151</v>
+      </c>
+      <c r="D2" s="27">
         <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="27">
+        <v>152</v>
+      </c>
+      <c r="B3" s="26">
         <v>1398.94</v>
       </c>
       <c r="C3" s="23">
         <v>1492.67</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <f>(C3-B3)/B3*100</f>
         <v>6.7000729123479221</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="27">
+        <v>153</v>
+      </c>
+      <c r="B4" s="26">
         <v>462.46</v>
       </c>
       <c r="C4" s="23">
         <v>493.45</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <f t="shared" ref="D4:D5" si="0">(C4-B4)/B4*100</f>
         <v>6.7011200968732449</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="27">
+        <v>154</v>
+      </c>
+      <c r="B5" s="26">
         <v>229.79</v>
       </c>
       <c r="C5" s="23">
         <v>245.19</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
         <v>6.7017711823839186</v>
       </c>
@@ -5136,723 +5182,723 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="34" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="27">
+      <c r="B2" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="26">
         <v>0</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>0</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>0</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>0</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="A4" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="26">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>0</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45.75">
-      <c r="A5" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="A5" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75">
-      <c r="A6" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="27">
+      <c r="B6" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="26">
         <v>0.85</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>1.02</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <f>(D6-C6)/C6*100</f>
         <v>20.000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45.75">
-      <c r="A7" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="27">
+      <c r="B7" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="26">
         <v>102.51</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>123.01</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <f>(D7-C7)/C7*100</f>
         <v>19.998048970832112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="A8" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="26">
         <v>0.6</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>0.7</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f>(D8-C8)/C8*100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30.75">
-      <c r="A9" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="27">
+      <c r="B9" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="26">
         <v>119.59</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>133.94</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <f>(D9-C9)/C9*100</f>
         <v>11.999331047746461</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>119.59</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>133.94</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f>(D10-C10)/C10*100</f>
         <v>11.999331047746461</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30.75">
-      <c r="A11" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="A11" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="26">
         <v>0.24</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>0.26</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f>(D11-C11)/C11*100</f>
         <v>8.333333333333341</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="A12" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="26">
         <v>0.5</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>0.54</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <f>(D12-C12)/C12*100</f>
         <v>8.0000000000000071</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30.75">
-      <c r="A13" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="A13" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="26">
         <v>10.5</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>11.24</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f>(D13-C13)/C13*100</f>
         <v>7.0476190476190501</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45.75">
-      <c r="A14" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="A14" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="26">
         <v>1.42</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>1.52</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f>(D14-C14)/C14*100</f>
         <v>7.0422535211267681</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45.75">
-      <c r="A15" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="27">
+      <c r="A15" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="26">
         <v>7.53</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>8.06</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <f>(D15-C15)/C15*100</f>
         <v>7.0385126162018627</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="A16" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="26">
         <v>18.09</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>19.36</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f>(D16-C16)/C16*100</f>
         <v>7.0204532891100024</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="27">
+      <c r="B17" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="26">
         <v>13.13</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>14.05</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <f>(D17-C17)/C17*100</f>
         <v>7.0068545316070052</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="A18" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="26">
         <v>24.55</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>26.27</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <f>(D18-C18)/C18*100</f>
         <v>7.0061099796333961</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.75">
-      <c r="A19" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="27">
+      <c r="A19" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="26">
         <v>18.559999999999999</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>19.86</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <f>(D19-C19)/C19*100</f>
         <v>7.0043103448275907</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30.75">
-      <c r="A20" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="27">
+      <c r="A20" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="26">
         <v>194.29</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>207.89</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <f>(D20-C20)/C20*100</f>
         <v>6.9998455916413587</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="A21" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="26">
         <v>194.29</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>207.89</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <f>(D21-C21)/C21*100</f>
         <v>6.9998455916413587</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="A22" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="26">
         <v>187.15</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>200.25</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f>(D22-C22)/C22*100</f>
         <v>6.9997328346246297</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30.75">
-      <c r="A23" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="A23" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="26">
         <v>163.63999999999999</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <v>175.09</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <f>(D23-C23)/C23*100</f>
         <v>6.9970667318504143</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="A24" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="26">
         <v>32.49</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>34.76</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <f>(D24-C24)/C24*100</f>
         <v>6.9867651585102983</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30.75">
-      <c r="A25" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="27">
+      <c r="A25" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="26">
         <v>32.49</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <v>34.76</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <f>(D25-C25)/C25*100</f>
         <v>6.9867651585102983</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="A26" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="26">
         <v>1.62</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <v>1.73</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <f>(D26-C26)/C26*100</f>
         <v>6.7901234567901145</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="27">
+      <c r="A27" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="26">
         <v>1.06</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <f>(D27-C27)/C27*100</f>
         <v>6.6037735849056451</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="27">
+      <c r="A28" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="26">
         <v>0.77</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="26">
         <v>0.82</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <f>(D28-C28)/C28*100</f>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="27">
+      <c r="B29" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="26">
         <v>1976.26</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="26">
         <v>2035.55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <f>(D29-C29)/C29*100</f>
         <v>3.000111321384836</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>4079.56</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <v>4201.95</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <f>(D30-C30)/C30*100</f>
         <v>3.0000784398317433</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="27">
+      <c r="A31" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="26">
         <v>2532.04</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="26">
         <v>2608</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <f>(D31-C31)/C31*100</f>
         <v>2.9999526073837712</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="A32" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="26">
         <v>370.01</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <v>381.11</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <f>(D32-C32)/C32*100</f>
         <v>2.9999189211102464</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="27">
+      <c r="A33" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="26">
         <v>1563.12</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="26">
         <v>1610.01</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <f>(D33-C33)/C33*100</f>
         <v>2.9997696913864647</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="27">
+      <c r="A34" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="26">
         <v>231.11</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <v>238.04</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <f>(D34-C34)/C34*100</f>
         <v>2.9985721085197428</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30.75">
-      <c r="A35" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="27">
+      <c r="A35" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="26">
         <v>0.5</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="26">
         <v>0.5</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <f>(D35-C35)/C35*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="27">
+      <c r="A36" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="26">
         <v>0.54</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="33">
         <v>0.5</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <f>(D36-C36)/C36*100</f>
         <v>-7.4074074074074137</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="27">
+      <c r="B37" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="26">
         <v>31.95</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <v>34.1</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <f t="shared" ref="E37:E40" si="0">(D37-C37)/C37*100</f>
         <v>6.7292644757433555</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <v>60.34</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <v>64.56</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="0"/>
         <v>6.9937023533311216</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30.75">
-      <c r="A39" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="27">
+      <c r="B39" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="26">
         <v>60.34</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="26">
         <v>64.56</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <f t="shared" si="0"/>
         <v>6.9937023533311216</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="27">
+      <c r="A40" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="26">
         <v>513.42999999999995</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="26">
         <v>549.37</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <f t="shared" si="0"/>
         <v>6.9999805231482499</v>
       </c>
@@ -5876,2199 +5922,2199 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>207</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="27">
+        <v>210</v>
+      </c>
+      <c r="C2" s="26">
         <v>0.96</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>1.02</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <f>(D2-C2)/C2*100</f>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="27">
+        <v>211</v>
+      </c>
+      <c r="C3" s="26">
         <v>0.96</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>1.02</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f t="shared" ref="E3:E66" si="0">(D3-C3)/C3*100</f>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="27">
+        <v>212</v>
+      </c>
+      <c r="C4" s="26">
         <v>0.96</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>1.02</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="27">
+        <v>213</v>
+      </c>
+      <c r="C5" s="26">
         <v>0.96</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>1.02</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="27">
+        <v>214</v>
+      </c>
+      <c r="C6" s="26">
         <v>0.96</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>1.02</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="27">
+        <v>215</v>
+      </c>
+      <c r="C7" s="26">
         <v>0.96</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>1.02</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="27">
+        <v>216</v>
+      </c>
+      <c r="C8" s="26">
         <v>0.96</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>1.02</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="27">
+        <v>217</v>
+      </c>
+      <c r="C9" s="26">
         <v>0.96</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>1.02</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="27">
+        <v>218</v>
+      </c>
+      <c r="C10" s="26">
         <v>0.96</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>1.02</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="27">
+        <v>219</v>
+      </c>
+      <c r="C11" s="26">
         <v>0.96</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>1.02</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="27">
+        <v>220</v>
+      </c>
+      <c r="C12" s="26">
         <v>0.96</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>1.02</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="27">
+        <v>221</v>
+      </c>
+      <c r="C13" s="26">
         <v>0.96</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>1.02</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="27">
+        <v>222</v>
+      </c>
+      <c r="C14" s="26">
         <v>0.96</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>1.02</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="27">
+        <v>223</v>
+      </c>
+      <c r="C15" s="26">
         <v>0.96</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>1.02</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="27">
+        <v>224</v>
+      </c>
+      <c r="C16" s="26">
         <v>0.96</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>1.02</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="27">
+        <v>225</v>
+      </c>
+      <c r="C17" s="26">
         <v>1.53</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>1.63</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <f t="shared" si="0"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="27">
+        <v>226</v>
+      </c>
+      <c r="C18" s="26">
         <v>1.96</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>2.09</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <f t="shared" si="0"/>
         <v>6.6326530612244845</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="27">
+        <v>227</v>
+      </c>
+      <c r="C19" s="26">
         <v>2.39</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <f t="shared" si="0"/>
         <v>6.6945606694560542</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="27">
+        <v>228</v>
+      </c>
+      <c r="C20" s="26">
         <v>2.82</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>3.01</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <f t="shared" si="0"/>
         <v>6.7375886524822679</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="27">
+        <v>229</v>
+      </c>
+      <c r="C21" s="26">
         <v>3.26</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>3.48</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <f t="shared" si="0"/>
         <v>6.7484662576687189</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="27">
+        <v>230</v>
+      </c>
+      <c r="C22" s="26">
         <v>3.69</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>3.94</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f t="shared" si="0"/>
         <v>6.7750677506775077</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="27">
+        <v>231</v>
+      </c>
+      <c r="C23" s="26">
         <v>4.12</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <f t="shared" si="0"/>
         <v>6.7961165048543739</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>4.55</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>4.8499999999999996</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <f t="shared" si="0"/>
         <v>6.5934065934065895</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:B44" si="1">"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>4.99</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <v>5.32</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <f t="shared" si="0"/>
         <v>6.6132264529058125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <v>5.42</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <v>5.78</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <f t="shared" si="0"/>
         <v>6.6420664206642126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>5.85</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>6.24</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <f t="shared" si="0"/>
         <v>6.6666666666666767</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 31 и до 32 (включительно)</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <v>6.28</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="26">
         <v>6.7</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <f t="shared" si="0"/>
         <v>6.6878980891719735</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 32 и до 33 (включительно)</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <v>6.71</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="26">
         <v>7.16</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <f t="shared" si="0"/>
         <v>6.7064083457526111</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 33 и до 34 (включительно)</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>7.15</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <v>7.63</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <f t="shared" si="0"/>
         <v>6.7132867132867062</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B31" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 34 и до 35 (включительно)</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <v>7.58</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="26">
         <v>8.09</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <f t="shared" si="0"/>
         <v>6.7282321899736122</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 35 и до 36 (включительно)</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <v>8.01</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <v>8.5500000000000007</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <f t="shared" si="0"/>
         <v>6.7415730337078772</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 36 и до 37 (включительно)</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="26">
         <v>8.44</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="26">
         <v>9.01</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <f t="shared" si="0"/>
         <v>6.7535545023696715</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 37 и до 38 (включительно)</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <v>9.4600000000000009</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <f t="shared" si="0"/>
         <v>6.6516347237880691</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 38 и до 39 (включительно)</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="26">
         <v>9.31</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="26">
         <v>9.93</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <f t="shared" si="0"/>
         <v>6.6595059076261993</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 39 и до 40 (включительно)</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <v>9.74</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <v>10.39</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <f t="shared" si="0"/>
         <v>6.6735112936345002</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 40 и до 41 (включительно)</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="26">
         <v>10.17</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <v>10.85</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <f t="shared" si="0"/>
         <v>6.6863323500491605</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 41 и до 42 (включительно)</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <v>10.6</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <v>11.31</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="0"/>
         <v>6.6981132075471779</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 42 и до 43 (включительно)</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="26">
         <v>11.04</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="26">
         <v>11.78</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <f t="shared" si="0"/>
         <v>6.7028985507246395</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 43 и до 44 (включительно)</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="26">
         <v>11.47</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="26">
         <v>12.24</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <f t="shared" si="0"/>
         <v>6.7131647776809018</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B41" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 44 и до 45 (включительно)</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="26">
         <v>11.9</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="26">
         <v>12.7</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <f t="shared" si="0"/>
         <v>6.7226890756302433</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 45 и до 46 (включительно)</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="26">
         <v>12.33</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="26">
         <v>13.16</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <f t="shared" si="0"/>
         <v>6.7315490673154912</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 46 и до 47 (включительно)</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="26">
         <v>12.76</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="26">
         <v>13.61</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="26">
         <f t="shared" si="0"/>
         <v>6.6614420062695894</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>Свыше 47 и до 48 (включительно)</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="26">
         <v>13.2</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="26">
         <v>14.08</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="26">
         <f t="shared" si="0"/>
         <v>6.6666666666666732</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B45" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
         <v>Свыше 48 и до 49 (включительно)</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="26">
         <v>13.63</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="26">
         <v>14.54</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="26">
         <f t="shared" si="0"/>
         <v>6.6764490095377713</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C46" s="27">
+        <v>232</v>
+      </c>
+      <c r="C46" s="26">
         <v>14.06</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="26">
         <v>15</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="26">
         <f t="shared" si="0"/>
         <v>6.6856330014224712</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C47" s="27">
+        <v>210</v>
+      </c>
+      <c r="C47" s="26">
         <v>0.06</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="26">
         <v>0.06</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" s="27">
+        <v>211</v>
+      </c>
+      <c r="C48" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="26">
         <v>0.15</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="26">
         <f t="shared" si="0"/>
         <v>7.1428571428571281</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B49" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 7 и до 8 (включительно)</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="26">
         <v>0.2</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="26">
         <v>0.21</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="26">
         <f t="shared" si="0"/>
         <v>4.9999999999999902</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" ref="B50:B71" si="2">"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 8 и до 9 (включительно)</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <v>0.3</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="26">
         <f t="shared" si="0"/>
         <v>7.1428571428571281</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 9 и до 10 (включительно)</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="26">
         <v>0.31</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="26">
         <v>0.33</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="26">
         <f t="shared" si="0"/>
         <v>6.4516129032258114</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 10 и до 11 (включительно)</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="26">
         <v>0.35</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="26">
         <v>0.37</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="26">
         <f t="shared" si="0"/>
         <v>5.7142857142857197</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 11 и до 12 (включительно)</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="26">
         <v>0.43</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="26">
         <v>0.46</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="26">
         <f t="shared" si="0"/>
         <v>6.9767441860465187</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 12 и до 13 (включительно)</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="26">
         <v>0.51</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="26">
         <v>0.54</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="26">
         <f t="shared" si="0"/>
         <v>5.8823529411764754</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 13 и до 14 (включительно)</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="26">
         <v>0.59</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="26">
         <f t="shared" si="0"/>
         <v>7.2727272727272583</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 14 и до 15 (включительно)</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="26">
         <v>0.6</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="26">
         <v>0.64</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="26">
         <f t="shared" si="0"/>
         <v>6.6666666666666732</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 15 и до 16 (включительно)</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="26">
         <v>0.64</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="26">
         <v>0.68</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="26">
         <f t="shared" si="0"/>
         <v>6.2500000000000053</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 16 и до 17 (включительно)</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="26">
         <v>0.72</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="26">
         <v>0.77</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="26">
         <f t="shared" si="0"/>
         <v>6.94444444444445</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 17 и до 18 (включительно)</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="26">
         <v>0.77</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="26">
         <v>0.82</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="26">
         <f t="shared" si="0"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 18 и до 19 (включительно)</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="26">
         <v>0.84</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="26">
         <v>0.9</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="26">
         <f t="shared" si="0"/>
         <v>7.1428571428571495</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 19 и до 20 (включительно)</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="26">
         <v>0.92</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="26">
         <v>0.98</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="26">
         <f t="shared" si="0"/>
         <v>6.5217391304347752</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 20 и до 21 (включительно)</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="26">
         <v>0.95</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="26">
         <v>1.01</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="26">
         <f t="shared" si="0"/>
         <v>6.3157894736842159</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 21 и до 22 (включительно)</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="26">
         <v>1</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="26">
         <v>1.07</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="26">
         <f t="shared" si="0"/>
         <v>7.0000000000000062</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 22 и до 23 (включительно)</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="26">
         <v>1.06</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="26">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E64" s="26">
         <f t="shared" si="0"/>
         <v>6.6037735849056451</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 23 и до 24 (включительно)</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="26">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="26">
         <v>1.23</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="26">
         <f t="shared" si="0"/>
         <v>6.9565217391304417</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 24 и до 25 (включительно)</v>
       </c>
-      <c r="C66" s="27">
+      <c r="C66" s="26">
         <v>1.19</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66" s="26">
         <v>1.27</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E66" s="26">
         <f t="shared" si="0"/>
         <v>6.7226890756302584</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 25 и до 26 (включительно)</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67" s="26">
         <v>1.25</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="26">
         <v>1.33</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="26">
         <f t="shared" ref="E67:E117" si="3">(D67-C67)/C67*100</f>
         <v>6.4000000000000057</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 26 и до 27 (включительно)</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68" s="26">
         <v>1.31</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68" s="26">
         <v>1.4</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="26">
         <f t="shared" si="3"/>
         <v>6.8702290076335775</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B69" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="26">
         <v>1.34</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="26">
         <v>1.43</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="26">
         <f t="shared" si="3"/>
         <v>6.7164179104477499</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70" s="26">
         <v>1.4</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="26">
         <v>1.49</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E70" s="26">
         <f t="shared" si="3"/>
         <v>6.428571428571435</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C71" s="27">
+      <c r="C71" s="26">
         <v>1.48</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="26">
         <v>1.58</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="26">
         <f t="shared" si="3"/>
         <v>6.7567567567567623</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B72" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72" s="26">
         <v>1.54</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="26">
         <v>1.64</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30.75">
       <c r="A73" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="27">
+        <v>210</v>
+      </c>
+      <c r="C73" s="26">
         <v>1.53</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="26">
         <v>1.63</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E73" s="26">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30.75">
       <c r="A74" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" s="27">
+        <v>211</v>
+      </c>
+      <c r="C74" s="26">
         <v>1.53</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="26">
         <v>1.63</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E74" s="26">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30.75">
       <c r="A75" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B75" t="str">
         <f>"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
         <v>Свыше 7 и до 8 (включительно)</v>
       </c>
-      <c r="C75" s="27">
+      <c r="C75" s="26">
         <v>1.53</v>
       </c>
-      <c r="D75" s="27">
+      <c r="D75" s="26">
         <v>1.63</v>
       </c>
-      <c r="E75" s="27">
+      <c r="E75" s="26">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30.75">
       <c r="A76" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" ref="B76:B116" si="4">"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
         <v>Свыше 8 и до 9 (включительно)</v>
       </c>
-      <c r="C76" s="27">
+      <c r="C76" s="26">
         <v>1.53</v>
       </c>
-      <c r="D76" s="27">
+      <c r="D76" s="26">
         <v>1.63</v>
       </c>
-      <c r="E76" s="27">
+      <c r="E76" s="26">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30.75">
       <c r="A77" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 9 и до 10 (включительно)</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="26">
         <v>1.53</v>
       </c>
-      <c r="D77" s="27">
+      <c r="D77" s="26">
         <v>1.63</v>
       </c>
-      <c r="E77" s="27">
+      <c r="E77" s="26">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30.75">
       <c r="A78" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 10 и до 11 (включительно)</v>
       </c>
-      <c r="C78" s="27">
+      <c r="C78" s="26">
         <v>1.53</v>
       </c>
-      <c r="D78" s="27">
+      <c r="D78" s="26">
         <v>1.63</v>
       </c>
-      <c r="E78" s="27">
+      <c r="E78" s="26">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30.75">
       <c r="A79" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 11 и до 12 (включительно)</v>
       </c>
-      <c r="C79" s="27">
+      <c r="C79" s="26">
         <v>1.53</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D79" s="26">
         <v>1.63</v>
       </c>
-      <c r="E79" s="27">
+      <c r="E79" s="26">
         <f t="shared" si="3"/>
         <v>6.5359477124182916</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30.75">
       <c r="A80" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 12 и до 13 (включительно)</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="26">
         <v>1.54</v>
       </c>
-      <c r="D80" s="27">
+      <c r="D80" s="26">
         <v>1.64</v>
       </c>
-      <c r="E80" s="27">
+      <c r="E80" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30.75">
       <c r="A81" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 13 и до 14 (включительно)</v>
       </c>
-      <c r="C81" s="27">
+      <c r="C81" s="26">
         <v>1.54</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="26">
         <v>1.64</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E81" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30.75">
       <c r="A82" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 14 и до 15 (включительно)</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82" s="26">
         <v>1.54</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="26">
         <v>1.64</v>
       </c>
-      <c r="E82" s="27">
+      <c r="E82" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30.75">
       <c r="A83" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 15 и до 16 (включительно)</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83" s="26">
         <v>1.54</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D83" s="26">
         <v>1.64</v>
       </c>
-      <c r="E83" s="27">
+      <c r="E83" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30.75">
       <c r="A84" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 16 и до 17 (включительно)</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C84" s="26">
         <v>1.54</v>
       </c>
-      <c r="D84" s="27">
+      <c r="D84" s="26">
         <v>1.64</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E84" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30.75">
       <c r="A85" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 17 и до 18 (включительно)</v>
       </c>
-      <c r="C85" s="27">
+      <c r="C85" s="26">
         <v>1.54</v>
       </c>
-      <c r="D85" s="27">
+      <c r="D85" s="26">
         <v>1.64</v>
       </c>
-      <c r="E85" s="27">
+      <c r="E85" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30.75">
       <c r="A86" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 18 и до 19 (включительно)</v>
       </c>
-      <c r="C86" s="27">
+      <c r="C86" s="26">
         <v>1.54</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D86" s="26">
         <v>1.64</v>
       </c>
-      <c r="E86" s="27">
+      <c r="E86" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30.75">
       <c r="A87" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 19 и до 20 (включительно)</v>
       </c>
-      <c r="C87" s="27">
+      <c r="C87" s="26">
         <v>1.54</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87" s="26">
         <v>1.64</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E87" s="26">
         <f t="shared" si="3"/>
         <v>6.4935064935064846</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30.75">
       <c r="A88" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 20 и до 21 (включительно)</v>
       </c>
-      <c r="C88" s="29">
+      <c r="C88" s="28">
         <v>1.88</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88" s="26">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E88" s="26">
         <f t="shared" si="3"/>
         <v>6.9148936170212716</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30.75">
       <c r="A89" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 21 и до 22 (включительно)</v>
       </c>
-      <c r="C89" s="29">
+      <c r="C89" s="28">
         <v>2.52</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89" s="26">
         <v>2.69</v>
       </c>
-      <c r="E89" s="27">
+      <c r="E89" s="26">
         <f t="shared" si="3"/>
         <v>6.7460317460317425</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30.75">
       <c r="A90" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 22 и до 23 (включительно)</v>
       </c>
-      <c r="C90" s="29">
+      <c r="C90" s="28">
         <v>3.16</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="26">
         <v>3.37</v>
       </c>
-      <c r="E90" s="27">
+      <c r="E90" s="26">
         <f t="shared" si="3"/>
         <v>6.6455696202531627</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30.75">
       <c r="A91" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 23 и до 24 (включительно)</v>
       </c>
-      <c r="C91" s="29">
+      <c r="C91" s="28">
         <v>3.8</v>
       </c>
-      <c r="D91" s="29">
+      <c r="D91" s="28">
         <v>4.05</v>
       </c>
-      <c r="E91" s="27">
+      <c r="E91" s="26">
         <f t="shared" si="3"/>
         <v>6.5789473684210522</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30.75">
       <c r="A92" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 24 и до 25 (включительно)</v>
       </c>
-      <c r="C92" s="29">
+      <c r="C92" s="28">
         <v>4.45</v>
       </c>
-      <c r="D92" s="33">
+      <c r="D92" s="32">
         <v>4.75</v>
       </c>
-      <c r="E92" s="27">
+      <c r="E92" s="26">
         <f t="shared" si="3"/>
         <v>6.7415730337078612</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30.75">
       <c r="A93" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 25 и до 26 (включительно)</v>
       </c>
-      <c r="C93" s="27">
+      <c r="C93" s="26">
         <v>5.09</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D93" s="26">
         <v>5.43</v>
       </c>
-      <c r="E93" s="27">
+      <c r="E93" s="26">
         <f t="shared" si="3"/>
         <v>6.6797642436149287</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30.75">
       <c r="A94" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 26 и до 27 (включительно)</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="26">
         <v>5.73</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D94" s="26">
         <v>6.11</v>
       </c>
-      <c r="E94" s="27">
+      <c r="E94" s="26">
         <f t="shared" si="3"/>
         <v>6.631762652705059</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30.75">
       <c r="A95" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 27 и до 28 (включительно)</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C95" s="26">
         <v>6.38</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D95" s="26">
         <v>6.81</v>
       </c>
-      <c r="E95" s="27">
+      <c r="E95" s="26">
         <f t="shared" si="3"/>
         <v>6.7398119122257016</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30.75">
       <c r="A96" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 28 и до 29 (включительно)</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96" s="26">
         <v>7.02</v>
       </c>
-      <c r="D96" s="27">
+      <c r="D96" s="26">
         <v>7.49</v>
       </c>
-      <c r="E96" s="27">
+      <c r="E96" s="26">
         <f t="shared" si="3"/>
         <v>6.6951566951567054</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30.75">
       <c r="A97" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 29 и до 30 (включительно)</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97" s="26">
         <v>7.66</v>
       </c>
-      <c r="D97" s="27">
+      <c r="D97" s="26">
         <v>8.17</v>
       </c>
-      <c r="E97" s="27">
+      <c r="E97" s="26">
         <f t="shared" si="3"/>
         <v>6.6579634464751933</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30.75">
       <c r="A98" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 30 и до 31 (включительно)</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="26">
         <v>8.31</v>
       </c>
-      <c r="D98" s="27">
+      <c r="D98" s="26">
         <v>8.8699999999999992</v>
       </c>
-      <c r="E98" s="27">
+      <c r="E98" s="26">
         <f t="shared" si="3"/>
         <v>6.7388688327316331</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30.75">
       <c r="A99" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 31 и до 32 (включительно)</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="26">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99" s="26">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E99" s="27">
+      <c r="E99" s="26">
         <f t="shared" si="3"/>
         <v>6.7039106145251566</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30.75">
       <c r="A100" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 32 и до 33 (включительно)</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="26">
         <v>9.59</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100" s="26">
         <v>10.23</v>
       </c>
-      <c r="E100" s="27">
+      <c r="E100" s="26">
         <f t="shared" si="3"/>
         <v>6.6736183524504753</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30.75">
       <c r="A101" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 33 и до 34 (включительно)</v>
       </c>
-      <c r="C101" s="27">
+      <c r="C101" s="26">
         <v>10.23</v>
       </c>
-      <c r="D101" s="27">
+      <c r="D101" s="26">
         <v>10.92</v>
       </c>
-      <c r="E101" s="27">
+      <c r="E101" s="26">
         <f t="shared" si="3"/>
         <v>6.7448680351906116</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30.75">
       <c r="A102" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 34 и до 35 (включительно)</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="26">
         <v>10.88</v>
       </c>
-      <c r="D102" s="27">
+      <c r="D102" s="26">
         <v>11.61</v>
       </c>
-      <c r="E102" s="27">
+      <c r="E102" s="26">
         <f t="shared" si="3"/>
         <v>6.7095588235293988</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30.75">
       <c r="A103" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 35 и до 36 (включительно)</v>
       </c>
-      <c r="C103" s="27">
+      <c r="C103" s="26">
         <v>11.52</v>
       </c>
-      <c r="D103" s="27">
+      <c r="D103" s="26">
         <v>12.29</v>
       </c>
-      <c r="E103" s="27">
+      <c r="E103" s="26">
         <f t="shared" si="3"/>
         <v>6.684027777777775</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30.75">
       <c r="A104" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 36 и до 37 (включительно)</v>
       </c>
-      <c r="C104" s="27">
+      <c r="C104" s="26">
         <v>12.16</v>
       </c>
-      <c r="D104" s="27">
+      <c r="D104" s="26">
         <v>12.97</v>
       </c>
-      <c r="E104" s="27">
+      <c r="E104" s="26">
         <f t="shared" si="3"/>
         <v>6.6611842105263195</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30.75">
       <c r="A105" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 37 и до 38 (включительно)</v>
       </c>
-      <c r="C105" s="27">
+      <c r="C105" s="26">
         <v>12.81</v>
       </c>
-      <c r="D105" s="27">
+      <c r="D105" s="26">
         <v>13.67</v>
       </c>
-      <c r="E105" s="27">
+      <c r="E105" s="26">
         <f t="shared" si="3"/>
         <v>6.7135050741608069</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30.75">
       <c r="A106" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 38 и до 39 (включительно)</v>
       </c>
-      <c r="C106" s="27">
+      <c r="C106" s="26">
         <v>13.45</v>
       </c>
-      <c r="D106" s="27">
+      <c r="D106" s="26">
         <v>14.35</v>
       </c>
-      <c r="E106" s="27">
+      <c r="E106" s="26">
         <f t="shared" si="3"/>
         <v>6.6914498141263978</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30.75">
       <c r="A107" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 39 и до 40 (включительно)</v>
       </c>
-      <c r="C107" s="27">
+      <c r="C107" s="26">
         <v>14.09</v>
       </c>
-      <c r="D107" s="27">
+      <c r="D107" s="26">
         <v>15.03</v>
       </c>
-      <c r="E107" s="27">
+      <c r="E107" s="26">
         <f t="shared" si="3"/>
         <v>6.6713981547196557</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30.75">
       <c r="A108" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 40 и до 41 (включительно)</v>
       </c>
-      <c r="C108" s="27">
+      <c r="C108" s="26">
         <v>14.73</v>
       </c>
-      <c r="D108" s="27">
+      <c r="D108" s="26">
         <v>15.72</v>
       </c>
-      <c r="E108" s="27">
+      <c r="E108" s="26">
         <f t="shared" si="3"/>
         <v>6.7209775967413456</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30.75">
       <c r="A109" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 41 и до 42 (включительно)</v>
       </c>
-      <c r="C109" s="27">
+      <c r="C109" s="26">
         <v>15.38</v>
       </c>
-      <c r="D109" s="27">
+      <c r="D109" s="26">
         <v>16.41</v>
       </c>
-      <c r="E109" s="27">
+      <c r="E109" s="26">
         <f t="shared" si="3"/>
         <v>6.6970091027308154</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30.75">
       <c r="A110" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 42 и до 43 (включительно)</v>
       </c>
-      <c r="C110" s="27">
+      <c r="C110" s="26">
         <v>16.02</v>
       </c>
-      <c r="D110" s="27">
+      <c r="D110" s="26">
         <v>17.09</v>
       </c>
-      <c r="E110" s="27">
+      <c r="E110" s="26">
         <f t="shared" si="3"/>
         <v>6.6791510611735356</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30.75">
       <c r="A111" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 43 и до 44 (включительно)</v>
       </c>
-      <c r="C111" s="27">
+      <c r="C111" s="26">
         <v>16.66</v>
       </c>
-      <c r="D111" s="27">
+      <c r="D111" s="26">
         <v>17.78</v>
       </c>
-      <c r="E111" s="27">
+      <c r="E111" s="26">
         <f t="shared" si="3"/>
         <v>6.7226890756302575</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30.75">
       <c r="A112" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 44 и до 45 (включительно)</v>
       </c>
-      <c r="C112" s="27">
+      <c r="C112" s="26">
         <v>17.309999999999999</v>
       </c>
-      <c r="D112" s="27">
+      <c r="D112" s="26">
         <v>18.47</v>
       </c>
-      <c r="E112" s="27">
+      <c r="E112" s="26">
         <f t="shared" si="3"/>
         <v>6.7013287117273261</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30.75">
       <c r="A113" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 45 и до 46 (включительно)</v>
       </c>
-      <c r="C113" s="27">
+      <c r="C113" s="26">
         <v>17.95</v>
       </c>
-      <c r="D113" s="27">
+      <c r="D113" s="26">
         <v>19.149999999999999</v>
       </c>
-      <c r="E113" s="27">
+      <c r="E113" s="26">
         <f t="shared" si="3"/>
         <v>6.6852367688022243</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30.75">
       <c r="A114" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 46 и до 47 (включительно)</v>
       </c>
-      <c r="C114" s="27">
+      <c r="C114" s="26">
         <v>18.59</v>
       </c>
-      <c r="D114" s="27">
+      <c r="D114" s="26">
         <v>19.84</v>
       </c>
-      <c r="E114" s="27">
+      <c r="E114" s="26">
         <f t="shared" si="3"/>
         <v>6.7240451855836474</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="30.75">
       <c r="A115" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 47 и до 48 (включительно)</v>
       </c>
-      <c r="C115" s="27">
+      <c r="C115" s="26">
         <v>19.239999999999998</v>
       </c>
-      <c r="D115" s="27">
+      <c r="D115" s="26">
         <v>20.53</v>
       </c>
-      <c r="E115" s="27">
+      <c r="E115" s="26">
         <f t="shared" si="3"/>
         <v>6.7047817047817189</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30.75">
       <c r="A116" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="4"/>
         <v>Свыше 48 и до 49 (включительно)</v>
       </c>
-      <c r="C116" s="27">
+      <c r="C116" s="26">
         <v>19.88</v>
       </c>
-      <c r="D116" s="27">
+      <c r="D116" s="26">
         <v>21.21</v>
       </c>
-      <c r="E116" s="27">
+      <c r="E116" s="26">
         <f t="shared" si="3"/>
         <v>6.6901408450704318</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30.75">
       <c r="A117" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C117" s="27">
+        <v>232</v>
+      </c>
+      <c r="C117" s="26">
         <v>20.52</v>
       </c>
-      <c r="D117" s="27">
+      <c r="D117" s="26">
         <v>21.89</v>
       </c>
-      <c r="E117" s="27">
+      <c r="E117" s="26">
         <f t="shared" si="3"/>
         <v>6.6764132553606288</v>
       </c>

--- a/Налоги_таблицы.xlsx
+++ b/Налоги_таблицы.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1917" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C30920FB-039B-4489-9AF2-2F9FA17BEC79}"/>
+  <xr:revisionPtr revIDLastSave="1940" documentId="11_924874E5C5FBB6926123EA198B3E8C185103838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269ECB76-1C32-49E4-B4BA-6F80C7CEA74A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Транспортный" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="363">
   <si>
     <t>Тип транспортных средств </t>
   </si>
@@ -162,12 +162,21 @@
     <t>Природные ресурсы</t>
   </si>
   <si>
-    <t>Налог-2025</t>
+    <t>Единица налогообложения</t>
+  </si>
+  <si>
+    <t>Ставка_2025</t>
+  </si>
+  <si>
+    <t>Ставка_2026</t>
   </si>
   <si>
     <t>Гипс </t>
   </si>
   <si>
+    <t>за тонну</t>
+  </si>
+  <si>
     <t>1,5808 </t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>Бентонитовые глины</t>
   </si>
   <si>
+    <t>за кубометр</t>
+  </si>
+  <si>
     <t> 1,1602</t>
   </si>
   <si>
@@ -273,13 +285,13 @@
     <t>Мореный дуб</t>
   </si>
   <si>
-    <t xml:space="preserve"> 125,6512 </t>
+    <t> 125,6512</t>
   </si>
   <si>
     <t>Песок для дорожного строительства</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0,0798 </t>
+    <t> 0,0798</t>
   </si>
   <si>
     <t>Песок для иных целей</t>
@@ -306,13 +318,13 @@
     <t>Подземные и поверхностные воды для животноводства, растениеводства, рыбоводства</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0,0018 </t>
+    <t> 0,0018</t>
   </si>
   <si>
     <t>Пресные и минеральные воды для производства алкогольных, безалкогольных, слабоалкогольных напитков и пива</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5,3949 </t>
+    <t> 5,3949</t>
   </si>
   <si>
     <t>Подземные и поверхностные воды для иного использования</t>
@@ -333,9 +345,15 @@
     <t>Янтарь</t>
   </si>
   <si>
+    <t>за килограмм</t>
+  </si>
+  <si>
     <t>Золото</t>
   </si>
   <si>
+    <t>за грамм</t>
+  </si>
+  <si>
     <t>Виноградная улитка</t>
   </si>
   <si>
@@ -351,6 +369,9 @@
     <t>изъятие гадюки обыкновенной</t>
   </si>
   <si>
+    <t>за экземпляр</t>
+  </si>
+  <si>
     <t>Способ обращения с отходами</t>
   </si>
   <si>
@@ -360,12 +381,6 @@
     <t>Конкретный вид отхода</t>
   </si>
   <si>
-    <t>Ставка_2025</t>
-  </si>
-  <si>
-    <t>Ставка_2026</t>
-  </si>
-  <si>
     <t>Рост_налога</t>
   </si>
   <si>
@@ -508,9 +523,6 @@
   </si>
   <si>
     <t>Подакцизный_товар</t>
-  </si>
-  <si>
-    <t>Единица налогообложения</t>
   </si>
   <si>
     <t>Спирт-сырец (для ректификации)</t>
@@ -539,9 +551,6 @@
 для кальяна) </t>
   </si>
   <si>
-    <t>за килограмм</t>
-  </si>
-  <si>
     <t xml:space="preserve">Техспирт этиловый ректификованный </t>
   </si>
   <si>
@@ -613,9 +622,6 @@
   </si>
   <si>
     <t>Дизельное топливо ниже класса 5</t>
-  </si>
-  <si>
-    <t>за тонну</t>
   </si>
   <si>
     <t xml:space="preserve">Бензин не ниже класса 5 </t>
@@ -1133,8 +1139,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1290,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -1378,6 +1385,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1917,27 +1927,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C2" s="29">
         <v>35.89</v>
@@ -1952,10 +1962,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C3" s="25">
         <v>32.340000000000003</v>
@@ -1970,10 +1980,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C4" s="29">
         <v>32.159999999999997</v>
@@ -1988,10 +1998,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C5" s="29">
         <v>22.31</v>
@@ -2006,10 +2016,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C6" s="29">
         <v>24.29</v>
@@ -2024,10 +2034,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C7" s="29">
         <v>30.2</v>
@@ -2042,10 +2052,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C8" s="29">
         <v>23.3</v>
@@ -2060,10 +2070,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C9" s="29">
         <v>25.64</v>
@@ -2078,10 +2088,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C10" s="25">
         <v>32.159999999999997</v>
@@ -2096,10 +2106,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C11" s="29">
         <v>25.05</v>
@@ -2114,10 +2124,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C12" s="29">
         <v>16.829999999999998</v>
@@ -2132,10 +2142,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C13" s="29">
         <v>35.08</v>
@@ -2150,10 +2160,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C14" s="29">
         <v>18.18</v>
@@ -2168,10 +2178,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C15" s="29">
         <v>22.72</v>
@@ -2186,10 +2196,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C16" s="29">
         <v>28.81</v>
@@ -2204,10 +2214,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C17" s="25">
         <v>24.29</v>
@@ -2222,10 +2232,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C18" s="29">
         <v>17.41</v>
@@ -2240,10 +2250,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C19" s="29">
         <v>8.9499999999999993</v>
@@ -2258,10 +2268,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C20" s="29">
         <v>10.32</v>
@@ -2276,10 +2286,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C21" s="29">
         <v>12.29</v>
@@ -2294,10 +2304,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C22" s="29">
         <v>18.18</v>
@@ -2312,10 +2322,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C23" s="29">
         <v>4.5599999999999996</v>
@@ -2330,10 +2340,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C24" s="29">
         <v>17.989999999999998</v>
@@ -2348,10 +2358,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C25" s="29">
         <v>25.27</v>
@@ -2366,10 +2376,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C26" s="29">
         <v>9.94</v>
@@ -2384,10 +2394,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C27" s="29">
         <v>12.5</v>
@@ -2402,10 +2412,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C28" s="29">
         <v>14.08</v>
@@ -2420,10 +2430,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C29" s="29">
         <v>26.26</v>
@@ -2438,10 +2448,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C30" s="29">
         <v>5.64</v>
@@ -2456,10 +2466,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C31" s="29">
         <v>14.25</v>
@@ -2474,10 +2484,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C32" s="29">
         <v>4.5599999999999996</v>
@@ -2492,10 +2502,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C33" s="29">
         <v>14.25</v>
@@ -2510,10 +2520,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C34" s="29">
         <v>23.88</v>
@@ -2528,10 +2538,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C35" s="29">
         <v>7.16</v>
@@ -2546,10 +2556,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C36" s="29">
         <v>15.06</v>
@@ -2564,10 +2574,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C37" s="25">
         <v>18.18</v>
@@ -2582,10 +2592,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C38" s="25">
         <v>10.55</v>
@@ -2600,10 +2610,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C39" s="29">
         <v>19.91</v>
@@ -2618,10 +2628,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C40" s="29">
         <v>28.41</v>
@@ -2636,10 +2646,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C41" s="29">
         <v>28.41</v>
@@ -2654,10 +2664,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C42" s="29">
         <v>21.74</v>
@@ -2672,10 +2682,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C43" s="29">
         <v>30.78</v>
@@ -2690,10 +2700,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C44" s="29">
         <v>14.86</v>
@@ -2708,10 +2718,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C45" s="29">
         <v>21.55</v>
@@ -2726,10 +2736,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C46" s="29">
         <v>31.93</v>
@@ -2744,10 +2754,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C47" s="29">
         <v>18.39</v>
@@ -2762,10 +2772,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C48" s="29">
         <v>35.450000000000003</v>
@@ -2780,10 +2790,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C49" s="29">
         <v>17.41</v>
@@ -2798,10 +2808,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C50" s="29">
         <v>15.24</v>
@@ -2816,10 +2826,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C51" s="29">
         <v>18.97</v>
@@ -2834,10 +2844,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C52" s="29">
         <v>18.97</v>
@@ -2852,10 +2862,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C53" s="29">
         <v>24.66</v>
@@ -2870,10 +2880,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C54" s="29">
         <v>14.25</v>
@@ -2888,10 +2898,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C55" s="29">
         <v>22.9</v>
@@ -2906,10 +2916,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C56" s="29">
         <v>31.38</v>
@@ -2924,10 +2934,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C57" s="29">
         <v>18.18</v>
@@ -2942,10 +2952,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C58" s="29">
         <v>31.38</v>
@@ -2960,10 +2970,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C59" s="29">
         <v>26.07</v>
@@ -2978,10 +2988,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C60" s="29">
         <v>39.99</v>
@@ -2996,10 +3006,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C61" s="29">
         <v>41.19</v>
@@ -3014,10 +3024,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C62" s="29">
         <v>31.54</v>
@@ -3032,10 +3042,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C63" s="29">
         <v>38.43</v>
@@ -3050,10 +3060,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C64" s="29">
         <v>25.05</v>
@@ -3068,10 +3078,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C65" s="29">
         <v>39.99</v>
@@ -3086,10 +3096,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C66" s="29">
         <v>23.53</v>
@@ -3104,10 +3114,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C67" s="29">
         <v>41.4</v>
@@ -3122,10 +3132,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C68" s="29">
         <v>29.79</v>
@@ -3140,10 +3150,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C69" s="29">
         <v>35.68</v>
@@ -3158,10 +3168,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C70" s="29">
         <v>30.56</v>
@@ -3176,10 +3186,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C71" s="29">
         <v>22.31</v>
@@ -3194,10 +3204,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C72" s="29">
         <v>28.81</v>
@@ -3212,10 +3222,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C73" s="29">
         <v>30.56</v>
@@ -3230,10 +3240,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C74" s="29">
         <v>34.11</v>
@@ -3248,10 +3258,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C75" s="29">
         <v>23.3</v>
@@ -3266,10 +3276,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C76" s="29">
         <v>36.270000000000003</v>
@@ -3284,10 +3294,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C77" s="29">
         <v>18.97</v>
@@ -3302,10 +3312,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C78" s="29">
         <v>27.82</v>
@@ -3320,10 +3330,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C79" s="29">
         <v>23.53</v>
@@ -3338,10 +3348,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C80" s="29">
         <v>25.64</v>
@@ -3356,10 +3366,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C81" s="29">
         <v>33.72</v>
@@ -3374,10 +3384,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C82" s="29">
         <v>46.68</v>
@@ -3392,10 +3402,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C83" s="29">
         <v>40.799999999999997</v>
@@ -3410,10 +3420,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C84" s="29">
         <v>17.21</v>
@@ -3428,10 +3438,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C85" s="29">
         <v>17.010000000000002</v>
@@ -3446,10 +3456,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C86" s="29">
         <v>25.64</v>
@@ -3464,10 +3474,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C87" s="29">
         <v>35.08</v>
@@ -3482,10 +3492,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C88" s="29">
         <v>31.93</v>
@@ -3500,10 +3510,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C89" s="29">
         <v>12.5</v>
@@ -3518,10 +3528,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C90" s="29">
         <v>50.62</v>
@@ -3536,10 +3546,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C91" s="29">
         <v>25.49</v>
@@ -3554,10 +3564,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C92" s="29">
         <v>41.55</v>
@@ -3572,10 +3582,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C93" s="29">
         <v>28.81</v>
@@ -3590,10 +3600,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C94" s="29">
         <v>30.56</v>
@@ -3608,10 +3618,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C95" s="29">
         <v>19.97</v>
@@ -3626,10 +3636,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C96" s="29">
         <v>28.02</v>
@@ -3644,10 +3654,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C97" s="29">
         <v>28.41</v>
@@ -3662,10 +3672,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C98" s="29">
         <v>27.45</v>
@@ -3680,10 +3690,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C99" s="29">
         <v>31.93</v>
@@ -3698,10 +3708,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C100" s="29">
         <v>35.299999999999997</v>
@@ -3716,10 +3726,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C101" s="29">
         <v>26.83</v>
@@ -3734,10 +3744,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C102" s="29">
         <v>24.07</v>
@@ -3752,10 +3762,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C103" s="29">
         <v>29.58</v>
@@ -3770,10 +3780,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C104" s="29">
         <v>23.68</v>
@@ -3788,10 +3798,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C105" s="29">
         <v>37.64</v>
@@ -3806,10 +3816,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C106" s="29">
         <v>21.33</v>
@@ -3824,10 +3834,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C107" s="29">
         <v>24.49</v>
@@ -3842,10 +3852,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C108" s="29">
         <v>14.46</v>
@@ -3860,10 +3870,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C109" s="29">
         <v>17.41</v>
@@ -3878,10 +3888,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C110" s="29">
         <v>28.02</v>
@@ -3896,10 +3906,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C111" s="29">
         <v>36.270000000000003</v>
@@ -3914,10 +3924,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C112" s="29">
         <v>34.299999999999997</v>
@@ -3932,10 +3942,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C113" s="29">
         <v>23.3</v>
@@ -3950,10 +3960,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C114" s="29">
         <v>29.42</v>
@@ -3968,10 +3978,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C115" s="29">
         <v>20.14</v>
@@ -3986,10 +3996,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C116" s="29">
         <v>20.94</v>
@@ -4004,10 +4014,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C117" s="30">
         <v>25.49</v>
@@ -4022,10 +4032,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C118" s="30">
         <v>28.22</v>
@@ -4040,10 +4050,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C119" s="30">
         <v>35.450000000000003</v>
@@ -4063,379 +4073,478 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747FE41C-6508-4947-99C1-6794BFB9E6F3}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="23">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="23">
         <v>1.238</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="23">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="23">
         <v>0.1976</v>
       </c>
-      <c r="C12" s="23">
+      <c r="D12" s="23">
         <v>0.20130000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="23">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="23">
         <v>1.238</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="C14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="23">
         <v>3.0949</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30.75">
+    <row r="15" spans="1:4" ht="30.75">
       <c r="A15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="23">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="23">
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="23">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="23">
         <v>134.06989999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="23">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="23">
         <v>8.5199999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="23">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="23">
         <v>0.15329999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30.75">
+    <row r="19" spans="1:4" ht="30.75">
       <c r="A19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="23">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="23">
         <v>0.129</v>
       </c>
-      <c r="C19" s="23">
+      <c r="D19" s="23">
         <v>0.13769999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30.75">
+    <row r="20" spans="1:4" ht="30.75">
       <c r="A20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="23">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="23">
         <v>0.27860000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30.75">
+    <row r="21" spans="1:4" ht="30.75">
       <c r="A21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="23">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="23">
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45.75">
+    <row r="22" spans="1:4" ht="45.75">
       <c r="A22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="23">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="38">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60.75">
+    <row r="23" spans="1:4" ht="60.75">
       <c r="A23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="23">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="23">
         <v>5.7564000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30.75">
+    <row r="24" spans="1:4" ht="30.75">
       <c r="A24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="23">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="23">
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30.75">
+    <row r="25" spans="1:4" ht="30.75">
       <c r="A25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="23">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="23">
         <v>0.30959999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45.75">
+    <row r="26" spans="1:4" ht="45.75">
       <c r="A26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="23">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="23">
         <v>0.1976</v>
       </c>
-      <c r="C26" s="23">
+      <c r="D26" s="23">
         <v>0.2109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="15.75">
+    <row r="27" spans="1:4" s="5" customFormat="1" ht="15.75">
       <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="23">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="23">
         <v>18.867999999999999</v>
       </c>
-      <c r="C27" s="23">
+      <c r="D27" s="23">
         <v>20.132200000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" ht="15.75">
+    <row r="28" spans="1:4" s="5" customFormat="1" ht="15.75">
       <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="23">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="23">
         <v>2.5089999999999999</v>
       </c>
-      <c r="C28" s="23">
+      <c r="D28" s="23">
         <v>2.6770999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="15.75">
+    <row r="29" spans="1:4" s="5" customFormat="1" ht="15.75">
       <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="23">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="23">
         <v>54.008000000000003</v>
       </c>
-      <c r="C29" s="23">
+      <c r="D29" s="23">
         <v>57.626600000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" ht="15.75">
+    <row r="30" spans="1:4" s="5" customFormat="1" ht="15.75">
       <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="23">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="23">
         <v>7723.5604000000003</v>
       </c>
-      <c r="C30" s="23">
+      <c r="D30" s="23">
         <v>8241.0390000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" ht="30.75">
+    <row r="31" spans="1:4" s="5" customFormat="1" ht="30.75">
       <c r="A31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="23">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="23">
         <v>6285.4314999999997</v>
       </c>
-      <c r="C31" s="23">
+      <c r="D31" s="23">
         <v>6706.5555000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="15.75">
+    <row r="32" spans="1:4" s="5" customFormat="1" ht="15.75">
       <c r="A32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="23">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="23">
         <v>2001.5</v>
       </c>
-      <c r="C32" s="23">
+      <c r="D32" s="23">
         <v>2135.6005</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="15.75">
+    <row r="33" spans="1:4" s="5" customFormat="1" ht="15.75">
       <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="23">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="23">
         <v>9.2527000000000008</v>
       </c>
-      <c r="C33" s="23">
+      <c r="D33" s="23">
         <v>9.8727</v>
       </c>
     </row>
@@ -4463,30 +4572,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="34" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25">
       <c r="A2" s="36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" s="25">
         <v>8.25</v>
@@ -4500,10 +4609,10 @@
     </row>
     <row r="3" spans="1:6" ht="30.75">
       <c r="A3" s="36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="25">
@@ -4518,10 +4627,10 @@
     </row>
     <row r="4" spans="1:6" ht="29.25">
       <c r="A4" s="36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="25">
@@ -4536,10 +4645,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="25">
@@ -4554,10 +4663,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="25">
@@ -4572,10 +4681,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="25">
@@ -4590,10 +4699,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="25">
@@ -4608,13 +4717,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>3.63</v>
@@ -4628,13 +4737,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>0.26</v>
@@ -4648,13 +4757,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D11">
         <v>1.1000000000000001</v>
@@ -4668,13 +4777,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D12" s="25">
         <v>0.2</v>
@@ -4688,13 +4797,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D13" s="25">
         <v>8.91</v>
@@ -4729,21 +4838,21 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75">
       <c r="A1" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B2" s="24">
         <v>32.03</v>
@@ -4758,7 +4867,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B3" s="24">
         <v>39.869999999999997</v>
@@ -4773,7 +4882,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B4" s="24">
         <v>67.989999999999995</v>
@@ -4788,7 +4897,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B5" s="24">
         <v>94.7</v>
@@ -4803,7 +4912,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B6" s="24">
         <v>122.81</v>
@@ -4818,7 +4927,7 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B7" s="24">
         <v>149.16</v>
@@ -4837,7 +4946,7 @@
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B8" s="24">
         <v>177.66</v>
@@ -4856,7 +4965,7 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B9" s="37">
         <v>220.08</v>
@@ -4875,7 +4984,7 @@
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B10" s="24">
         <v>232.48</v>
@@ -4894,7 +5003,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B11" s="24">
         <v>258.81</v>
@@ -4909,7 +5018,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B12" s="24">
         <v>285.17</v>
@@ -4924,7 +5033,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B13" s="24">
         <v>313.64</v>
@@ -4939,7 +5048,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B14" s="24">
         <v>341.78</v>
@@ -4954,7 +5063,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B15" s="24">
         <v>368.48</v>
@@ -4989,21 +5098,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B2" s="26">
         <v>0.18</v>
@@ -5018,7 +5127,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B3" s="26">
         <v>0.2</v>
@@ -5033,7 +5142,7 @@
     </row>
     <row r="4" spans="1:4" ht="30.75">
       <c r="A4" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B4" s="26">
         <v>0.2</v>
@@ -5048,7 +5157,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B5" s="26">
         <v>11.09</v>
@@ -5084,27 +5193,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B2" s="26">
         <v>46724.6</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D2" s="27">
         <v>6.7</v>
@@ -5112,7 +5221,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B3" s="26">
         <v>1398.94</v>
@@ -5127,7 +5236,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B4" s="26">
         <v>462.46</v>
@@ -5142,7 +5251,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B5" s="26">
         <v>229.79</v>
@@ -5190,27 +5299,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="35" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C2" s="26">
         <v>0</v>
@@ -5224,10 +5333,10 @@
     </row>
     <row r="3" spans="1:5" ht="30.75">
       <c r="A3" s="35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C3" s="26">
         <v>0</v>
@@ -5241,10 +5350,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C4" s="26">
         <v>0</v>
@@ -5258,10 +5367,10 @@
     </row>
     <row r="5" spans="1:5" ht="45.75">
       <c r="A5" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
@@ -5275,10 +5384,10 @@
     </row>
     <row r="6" spans="1:5" ht="30.75">
       <c r="A6" s="35" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C6" s="26">
         <v>0.85</v>
@@ -5293,10 +5402,10 @@
     </row>
     <row r="7" spans="1:5" ht="45.75">
       <c r="A7" s="35" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C7" s="26">
         <v>102.51</v>
@@ -5311,10 +5420,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C8" s="26">
         <v>0.6</v>
@@ -5329,10 +5438,10 @@
     </row>
     <row r="9" spans="1:5" ht="30.75">
       <c r="A9" s="35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C9" s="26">
         <v>119.59</v>
@@ -5347,10 +5456,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="35" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" s="26">
         <v>119.59</v>
@@ -5365,10 +5474,10 @@
     </row>
     <row r="11" spans="1:5" ht="30.75">
       <c r="A11" s="35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C11" s="26">
         <v>0.24</v>
@@ -5383,10 +5492,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C12" s="26">
         <v>0.5</v>
@@ -5401,10 +5510,10 @@
     </row>
     <row r="13" spans="1:5" ht="30.75">
       <c r="A13" s="35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C13" s="26">
         <v>10.5</v>
@@ -5419,10 +5528,10 @@
     </row>
     <row r="14" spans="1:5" ht="45.75">
       <c r="A14" s="35" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C14" s="26">
         <v>1.42</v>
@@ -5437,10 +5546,10 @@
     </row>
     <row r="15" spans="1:5" ht="45.75">
       <c r="A15" s="35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C15" s="26">
         <v>7.53</v>
@@ -5455,10 +5564,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C16" s="26">
         <v>18.09</v>
@@ -5473,10 +5582,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="35" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C17" s="26">
         <v>13.13</v>
@@ -5491,10 +5600,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C18" s="26">
         <v>24.55</v>
@@ -5509,10 +5618,10 @@
     </row>
     <row r="19" spans="1:5" ht="30.75">
       <c r="A19" s="35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C19" s="26">
         <v>18.559999999999999</v>
@@ -5527,10 +5636,10 @@
     </row>
     <row r="20" spans="1:5" ht="30.75">
       <c r="A20" s="35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C20" s="26">
         <v>194.29</v>
@@ -5545,10 +5654,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C21" s="26">
         <v>194.29</v>
@@ -5563,10 +5672,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C22" s="26">
         <v>187.15</v>
@@ -5581,10 +5690,10 @@
     </row>
     <row r="23" spans="1:5" ht="30.75">
       <c r="A23" s="35" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C23" s="26">
         <v>163.63999999999999</v>
@@ -5599,10 +5708,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C24" s="26">
         <v>32.49</v>
@@ -5617,10 +5726,10 @@
     </row>
     <row r="25" spans="1:5" ht="30.75">
       <c r="A25" s="35" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C25" s="26">
         <v>32.49</v>
@@ -5635,10 +5744,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C26" s="26">
         <v>1.62</v>
@@ -5653,10 +5762,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="35" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C27" s="26">
         <v>1.06</v>
@@ -5671,10 +5780,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C28" s="26">
         <v>0.77</v>
@@ -5689,10 +5798,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="C29" s="26">
         <v>1976.26</v>
@@ -5707,10 +5816,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="C30" s="26">
         <v>4079.56</v>
@@ -5725,10 +5834,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="C31" s="26">
         <v>2532.04</v>
@@ -5743,10 +5852,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C32" s="26">
         <v>370.01</v>
@@ -5761,10 +5870,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="C33" s="26">
         <v>1563.12</v>
@@ -5779,10 +5888,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="C34" s="26">
         <v>231.11</v>
@@ -5797,10 +5906,10 @@
     </row>
     <row r="35" spans="1:5" ht="30.75">
       <c r="A35" s="35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C35" s="26">
         <v>0.5</v>
@@ -5815,10 +5924,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C36" s="26">
         <v>0.54</v>
@@ -5833,10 +5942,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C37" s="26">
         <v>31.95</v>
@@ -5851,10 +5960,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C38" s="26">
         <v>60.34</v>
@@ -5869,10 +5978,10 @@
     </row>
     <row r="39" spans="1:5" ht="30.75">
       <c r="A39" s="35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C39" s="26">
         <v>60.34</v>
@@ -5887,10 +5996,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="C40" s="26">
         <v>513.42999999999995</v>
@@ -5928,27 +6037,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C2" s="26">
         <v>0.96</v>
@@ -5963,10 +6072,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C3" s="26">
         <v>0.96</v>
@@ -5981,10 +6090,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C4" s="26">
         <v>0.96</v>
@@ -5999,10 +6108,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C5" s="26">
         <v>0.96</v>
@@ -6017,10 +6126,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C6" s="26">
         <v>0.96</v>
@@ -6035,10 +6144,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" s="26">
         <v>0.96</v>
@@ -6053,10 +6162,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C8" s="26">
         <v>0.96</v>
@@ -6071,10 +6180,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C9" s="26">
         <v>0.96</v>
@@ -6089,10 +6198,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C10" s="26">
         <v>0.96</v>
@@ -6107,10 +6216,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C11" s="26">
         <v>0.96</v>
@@ -6125,10 +6234,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C12" s="26">
         <v>0.96</v>
@@ -6143,10 +6252,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C13" s="26">
         <v>0.96</v>
@@ -6161,10 +6270,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C14" s="26">
         <v>0.96</v>
@@ -6179,10 +6288,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C15" s="26">
         <v>0.96</v>
@@ -6197,10 +6306,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C16" s="26">
         <v>0.96</v>
@@ -6215,10 +6324,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C17" s="26">
         <v>1.53</v>
@@ -6233,10 +6342,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C18" s="26">
         <v>1.96</v>
@@ -6251,10 +6360,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C19" s="26">
         <v>2.39</v>
@@ -6269,10 +6378,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C20" s="26">
         <v>2.82</v>
@@ -6287,10 +6396,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C21" s="26">
         <v>3.26</v>
@@ -6305,10 +6414,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C22" s="26">
         <v>3.69</v>
@@ -6323,10 +6432,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C23" s="26">
         <v>4.12</v>
@@ -6341,7 +6450,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6360,7 +6469,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:B44" si="1">"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6379,7 +6488,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
@@ -6398,7 +6507,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
@@ -6417,7 +6526,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
@@ -6436,7 +6545,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
@@ -6455,7 +6564,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
@@ -6474,7 +6583,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B31" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6493,7 +6602,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
@@ -6512,7 +6621,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
@@ -6531,7 +6640,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
@@ -6550,7 +6659,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
@@ -6569,7 +6678,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
@@ -6588,7 +6697,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
@@ -6607,7 +6716,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
@@ -6626,7 +6735,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
@@ -6645,7 +6754,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
@@ -6664,7 +6773,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B41" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6683,7 +6792,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
@@ -6702,7 +6811,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
@@ -6721,7 +6830,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
@@ -6740,7 +6849,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B45" t="str">
         <f>"Свыше " &amp; (ROW() + 3) &amp; " и до " &amp; (ROW() + 4) &amp; " (включительно)"</f>
@@ -6759,10 +6868,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C46" s="26">
         <v>14.06</v>
@@ -6777,10 +6886,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C47" s="26">
         <v>0.06</v>
@@ -6795,10 +6904,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C48" s="26">
         <v>0.14000000000000001</v>
@@ -6813,7 +6922,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B49" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
@@ -6832,7 +6941,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" ref="B50:B71" si="2">"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
@@ -6851,7 +6960,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="2"/>
@@ -6870,7 +6979,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="2"/>
@@ -6889,7 +6998,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="2"/>
@@ -6908,7 +7017,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="2"/>
@@ -6927,7 +7036,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="2"/>
@@ -6946,7 +7055,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="2"/>
@@ -6965,7 +7074,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="2"/>
@@ -6984,7 +7093,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="2"/>
@@ -7003,7 +7112,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="2"/>
@@ -7022,7 +7131,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="2"/>
@@ -7041,7 +7150,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="2"/>
@@ -7060,7 +7169,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="2"/>
@@ -7079,7 +7188,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="2"/>
@@ -7098,7 +7207,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="2"/>
@@ -7117,7 +7226,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="2"/>
@@ -7136,7 +7245,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="2"/>
@@ -7155,7 +7264,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
@@ -7174,7 +7283,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
@@ -7193,7 +7302,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B69" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
@@ -7212,7 +7321,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
@@ -7231,7 +7340,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
@@ -7250,7 +7359,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B72" t="str">
         <f>"Свыше " &amp; (ROW() - 42) &amp; " и до " &amp; (ROW() - 41) &amp; " (включительно)"</f>
@@ -7269,10 +7378,10 @@
     </row>
     <row r="73" spans="1:5" ht="30.75">
       <c r="A73" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C73" s="26">
         <v>1.53</v>
@@ -7287,10 +7396,10 @@
     </row>
     <row r="74" spans="1:5" ht="30.75">
       <c r="A74" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C74" s="26">
         <v>1.53</v>
@@ -7305,7 +7414,7 @@
     </row>
     <row r="75" spans="1:5" ht="30.75">
       <c r="A75" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B75" t="str">
         <f>"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
@@ -7324,7 +7433,7 @@
     </row>
     <row r="76" spans="1:5" ht="30.75">
       <c r="A76" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" ref="B76:B116" si="4">"Свыше " &amp; (ROW() - 68) &amp; " и до " &amp; (ROW() - 67) &amp; " (включительно)"</f>
@@ -7343,7 +7452,7 @@
     </row>
     <row r="77" spans="1:5" ht="30.75">
       <c r="A77" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="4"/>
@@ -7362,7 +7471,7 @@
     </row>
     <row r="78" spans="1:5" ht="30.75">
       <c r="A78" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="4"/>
@@ -7381,7 +7490,7 @@
     </row>
     <row r="79" spans="1:5" ht="30.75">
       <c r="A79" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="4"/>
@@ -7400,7 +7509,7 @@
     </row>
     <row r="80" spans="1:5" ht="30.75">
       <c r="A80" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="4"/>
@@ -7419,7 +7528,7 @@
     </row>
     <row r="81" spans="1:5" ht="30.75">
       <c r="A81" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="4"/>
@@ -7438,7 +7547,7 @@
     </row>
     <row r="82" spans="1:5" ht="30.75">
       <c r="A82" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="4"/>
@@ -7457,7 +7566,7 @@
     </row>
     <row r="83" spans="1:5" ht="30.75">
       <c r="A83" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="4"/>
@@ -7476,7 +7585,7 @@
     </row>
     <row r="84" spans="1:5" ht="30.75">
       <c r="A84" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="4"/>
@@ -7495,7 +7604,7 @@
     </row>
     <row r="85" spans="1:5" ht="30.75">
       <c r="A85" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="4"/>
@@ -7514,7 +7623,7 @@
     </row>
     <row r="86" spans="1:5" ht="30.75">
       <c r="A86" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="4"/>
@@ -7533,7 +7642,7 @@
     </row>
     <row r="87" spans="1:5" ht="30.75">
       <c r="A87" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="4"/>
@@ -7552,7 +7661,7 @@
     </row>
     <row r="88" spans="1:5" ht="30.75">
       <c r="A88" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
@@ -7571,7 +7680,7 @@
     </row>
     <row r="89" spans="1:5" ht="30.75">
       <c r="A89" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
@@ -7590,7 +7699,7 @@
     </row>
     <row r="90" spans="1:5" ht="30.75">
       <c r="A90" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
@@ -7609,7 +7718,7 @@
     </row>
     <row r="91" spans="1:5" ht="30.75">
       <c r="A91" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
@@ -7628,7 +7737,7 @@
     </row>
     <row r="92" spans="1:5" ht="30.75">
       <c r="A92" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
@@ -7647,7 +7756,7 @@
     </row>
     <row r="93" spans="1:5" ht="30.75">
       <c r="A93" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
@@ -7666,7 +7775,7 @@
     </row>
     <row r="94" spans="1:5" ht="30.75">
       <c r="A94" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
@@ -7685,7 +7794,7 @@
     </row>
     <row r="95" spans="1:5" ht="30.75">
       <c r="A95" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
@@ -7704,7 +7813,7 @@
     </row>
     <row r="96" spans="1:5" ht="30.75">
       <c r="A96" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
@@ -7723,7 +7832,7 @@
     </row>
     <row r="97" spans="1:5" ht="30.75">
       <c r="A97" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="4"/>
@@ -7742,7 +7851,7 @@
     </row>
     <row r="98" spans="1:5" ht="30.75">
       <c r="A98" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="4"/>
@@ -7761,7 +7870,7 @@
     </row>
     <row r="99" spans="1:5" ht="30.75">
       <c r="A99" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="4"/>
@@ -7780,7 +7889,7 @@
     </row>
     <row r="100" spans="1:5" ht="30.75">
       <c r="A100" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="4"/>
@@ -7799,7 +7908,7 @@
     </row>
     <row r="101" spans="1:5" ht="30.75">
       <c r="A101" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="4"/>
@@ -7818,7 +7927,7 @@
     </row>
     <row r="102" spans="1:5" ht="30.75">
       <c r="A102" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="4"/>
@@ -7837,7 +7946,7 @@
     </row>
     <row r="103" spans="1:5" ht="30.75">
       <c r="A103" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="4"/>
@@ -7856,7 +7965,7 @@
     </row>
     <row r="104" spans="1:5" ht="30.75">
       <c r="A104" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="4"/>
@@ -7875,7 +7984,7 @@
     </row>
     <row r="105" spans="1:5" ht="30.75">
       <c r="A105" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="4"/>
@@ -7894,7 +8003,7 @@
     </row>
     <row r="106" spans="1:5" ht="30.75">
       <c r="A106" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="4"/>
@@ -7913,7 +8022,7 @@
     </row>
     <row r="107" spans="1:5" ht="30.75">
       <c r="A107" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="4"/>
@@ -7932,7 +8041,7 @@
     </row>
     <row r="108" spans="1:5" ht="30.75">
       <c r="A108" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="4"/>
@@ -7951,7 +8060,7 @@
     </row>
     <row r="109" spans="1:5" ht="30.75">
       <c r="A109" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="4"/>
@@ -7970,7 +8079,7 @@
     </row>
     <row r="110" spans="1:5" ht="30.75">
       <c r="A110" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="4"/>
@@ -7989,7 +8098,7 @@
     </row>
     <row r="111" spans="1:5" ht="30.75">
       <c r="A111" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="4"/>
@@ -8008,7 +8117,7 @@
     </row>
     <row r="112" spans="1:5" ht="30.75">
       <c r="A112" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="4"/>
@@ -8027,7 +8136,7 @@
     </row>
     <row r="113" spans="1:5" ht="30.75">
       <c r="A113" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="4"/>
@@ -8046,7 +8155,7 @@
     </row>
     <row r="114" spans="1:5" ht="30.75">
       <c r="A114" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="4"/>
@@ -8065,7 +8174,7 @@
     </row>
     <row r="115" spans="1:5" ht="30.75">
       <c r="A115" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="4"/>
@@ -8084,7 +8193,7 @@
     </row>
     <row r="116" spans="1:5" ht="30.75">
       <c r="A116" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="4"/>
@@ -8103,10 +8212,10 @@
     </row>
     <row r="117" spans="1:5" ht="30.75">
       <c r="A117" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="C117" s="26">
         <v>20.52</v>
